--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,81 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Slovakia Super Liga</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Dukla Banská Bystrica</t>
+  </si>
+  <si>
+    <t>Skalica</t>
+  </si>
+  <si>
+    <t>Zemplín Michalovce</t>
+  </si>
+  <si>
+    <t>FK Košice</t>
+  </si>
+  <si>
+    <t>Žilina</t>
+  </si>
+  <si>
+    <t>Spartak Trnava</t>
+  </si>
+  <si>
+    <t>Podbrezová</t>
+  </si>
+  <si>
+    <t>Zlaté Moravce</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
+    <t>Ružomberok</t>
+  </si>
+  <si>
+    <t>Trenčín</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['58', '83']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['38', '70', '83']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>['34', '41', '90+2', '90+5']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['36', '90+6']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +827,1152 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6708663</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45135.64583333334</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="R2">
+        <v>6</v>
+      </c>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>2.75</v>
+      </c>
+      <c r="U2">
+        <v>2.3</v>
+      </c>
+      <c r="V2">
+        <v>3.25</v>
+      </c>
+      <c r="W2">
+        <v>1.3</v>
+      </c>
+      <c r="X2">
+        <v>3.4</v>
+      </c>
+      <c r="Y2">
+        <v>2.5</v>
+      </c>
+      <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
+        <v>5.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.13</v>
+      </c>
+      <c r="AC2">
+        <v>2.05</v>
+      </c>
+      <c r="AD2">
+        <v>3.45</v>
+      </c>
+      <c r="AE2">
+        <v>2.68</v>
+      </c>
+      <c r="AF2">
+        <v>1.03</v>
+      </c>
+      <c r="AG2">
+        <v>16</v>
+      </c>
+      <c r="AH2">
+        <v>1.19</v>
+      </c>
+      <c r="AI2">
+        <v>4.33</v>
+      </c>
+      <c r="AJ2">
+        <v>1.65</v>
+      </c>
+      <c r="AK2">
+        <v>2.1</v>
+      </c>
+      <c r="AL2">
+        <v>1.53</v>
+      </c>
+      <c r="AM2">
+        <v>2.38</v>
+      </c>
+      <c r="AN2">
+        <v>1.33</v>
+      </c>
+      <c r="AO2">
+        <v>1.3</v>
+      </c>
+      <c r="AP2">
+        <v>1.7</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.6</v>
+      </c>
+      <c r="AY2">
+        <v>7.5</v>
+      </c>
+      <c r="AZ2">
+        <v>2.9</v>
+      </c>
+      <c r="BA2">
+        <v>1.14</v>
+      </c>
+      <c r="BB2">
+        <v>1.27</v>
+      </c>
+      <c r="BC2">
+        <v>1.42</v>
+      </c>
+      <c r="BD2">
+        <v>1.73</v>
+      </c>
+      <c r="BE2">
+        <v>2.15</v>
+      </c>
+      <c r="BF2">
+        <v>4</v>
+      </c>
+      <c r="BG2">
+        <v>10</v>
+      </c>
+      <c r="BH2">
+        <v>6</v>
+      </c>
+      <c r="BI2">
+        <v>6</v>
+      </c>
+      <c r="BJ2">
+        <v>10</v>
+      </c>
+      <c r="BK2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6708664</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45136.54166666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>6</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>2.3</v>
+      </c>
+      <c r="U3">
+        <v>2.1</v>
+      </c>
+      <c r="V3">
+        <v>5</v>
+      </c>
+      <c r="W3">
+        <v>1.44</v>
+      </c>
+      <c r="X3">
+        <v>2.63</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>1.36</v>
+      </c>
+      <c r="AA3">
+        <v>7.5</v>
+      </c>
+      <c r="AB3">
+        <v>1.07</v>
+      </c>
+      <c r="AC3">
+        <v>1.73</v>
+      </c>
+      <c r="AD3">
+        <v>3.3</v>
+      </c>
+      <c r="AE3">
+        <v>3.75</v>
+      </c>
+      <c r="AF3">
+        <v>1.06</v>
+      </c>
+      <c r="AG3">
+        <v>8.75</v>
+      </c>
+      <c r="AH3">
+        <v>1.3</v>
+      </c>
+      <c r="AI3">
+        <v>3.3</v>
+      </c>
+      <c r="AJ3">
+        <v>1.9</v>
+      </c>
+      <c r="AK3">
+        <v>1.74</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>1.73</v>
+      </c>
+      <c r="AN3">
+        <v>1.15</v>
+      </c>
+      <c r="AO3">
+        <v>1.22</v>
+      </c>
+      <c r="AP3">
+        <v>2</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.55</v>
+      </c>
+      <c r="AY3">
+        <v>9.6</v>
+      </c>
+      <c r="AZ3">
+        <v>2.81</v>
+      </c>
+      <c r="BA3">
+        <v>1.15</v>
+      </c>
+      <c r="BB3">
+        <v>1.29</v>
+      </c>
+      <c r="BC3">
+        <v>1.46</v>
+      </c>
+      <c r="BD3">
+        <v>1.81</v>
+      </c>
+      <c r="BE3">
+        <v>2.27</v>
+      </c>
+      <c r="BF3">
+        <v>4</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>5</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>9</v>
+      </c>
+      <c r="BK3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6708666</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45136.54166666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <v>4.5</v>
+      </c>
+      <c r="U4">
+        <v>2.2</v>
+      </c>
+      <c r="V4">
+        <v>2.3</v>
+      </c>
+      <c r="W4">
+        <v>1.36</v>
+      </c>
+      <c r="X4">
+        <v>3</v>
+      </c>
+      <c r="Y4">
+        <v>2.75</v>
+      </c>
+      <c r="Z4">
+        <v>1.4</v>
+      </c>
+      <c r="AA4">
+        <v>6.5</v>
+      </c>
+      <c r="AB4">
+        <v>1.1</v>
+      </c>
+      <c r="AC4">
+        <v>3.25</v>
+      </c>
+      <c r="AD4">
+        <v>3.3</v>
+      </c>
+      <c r="AE4">
+        <v>1.85</v>
+      </c>
+      <c r="AF4">
+        <v>1.05</v>
+      </c>
+      <c r="AG4">
+        <v>9.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.28</v>
+      </c>
+      <c r="AI4">
+        <v>3.5</v>
+      </c>
+      <c r="AJ4">
+        <v>1.85</v>
+      </c>
+      <c r="AK4">
+        <v>1.85</v>
+      </c>
+      <c r="AL4">
+        <v>1.8</v>
+      </c>
+      <c r="AM4">
+        <v>1.91</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>1.22</v>
+      </c>
+      <c r="AP4">
+        <v>1.15</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>2.48</v>
+      </c>
+      <c r="AY4">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ4">
+        <v>1.67</v>
+      </c>
+      <c r="BA4">
+        <v>1.14</v>
+      </c>
+      <c r="BB4">
+        <v>1.27</v>
+      </c>
+      <c r="BC4">
+        <v>1.41</v>
+      </c>
+      <c r="BD4">
+        <v>1.72</v>
+      </c>
+      <c r="BE4">
+        <v>2.14</v>
+      </c>
+      <c r="BF4">
+        <v>2</v>
+      </c>
+      <c r="BG4">
+        <v>4</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>5</v>
+      </c>
+      <c r="BJ4">
+        <v>4</v>
+      </c>
+      <c r="BK4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6708667</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45136.64583333334</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>7</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>4.5</v>
+      </c>
+      <c r="U5">
+        <v>2.38</v>
+      </c>
+      <c r="V5">
+        <v>2.2</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>3.4</v>
+      </c>
+      <c r="Y5">
+        <v>2.38</v>
+      </c>
+      <c r="Z5">
+        <v>1.53</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>1.14</v>
+      </c>
+      <c r="AC5">
+        <v>4.6</v>
+      </c>
+      <c r="AD5">
+        <v>3.7</v>
+      </c>
+      <c r="AE5">
+        <v>1.58</v>
+      </c>
+      <c r="AF5">
+        <v>1.03</v>
+      </c>
+      <c r="AG5">
+        <v>12</v>
+      </c>
+      <c r="AH5">
+        <v>1.19</v>
+      </c>
+      <c r="AI5">
+        <v>4.2</v>
+      </c>
+      <c r="AJ5">
+        <v>1.68</v>
+      </c>
+      <c r="AK5">
+        <v>2.08</v>
+      </c>
+      <c r="AL5">
+        <v>1.67</v>
+      </c>
+      <c r="AM5">
+        <v>2.1</v>
+      </c>
+      <c r="AN5">
+        <v>1.98</v>
+      </c>
+      <c r="AO5">
+        <v>1.25</v>
+      </c>
+      <c r="AP5">
+        <v>1.23</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>3.66</v>
+      </c>
+      <c r="AY5">
+        <v>7.6</v>
+      </c>
+      <c r="AZ5">
+        <v>1.46</v>
+      </c>
+      <c r="BA5">
+        <v>1.22</v>
+      </c>
+      <c r="BB5">
+        <v>1.41</v>
+      </c>
+      <c r="BC5">
+        <v>1.74</v>
+      </c>
+      <c r="BD5">
+        <v>2.15</v>
+      </c>
+      <c r="BE5">
+        <v>2.75</v>
+      </c>
+      <c r="BF5">
+        <v>3</v>
+      </c>
+      <c r="BG5">
+        <v>6</v>
+      </c>
+      <c r="BH5">
+        <v>2</v>
+      </c>
+      <c r="BI5">
+        <v>10</v>
+      </c>
+      <c r="BJ5">
+        <v>5</v>
+      </c>
+      <c r="BK5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6708665</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45137.54166666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>2.25</v>
+      </c>
+      <c r="V6">
+        <v>3.25</v>
+      </c>
+      <c r="W6">
+        <v>1.33</v>
+      </c>
+      <c r="X6">
+        <v>3.25</v>
+      </c>
+      <c r="Y6">
+        <v>2.63</v>
+      </c>
+      <c r="Z6">
+        <v>1.44</v>
+      </c>
+      <c r="AA6">
+        <v>6</v>
+      </c>
+      <c r="AB6">
+        <v>1.11</v>
+      </c>
+      <c r="AC6">
+        <v>2.15</v>
+      </c>
+      <c r="AD6">
+        <v>3.19</v>
+      </c>
+      <c r="AE6">
+        <v>2.55</v>
+      </c>
+      <c r="AF6">
+        <v>1.03</v>
+      </c>
+      <c r="AG6">
+        <v>14</v>
+      </c>
+      <c r="AH6">
+        <v>1.25</v>
+      </c>
+      <c r="AI6">
+        <v>3.75</v>
+      </c>
+      <c r="AJ6">
+        <v>1.67</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>1.62</v>
+      </c>
+      <c r="AM6">
+        <v>2.2</v>
+      </c>
+      <c r="AN6">
+        <v>1.33</v>
+      </c>
+      <c r="AO6">
+        <v>1.22</v>
+      </c>
+      <c r="AP6">
+        <v>1.53</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.92</v>
+      </c>
+      <c r="AY6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ6">
+        <v>2.12</v>
+      </c>
+      <c r="BA6">
+        <v>1.22</v>
+      </c>
+      <c r="BB6">
+        <v>1.41</v>
+      </c>
+      <c r="BC6">
+        <v>1.62</v>
+      </c>
+      <c r="BD6">
+        <v>2.04</v>
+      </c>
+      <c r="BE6">
+        <v>2.64</v>
+      </c>
+      <c r="BF6">
+        <v>13</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>5</v>
+      </c>
+      <c r="BI6">
+        <v>3</v>
+      </c>
+      <c r="BJ6">
+        <v>18</v>
+      </c>
+      <c r="BK6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6708668</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45137.54166666666</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>12</v>
+      </c>
+      <c r="T7">
+        <v>2.05</v>
+      </c>
+      <c r="U7">
+        <v>2.3</v>
+      </c>
+      <c r="V7">
+        <v>5.5</v>
+      </c>
+      <c r="W7">
+        <v>1.33</v>
+      </c>
+      <c r="X7">
+        <v>3.25</v>
+      </c>
+      <c r="Y7">
+        <v>2.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7">
+        <v>1.11</v>
+      </c>
+      <c r="AC7">
+        <v>1.38</v>
+      </c>
+      <c r="AD7">
+        <v>3.63</v>
+      </c>
+      <c r="AE7">
+        <v>5.88</v>
+      </c>
+      <c r="AF7">
+        <v>1.02</v>
+      </c>
+      <c r="AG7">
+        <v>16</v>
+      </c>
+      <c r="AH7">
+        <v>1.22</v>
+      </c>
+      <c r="AI7">
+        <v>4</v>
+      </c>
+      <c r="AJ7">
+        <v>1.66</v>
+      </c>
+      <c r="AK7">
+        <v>2.14</v>
+      </c>
+      <c r="AL7">
+        <v>1.83</v>
+      </c>
+      <c r="AM7">
+        <v>1.83</v>
+      </c>
+      <c r="AN7">
+        <v>1.08</v>
+      </c>
+      <c r="AO7">
+        <v>1.17</v>
+      </c>
+      <c r="AP7">
+        <v>2.5</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>1.33</v>
+      </c>
+      <c r="AY7">
+        <v>10</v>
+      </c>
+      <c r="AZ7">
+        <v>4.25</v>
+      </c>
+      <c r="BA7">
+        <v>1.29</v>
+      </c>
+      <c r="BB7">
+        <v>1.53</v>
+      </c>
+      <c r="BC7">
+        <v>1.95</v>
+      </c>
+      <c r="BD7">
+        <v>2.34</v>
+      </c>
+      <c r="BE7">
+        <v>3.15</v>
+      </c>
+      <c r="BF7">
+        <v>4</v>
+      </c>
+      <c r="BG7">
+        <v>6</v>
+      </c>
+      <c r="BH7">
+        <v>4</v>
+      </c>
+      <c r="BI7">
+        <v>4</v>
+      </c>
+      <c r="BJ7">
+        <v>8</v>
+      </c>
+      <c r="BK7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,24 +229,24 @@
     <t>Spartak Trnava</t>
   </si>
   <si>
+    <t>Ružomberok</t>
+  </si>
+  <si>
+    <t>Slovan Bratislava</t>
+  </si>
+  <si>
+    <t>Trenčín</t>
+  </si>
+  <si>
+    <t>DAC</t>
+  </si>
+  <si>
     <t>Podbrezová</t>
   </si>
   <si>
     <t>Zlaté Moravce</t>
   </si>
   <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>Slovan Bratislava</t>
-  </si>
-  <si>
-    <t>Ružomberok</t>
-  </si>
-  <si>
-    <t>Trenčín</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -262,6 +262,18 @@
     <t>['59']</t>
   </si>
   <si>
+    <t>['55', '71']</t>
+  </si>
+  <si>
+    <t>['37', '50']</t>
+  </si>
+  <si>
+    <t>['35', '81']</t>
+  </si>
+  <si>
+    <t>['9', '26', '38', '61', '82']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -269,6 +281,15 @@
   </si>
   <si>
     <t>['36', '90+6']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>['11', '87']</t>
+  </si>
+  <si>
+    <t>['79', '83']</t>
   </si>
 </sst>
 </file>
@@ -630,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK7"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +871,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -874,7 +895,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1041,7 +1062,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1232,7 +1253,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1423,7 +1444,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1614,7 +1635,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1638,7 +1659,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1805,7 +1826,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1829,7 +1850,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1971,6 +1992,770 @@
       </c>
       <c r="BK7">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6708669</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45142.64583333334</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>2.65</v>
+      </c>
+      <c r="U8">
+        <v>2.05</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
+      </c>
+      <c r="W8">
+        <v>1.46</v>
+      </c>
+      <c r="X8">
+        <v>2.55</v>
+      </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>1.36</v>
+      </c>
+      <c r="AA8">
+        <v>7.5</v>
+      </c>
+      <c r="AB8">
+        <v>1.07</v>
+      </c>
+      <c r="AC8">
+        <v>1.9</v>
+      </c>
+      <c r="AD8">
+        <v>3.35</v>
+      </c>
+      <c r="AE8">
+        <v>3.7</v>
+      </c>
+      <c r="AF8">
+        <v>1.08</v>
+      </c>
+      <c r="AG8">
+        <v>7</v>
+      </c>
+      <c r="AH8">
+        <v>1.36</v>
+      </c>
+      <c r="AI8">
+        <v>2.95</v>
+      </c>
+      <c r="AJ8">
+        <v>2.01</v>
+      </c>
+      <c r="AK8">
+        <v>1.71</v>
+      </c>
+      <c r="AL8">
+        <v>1.9</v>
+      </c>
+      <c r="AM8">
+        <v>1.83</v>
+      </c>
+      <c r="AN8">
+        <v>1.22</v>
+      </c>
+      <c r="AO8">
+        <v>1.25</v>
+      </c>
+      <c r="AP8">
+        <v>1.68</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1.6</v>
+      </c>
+      <c r="AY8">
+        <v>8.5</v>
+      </c>
+      <c r="AZ8">
+        <v>2.95</v>
+      </c>
+      <c r="BA8">
+        <v>1.25</v>
+      </c>
+      <c r="BB8">
+        <v>1.43</v>
+      </c>
+      <c r="BC8">
+        <v>1.93</v>
+      </c>
+      <c r="BD8">
+        <v>2.25</v>
+      </c>
+      <c r="BE8">
+        <v>3</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>5</v>
+      </c>
+      <c r="BH8">
+        <v>4</v>
+      </c>
+      <c r="BI8">
+        <v>4</v>
+      </c>
+      <c r="BJ8">
+        <v>10</v>
+      </c>
+      <c r="BK8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6708670</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45143.54166666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9">
+        <v>14</v>
+      </c>
+      <c r="T9">
+        <v>1.51</v>
+      </c>
+      <c r="U9">
+        <v>2.78</v>
+      </c>
+      <c r="V9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="W9">
+        <v>1.25</v>
+      </c>
+      <c r="X9">
+        <v>3.75</v>
+      </c>
+      <c r="Y9">
+        <v>2.1</v>
+      </c>
+      <c r="Z9">
+        <v>1.67</v>
+      </c>
+      <c r="AA9">
+        <v>4.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.17</v>
+      </c>
+      <c r="AC9">
+        <v>1.25</v>
+      </c>
+      <c r="AD9">
+        <v>5.1</v>
+      </c>
+      <c r="AE9">
+        <v>7.5</v>
+      </c>
+      <c r="AF9">
+        <v>1.02</v>
+      </c>
+      <c r="AG9">
+        <v>13</v>
+      </c>
+      <c r="AH9">
+        <v>1.15</v>
+      </c>
+      <c r="AI9">
+        <v>4.75</v>
+      </c>
+      <c r="AJ9">
+        <v>1.53</v>
+      </c>
+      <c r="AK9">
+        <v>2.38</v>
+      </c>
+      <c r="AL9">
+        <v>2.1</v>
+      </c>
+      <c r="AM9">
+        <v>1.67</v>
+      </c>
+      <c r="AN9">
+        <v>1.02</v>
+      </c>
+      <c r="AO9">
+        <v>1.05</v>
+      </c>
+      <c r="AP9">
+        <v>3.68</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>1.2</v>
+      </c>
+      <c r="AY9">
+        <v>14</v>
+      </c>
+      <c r="AZ9">
+        <v>5.53</v>
+      </c>
+      <c r="BA9">
+        <v>1.18</v>
+      </c>
+      <c r="BB9">
+        <v>1.29</v>
+      </c>
+      <c r="BC9">
+        <v>1.53</v>
+      </c>
+      <c r="BD9">
+        <v>1.94</v>
+      </c>
+      <c r="BE9">
+        <v>2.47</v>
+      </c>
+      <c r="BF9">
+        <v>4</v>
+      </c>
+      <c r="BG9">
+        <v>3</v>
+      </c>
+      <c r="BH9">
+        <v>4</v>
+      </c>
+      <c r="BI9">
+        <v>3</v>
+      </c>
+      <c r="BJ9">
+        <v>8</v>
+      </c>
+      <c r="BK9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6708671</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45143.54166666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>12</v>
+      </c>
+      <c r="T10">
+        <v>2.3</v>
+      </c>
+      <c r="U10">
+        <v>2.2</v>
+      </c>
+      <c r="V10">
+        <v>4.33</v>
+      </c>
+      <c r="W10">
+        <v>1.33</v>
+      </c>
+      <c r="X10">
+        <v>3.25</v>
+      </c>
+      <c r="Y10">
+        <v>2.65</v>
+      </c>
+      <c r="Z10">
+        <v>1.43</v>
+      </c>
+      <c r="AA10">
+        <v>5.5</v>
+      </c>
+      <c r="AB10">
+        <v>1.12</v>
+      </c>
+      <c r="AC10">
+        <v>1.64</v>
+      </c>
+      <c r="AD10">
+        <v>3.6</v>
+      </c>
+      <c r="AE10">
+        <v>4.2</v>
+      </c>
+      <c r="AF10">
+        <v>1.05</v>
+      </c>
+      <c r="AG10">
+        <v>9</v>
+      </c>
+      <c r="AH10">
+        <v>1.25</v>
+      </c>
+      <c r="AI10">
+        <v>3.75</v>
+      </c>
+      <c r="AJ10">
+        <v>1.75</v>
+      </c>
+      <c r="AK10">
+        <v>1.98</v>
+      </c>
+      <c r="AL10">
+        <v>1.75</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>1.16</v>
+      </c>
+      <c r="AO10">
+        <v>1.2</v>
+      </c>
+      <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>1.36</v>
+      </c>
+      <c r="AY10">
+        <v>11</v>
+      </c>
+      <c r="AZ10">
+        <v>3.97</v>
+      </c>
+      <c r="BA10">
+        <v>1.1</v>
+      </c>
+      <c r="BB10">
+        <v>1.21</v>
+      </c>
+      <c r="BC10">
+        <v>1.32</v>
+      </c>
+      <c r="BD10">
+        <v>1.57</v>
+      </c>
+      <c r="BE10">
+        <v>1.96</v>
+      </c>
+      <c r="BF10">
+        <v>8</v>
+      </c>
+      <c r="BG10">
+        <v>3</v>
+      </c>
+      <c r="BH10">
+        <v>6</v>
+      </c>
+      <c r="BI10">
+        <v>9</v>
+      </c>
+      <c r="BJ10">
+        <v>14</v>
+      </c>
+      <c r="BK10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6708672</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45143.54166666666</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
+        <v>8</v>
+      </c>
+      <c r="T11">
+        <v>1.9</v>
+      </c>
+      <c r="U11">
+        <v>2.45</v>
+      </c>
+      <c r="V11">
+        <v>5.5</v>
+      </c>
+      <c r="W11">
+        <v>1.29</v>
+      </c>
+      <c r="X11">
+        <v>3.4</v>
+      </c>
+      <c r="Y11">
+        <v>2.31</v>
+      </c>
+      <c r="Z11">
+        <v>1.56</v>
+      </c>
+      <c r="AA11">
+        <v>5.2</v>
+      </c>
+      <c r="AB11">
+        <v>1.14</v>
+      </c>
+      <c r="AC11">
+        <v>1.4</v>
+      </c>
+      <c r="AD11">
+        <v>4.36</v>
+      </c>
+      <c r="AE11">
+        <v>5.03</v>
+      </c>
+      <c r="AF11">
+        <v>1.03</v>
+      </c>
+      <c r="AG11">
+        <v>11</v>
+      </c>
+      <c r="AH11">
+        <v>1.18</v>
+      </c>
+      <c r="AI11">
+        <v>4.5</v>
+      </c>
+      <c r="AJ11">
+        <v>1.6</v>
+      </c>
+      <c r="AK11">
+        <v>2.2</v>
+      </c>
+      <c r="AL11">
+        <v>1.75</v>
+      </c>
+      <c r="AM11">
+        <v>2</v>
+      </c>
+      <c r="AN11">
+        <v>1.08</v>
+      </c>
+      <c r="AO11">
+        <v>1.15</v>
+      </c>
+      <c r="AP11">
+        <v>2.7</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1.29</v>
+      </c>
+      <c r="AY11">
+        <v>11.5</v>
+      </c>
+      <c r="AZ11">
+        <v>4.44</v>
+      </c>
+      <c r="BA11">
+        <v>1.17</v>
+      </c>
+      <c r="BB11">
+        <v>1.29</v>
+      </c>
+      <c r="BC11">
+        <v>1.51</v>
+      </c>
+      <c r="BD11">
+        <v>2</v>
+      </c>
+      <c r="BE11">
+        <v>2.45</v>
+      </c>
+      <c r="BF11">
+        <v>6</v>
+      </c>
+      <c r="BG11">
+        <v>5</v>
+      </c>
+      <c r="BH11">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <v>6</v>
+      </c>
+      <c r="BJ11">
+        <v>13</v>
+      </c>
+      <c r="BK11">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -241,12 +241,12 @@
     <t>DAC</t>
   </si>
   <si>
+    <t>Zlaté Moravce</t>
+  </si>
+  <si>
     <t>Podbrezová</t>
   </si>
   <si>
-    <t>Zlaté Moravce</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -274,6 +274,12 @@
     <t>['9', '26', '38', '61', '82']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['58', '70']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -290,6 +296,9 @@
   </si>
   <si>
     <t>['79', '83']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -871,7 +880,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -895,7 +904,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1062,7 +1071,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1659,7 +1668,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1850,7 +1859,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2041,7 +2050,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2167,22 +2176,22 @@
         <v>3</v>
       </c>
       <c r="BF8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:63">
@@ -2232,7 +2241,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2358,19 +2367,19 @@
         <v>2.47</v>
       </c>
       <c r="BF9">
+        <v>7</v>
+      </c>
+      <c r="BG9">
         <v>4</v>
       </c>
-      <c r="BG9">
+      <c r="BH9">
         <v>3</v>
       </c>
-      <c r="BH9">
-        <v>4</v>
-      </c>
       <c r="BI9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK9">
         <v>6</v>
@@ -2549,22 +2558,22 @@
         <v>1.96</v>
       </c>
       <c r="BF10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG10">
+        <v>2</v>
+      </c>
+      <c r="BH10">
         <v>3</v>
       </c>
-      <c r="BH10">
-        <v>6</v>
-      </c>
       <c r="BI10">
+        <v>7</v>
+      </c>
+      <c r="BJ10">
+        <v>10</v>
+      </c>
+      <c r="BK10">
         <v>9</v>
-      </c>
-      <c r="BJ10">
-        <v>14</v>
-      </c>
-      <c r="BK10">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:63">
@@ -2614,7 +2623,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2740,22 +2749,404 @@
         <v>2.45</v>
       </c>
       <c r="BF11">
+        <v>10</v>
+      </c>
+      <c r="BG11">
+        <v>7</v>
+      </c>
+      <c r="BH11">
         <v>6</v>
       </c>
-      <c r="BG11">
+      <c r="BI11">
         <v>5</v>
       </c>
-      <c r="BH11">
-        <v>7</v>
-      </c>
-      <c r="BI11">
+      <c r="BJ11">
+        <v>16</v>
+      </c>
+      <c r="BK11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6708673</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45144.54166666666</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12">
         <v>6</v>
       </c>
-      <c r="BJ11">
-        <v>13</v>
-      </c>
-      <c r="BK11">
+      <c r="R12">
+        <v>5</v>
+      </c>
+      <c r="S12">
         <v>11</v>
+      </c>
+      <c r="T12">
+        <v>4.33</v>
+      </c>
+      <c r="U12">
+        <v>2.1</v>
+      </c>
+      <c r="V12">
+        <v>2.4</v>
+      </c>
+      <c r="W12">
+        <v>1.4</v>
+      </c>
+      <c r="X12">
+        <v>2.75</v>
+      </c>
+      <c r="Y12">
+        <v>2.75</v>
+      </c>
+      <c r="Z12">
+        <v>1.4</v>
+      </c>
+      <c r="AA12">
+        <v>6.5</v>
+      </c>
+      <c r="AB12">
+        <v>1.1</v>
+      </c>
+      <c r="AC12">
+        <v>3.2</v>
+      </c>
+      <c r="AD12">
+        <v>3.15</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12">
+        <v>1.06</v>
+      </c>
+      <c r="AG12">
+        <v>8</v>
+      </c>
+      <c r="AH12">
+        <v>1.3</v>
+      </c>
+      <c r="AI12">
+        <v>3.3</v>
+      </c>
+      <c r="AJ12">
+        <v>2.05</v>
+      </c>
+      <c r="AK12">
+        <v>1.68</v>
+      </c>
+      <c r="AL12">
+        <v>1.83</v>
+      </c>
+      <c r="AM12">
+        <v>1.9</v>
+      </c>
+      <c r="AN12">
+        <v>1.9</v>
+      </c>
+      <c r="AO12">
+        <v>1.22</v>
+      </c>
+      <c r="AP12">
+        <v>1.18</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>2.5</v>
+      </c>
+      <c r="AY12">
+        <v>9.1</v>
+      </c>
+      <c r="AZ12">
+        <v>1.68</v>
+      </c>
+      <c r="BA12">
+        <v>1.21</v>
+      </c>
+      <c r="BB12">
+        <v>1.32</v>
+      </c>
+      <c r="BC12">
+        <v>1.83</v>
+      </c>
+      <c r="BD12">
+        <v>2.06</v>
+      </c>
+      <c r="BE12">
+        <v>2.64</v>
+      </c>
+      <c r="BF12">
+        <v>8</v>
+      </c>
+      <c r="BG12">
+        <v>5</v>
+      </c>
+      <c r="BH12">
+        <v>10</v>
+      </c>
+      <c r="BI12">
+        <v>12</v>
+      </c>
+      <c r="BJ12">
+        <v>18</v>
+      </c>
+      <c r="BK12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6708674</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45144.64583333334</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>87</v>
+      </c>
+      <c r="P13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q13">
+        <v>9</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>2.35</v>
+      </c>
+      <c r="V13">
+        <v>3.4</v>
+      </c>
+      <c r="W13">
+        <v>1.3</v>
+      </c>
+      <c r="X13">
+        <v>3.4</v>
+      </c>
+      <c r="Y13">
+        <v>2.26</v>
+      </c>
+      <c r="Z13">
+        <v>1.58</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <v>1.14</v>
+      </c>
+      <c r="AC13">
+        <v>1.86</v>
+      </c>
+      <c r="AD13">
+        <v>4.01</v>
+      </c>
+      <c r="AE13">
+        <v>3.58</v>
+      </c>
+      <c r="AF13">
+        <v>1.03</v>
+      </c>
+      <c r="AG13">
+        <v>11</v>
+      </c>
+      <c r="AH13">
+        <v>1.2</v>
+      </c>
+      <c r="AI13">
+        <v>4.33</v>
+      </c>
+      <c r="AJ13">
+        <v>1.48</v>
+      </c>
+      <c r="AK13">
+        <v>2.47</v>
+      </c>
+      <c r="AL13">
+        <v>1.47</v>
+      </c>
+      <c r="AM13">
+        <v>2.55</v>
+      </c>
+      <c r="AN13">
+        <v>1.28</v>
+      </c>
+      <c r="AO13">
+        <v>1.2</v>
+      </c>
+      <c r="AP13">
+        <v>1.65</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>1.67</v>
+      </c>
+      <c r="AY13">
+        <v>9.5</v>
+      </c>
+      <c r="AZ13">
+        <v>2.5</v>
+      </c>
+      <c r="BA13">
+        <v>1.13</v>
+      </c>
+      <c r="BB13">
+        <v>1.25</v>
+      </c>
+      <c r="BC13">
+        <v>1.42</v>
+      </c>
+      <c r="BD13">
+        <v>1.77</v>
+      </c>
+      <c r="BE13">
+        <v>2.17</v>
+      </c>
+      <c r="BF13">
+        <v>10</v>
+      </c>
+      <c r="BG13">
+        <v>4</v>
+      </c>
+      <c r="BH13">
+        <v>5</v>
+      </c>
+      <c r="BI13">
+        <v>4</v>
+      </c>
+      <c r="BJ13">
+        <v>15</v>
+      </c>
+      <c r="BK13">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -280,6 +280,18 @@
     <t>['58', '70']</t>
   </si>
   <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
+    <t>['11', '36', '43', '83', '90+2']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -299,6 +311,18 @@
   </si>
   <si>
     <t>['65']</t>
+  </si>
+  <si>
+    <t>['3', '19', '88']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['60', '89']</t>
+  </si>
+  <si>
+    <t>['21', '40']</t>
   </si>
 </sst>
 </file>
@@ -660,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +928,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1182,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1373,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -1567,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="AT5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1668,7 +1692,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1859,7 +1883,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1949,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="AT7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2050,7 +2074,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2137,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2241,7 +2265,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2331,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2623,7 +2647,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2814,7 +2838,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3147,6 +3171,961 @@
       </c>
       <c r="BK13">
         <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6708675</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45149.64583333334</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>2.9</v>
+      </c>
+      <c r="U14">
+        <v>2.15</v>
+      </c>
+      <c r="V14">
+        <v>3.25</v>
+      </c>
+      <c r="W14">
+        <v>1.33</v>
+      </c>
+      <c r="X14">
+        <v>3.25</v>
+      </c>
+      <c r="Y14">
+        <v>2.55</v>
+      </c>
+      <c r="Z14">
+        <v>1.46</v>
+      </c>
+      <c r="AA14">
+        <v>5.5</v>
+      </c>
+      <c r="AB14">
+        <v>1.12</v>
+      </c>
+      <c r="AC14">
+        <v>2.35</v>
+      </c>
+      <c r="AD14">
+        <v>3.4</v>
+      </c>
+      <c r="AE14">
+        <v>2.8</v>
+      </c>
+      <c r="AF14">
+        <v>1.05</v>
+      </c>
+      <c r="AG14">
+        <v>9</v>
+      </c>
+      <c r="AH14">
+        <v>1.22</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>1.72</v>
+      </c>
+      <c r="AK14">
+        <v>2.05</v>
+      </c>
+      <c r="AL14">
+        <v>1.6</v>
+      </c>
+      <c r="AM14">
+        <v>2.25</v>
+      </c>
+      <c r="AN14">
+        <v>1.36</v>
+      </c>
+      <c r="AO14">
+        <v>1.25</v>
+      </c>
+      <c r="AP14">
+        <v>1.47</v>
+      </c>
+      <c r="AQ14">
+        <v>1</v>
+      </c>
+      <c r="AR14">
+        <v>1</v>
+      </c>
+      <c r="AS14">
+        <v>0.5</v>
+      </c>
+      <c r="AT14">
+        <v>2</v>
+      </c>
+      <c r="AU14">
+        <v>0.55</v>
+      </c>
+      <c r="AV14">
+        <v>1.08</v>
+      </c>
+      <c r="AW14">
+        <v>1.63</v>
+      </c>
+      <c r="AX14">
+        <v>1.92</v>
+      </c>
+      <c r="AY14">
+        <v>9.4</v>
+      </c>
+      <c r="AZ14">
+        <v>2.09</v>
+      </c>
+      <c r="BA14">
+        <v>1.12</v>
+      </c>
+      <c r="BB14">
+        <v>1.25</v>
+      </c>
+      <c r="BC14">
+        <v>1.43</v>
+      </c>
+      <c r="BD14">
+        <v>1.83</v>
+      </c>
+      <c r="BE14">
+        <v>2.16</v>
+      </c>
+      <c r="BF14">
+        <v>3</v>
+      </c>
+      <c r="BG14">
+        <v>7</v>
+      </c>
+      <c r="BH14">
+        <v>1</v>
+      </c>
+      <c r="BI14">
+        <v>8</v>
+      </c>
+      <c r="BJ14">
+        <v>4</v>
+      </c>
+      <c r="BK14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6708679</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45150.54166666666</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q15">
+        <v>6</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15">
+        <v>18</v>
+      </c>
+      <c r="T15">
+        <v>3.6</v>
+      </c>
+      <c r="U15">
+        <v>2.1</v>
+      </c>
+      <c r="V15">
+        <v>2.75</v>
+      </c>
+      <c r="W15">
+        <v>1.4</v>
+      </c>
+      <c r="X15">
+        <v>2.75</v>
+      </c>
+      <c r="Y15">
+        <v>2.75</v>
+      </c>
+      <c r="Z15">
+        <v>1.4</v>
+      </c>
+      <c r="AA15">
+        <v>6.5</v>
+      </c>
+      <c r="AB15">
+        <v>1.1</v>
+      </c>
+      <c r="AC15">
+        <v>2.69</v>
+      </c>
+      <c r="AD15">
+        <v>3.25</v>
+      </c>
+      <c r="AE15">
+        <v>2.28</v>
+      </c>
+      <c r="AF15">
+        <v>1.06</v>
+      </c>
+      <c r="AG15">
+        <v>8</v>
+      </c>
+      <c r="AH15">
+        <v>1.3</v>
+      </c>
+      <c r="AI15">
+        <v>3.3</v>
+      </c>
+      <c r="AJ15">
+        <v>1.95</v>
+      </c>
+      <c r="AK15">
+        <v>1.85</v>
+      </c>
+      <c r="AL15">
+        <v>1.75</v>
+      </c>
+      <c r="AM15">
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <v>1.6</v>
+      </c>
+      <c r="AO15">
+        <v>1.25</v>
+      </c>
+      <c r="AP15">
+        <v>1.28</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <v>1</v>
+      </c>
+      <c r="AU15">
+        <v>1.66</v>
+      </c>
+      <c r="AV15">
+        <v>1.23</v>
+      </c>
+      <c r="AW15">
+        <v>2.89</v>
+      </c>
+      <c r="AX15">
+        <v>2.12</v>
+      </c>
+      <c r="AY15">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ15">
+        <v>1.92</v>
+      </c>
+      <c r="BA15">
+        <v>1.23</v>
+      </c>
+      <c r="BB15">
+        <v>1.36</v>
+      </c>
+      <c r="BC15">
+        <v>1.72</v>
+      </c>
+      <c r="BD15">
+        <v>2.13</v>
+      </c>
+      <c r="BE15">
+        <v>2.85</v>
+      </c>
+      <c r="BF15">
+        <v>5</v>
+      </c>
+      <c r="BG15">
+        <v>4</v>
+      </c>
+      <c r="BH15">
+        <v>4</v>
+      </c>
+      <c r="BI15">
+        <v>12</v>
+      </c>
+      <c r="BJ15">
+        <v>9</v>
+      </c>
+      <c r="BK15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6708678</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45150.54166666666</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>2.5</v>
+      </c>
+      <c r="U16">
+        <v>2.25</v>
+      </c>
+      <c r="V16">
+        <v>3.6</v>
+      </c>
+      <c r="W16">
+        <v>1.33</v>
+      </c>
+      <c r="X16">
+        <v>3.25</v>
+      </c>
+      <c r="Y16">
+        <v>2.4</v>
+      </c>
+      <c r="Z16">
+        <v>1.51</v>
+      </c>
+      <c r="AA16">
+        <v>5.5</v>
+      </c>
+      <c r="AB16">
+        <v>1.12</v>
+      </c>
+      <c r="AC16">
+        <v>1.93</v>
+      </c>
+      <c r="AD16">
+        <v>3.45</v>
+      </c>
+      <c r="AE16">
+        <v>3.2</v>
+      </c>
+      <c r="AF16">
+        <v>1.04</v>
+      </c>
+      <c r="AG16">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>1.2</v>
+      </c>
+      <c r="AI16">
+        <v>4.2</v>
+      </c>
+      <c r="AJ16">
+        <v>1.6</v>
+      </c>
+      <c r="AK16">
+        <v>2.2</v>
+      </c>
+      <c r="AL16">
+        <v>1.6</v>
+      </c>
+      <c r="AM16">
+        <v>2.25</v>
+      </c>
+      <c r="AN16">
+        <v>1.25</v>
+      </c>
+      <c r="AO16">
+        <v>1.22</v>
+      </c>
+      <c r="AP16">
+        <v>1.7</v>
+      </c>
+      <c r="AQ16">
+        <v>3</v>
+      </c>
+      <c r="AR16">
+        <v>3</v>
+      </c>
+      <c r="AS16">
+        <v>3</v>
+      </c>
+      <c r="AT16">
+        <v>1.5</v>
+      </c>
+      <c r="AU16">
+        <v>2.42</v>
+      </c>
+      <c r="AV16">
+        <v>1.48</v>
+      </c>
+      <c r="AW16">
+        <v>3.9</v>
+      </c>
+      <c r="AX16">
+        <v>1.66</v>
+      </c>
+      <c r="AY16">
+        <v>9.5</v>
+      </c>
+      <c r="AZ16">
+        <v>2.51</v>
+      </c>
+      <c r="BA16">
+        <v>1.14</v>
+      </c>
+      <c r="BB16">
+        <v>1.27</v>
+      </c>
+      <c r="BC16">
+        <v>1.42</v>
+      </c>
+      <c r="BD16">
+        <v>1.85</v>
+      </c>
+      <c r="BE16">
+        <v>2.22</v>
+      </c>
+      <c r="BF16">
+        <v>4</v>
+      </c>
+      <c r="BG16">
+        <v>6</v>
+      </c>
+      <c r="BH16">
+        <v>4</v>
+      </c>
+      <c r="BI16">
+        <v>10</v>
+      </c>
+      <c r="BJ16">
+        <v>8</v>
+      </c>
+      <c r="BK16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6708676</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45150.54166666666</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
+      </c>
+      <c r="S17">
+        <v>13</v>
+      </c>
+      <c r="T17">
+        <v>2.35</v>
+      </c>
+      <c r="U17">
+        <v>2.25</v>
+      </c>
+      <c r="V17">
+        <v>4</v>
+      </c>
+      <c r="W17">
+        <v>1.33</v>
+      </c>
+      <c r="X17">
+        <v>3.25</v>
+      </c>
+      <c r="Y17">
+        <v>2.4</v>
+      </c>
+      <c r="Z17">
+        <v>1.51</v>
+      </c>
+      <c r="AA17">
+        <v>5.5</v>
+      </c>
+      <c r="AB17">
+        <v>1.12</v>
+      </c>
+      <c r="AC17">
+        <v>1.59</v>
+      </c>
+      <c r="AD17">
+        <v>3.85</v>
+      </c>
+      <c r="AE17">
+        <v>4.3</v>
+      </c>
+      <c r="AF17">
+        <v>1.04</v>
+      </c>
+      <c r="AG17">
+        <v>10</v>
+      </c>
+      <c r="AH17">
+        <v>1.2</v>
+      </c>
+      <c r="AI17">
+        <v>4.2</v>
+      </c>
+      <c r="AJ17">
+        <v>1.75</v>
+      </c>
+      <c r="AK17">
+        <v>1.95</v>
+      </c>
+      <c r="AL17">
+        <v>1.6</v>
+      </c>
+      <c r="AM17">
+        <v>2.25</v>
+      </c>
+      <c r="AN17">
+        <v>1.2</v>
+      </c>
+      <c r="AO17">
+        <v>1.2</v>
+      </c>
+      <c r="AP17">
+        <v>1.95</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>3</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>2.18</v>
+      </c>
+      <c r="AV17">
+        <v>1.28</v>
+      </c>
+      <c r="AW17">
+        <v>3.46</v>
+      </c>
+      <c r="AX17">
+        <v>1.59</v>
+      </c>
+      <c r="AY17">
+        <v>9.9</v>
+      </c>
+      <c r="AZ17">
+        <v>2.66</v>
+      </c>
+      <c r="BA17">
+        <v>1.11</v>
+      </c>
+      <c r="BB17">
+        <v>1.22</v>
+      </c>
+      <c r="BC17">
+        <v>1.34</v>
+      </c>
+      <c r="BD17">
+        <v>1.71</v>
+      </c>
+      <c r="BE17">
+        <v>1.93</v>
+      </c>
+      <c r="BF17">
+        <v>10</v>
+      </c>
+      <c r="BG17">
+        <v>3</v>
+      </c>
+      <c r="BH17">
+        <v>6</v>
+      </c>
+      <c r="BI17">
+        <v>5</v>
+      </c>
+      <c r="BJ17">
+        <v>16</v>
+      </c>
+      <c r="BK17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6708677</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45150.54166666666</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>4.2</v>
+      </c>
+      <c r="U18">
+        <v>2.2</v>
+      </c>
+      <c r="V18">
+        <v>2.35</v>
+      </c>
+      <c r="W18">
+        <v>1.33</v>
+      </c>
+      <c r="X18">
+        <v>3.25</v>
+      </c>
+      <c r="Y18">
+        <v>2.6</v>
+      </c>
+      <c r="Z18">
+        <v>1.45</v>
+      </c>
+      <c r="AA18">
+        <v>5.5</v>
+      </c>
+      <c r="AB18">
+        <v>1.12</v>
+      </c>
+      <c r="AC18">
+        <v>4.5</v>
+      </c>
+      <c r="AD18">
+        <v>3.85</v>
+      </c>
+      <c r="AE18">
+        <v>1.56</v>
+      </c>
+      <c r="AF18">
+        <v>1.05</v>
+      </c>
+      <c r="AG18">
+        <v>9</v>
+      </c>
+      <c r="AH18">
+        <v>1.25</v>
+      </c>
+      <c r="AI18">
+        <v>3.75</v>
+      </c>
+      <c r="AJ18">
+        <v>1.85</v>
+      </c>
+      <c r="AK18">
+        <v>1.85</v>
+      </c>
+      <c r="AL18">
+        <v>1.7</v>
+      </c>
+      <c r="AM18">
+        <v>2.1</v>
+      </c>
+      <c r="AN18">
+        <v>1.95</v>
+      </c>
+      <c r="AO18">
+        <v>1.2</v>
+      </c>
+      <c r="AP18">
+        <v>1.18</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AS18">
+        <v>1.5</v>
+      </c>
+      <c r="AT18">
+        <v>2</v>
+      </c>
+      <c r="AU18">
+        <v>1.38</v>
+      </c>
+      <c r="AV18">
+        <v>1.96</v>
+      </c>
+      <c r="AW18">
+        <v>3.34</v>
+      </c>
+      <c r="AX18">
+        <v>2.83</v>
+      </c>
+      <c r="AY18">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ18">
+        <v>1.55</v>
+      </c>
+      <c r="BA18">
+        <v>1.2</v>
+      </c>
+      <c r="BB18">
+        <v>1.32</v>
+      </c>
+      <c r="BC18">
+        <v>1.68</v>
+      </c>
+      <c r="BD18">
+        <v>2.06</v>
+      </c>
+      <c r="BE18">
+        <v>2.64</v>
+      </c>
+      <c r="BF18">
+        <v>3</v>
+      </c>
+      <c r="BG18">
+        <v>10</v>
+      </c>
+      <c r="BH18">
+        <v>2</v>
+      </c>
+      <c r="BI18">
+        <v>4</v>
+      </c>
+      <c r="BJ18">
+        <v>5</v>
+      </c>
+      <c r="BK18">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -3537,19 +3537,19 @@
         <v>2.85</v>
       </c>
       <c r="BF15">
+        <v>4</v>
+      </c>
+      <c r="BG15">
         <v>5</v>
       </c>
-      <c r="BG15">
-        <v>4</v>
-      </c>
       <c r="BH15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BJ15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BK15">
         <v>16</v>
@@ -3728,7 +3728,7 @@
         <v>2.22</v>
       </c>
       <c r="BF16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG16">
         <v>6</v>
@@ -3737,13 +3737,13 @@
         <v>4</v>
       </c>
       <c r="BI16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BJ16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK16">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:63">
@@ -3919,7 +3919,7 @@
         <v>1.93</v>
       </c>
       <c r="BF17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG17">
         <v>3</v>
@@ -3928,13 +3928,13 @@
         <v>6</v>
       </c>
       <c r="BI17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BK17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:63">
@@ -4113,19 +4113,19 @@
         <v>3</v>
       </c>
       <c r="BG18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BH18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI18">
         <v>4</v>
       </c>
       <c r="BJ18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK18">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -292,6 +292,9 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['14', '82']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
   </si>
   <si>
     <t>['21', '40']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -684,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,7 +934,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1692,7 +1698,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1883,7 +1889,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2074,7 +2080,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2265,7 +2271,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2647,7 +2653,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2838,7 +2844,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3220,7 +3226,7 @@
         <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3411,7 +3417,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3602,7 +3608,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3984,7 +3990,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4126,6 +4132,197 @@
       </c>
       <c r="BK18">
         <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6708685</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45156.64583333334</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>2.67</v>
+      </c>
+      <c r="U19">
+        <v>2.1</v>
+      </c>
+      <c r="V19">
+        <v>3.94</v>
+      </c>
+      <c r="W19">
+        <v>1.38</v>
+      </c>
+      <c r="X19">
+        <v>2.9</v>
+      </c>
+      <c r="Y19">
+        <v>2.63</v>
+      </c>
+      <c r="Z19">
+        <v>1.45</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>1.11</v>
+      </c>
+      <c r="AC19">
+        <v>2.08</v>
+      </c>
+      <c r="AD19">
+        <v>3.35</v>
+      </c>
+      <c r="AE19">
+        <v>3.3</v>
+      </c>
+      <c r="AF19">
+        <v>1.02</v>
+      </c>
+      <c r="AG19">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH19">
+        <v>1.25</v>
+      </c>
+      <c r="AI19">
+        <v>3.6</v>
+      </c>
+      <c r="AJ19">
+        <v>1.8</v>
+      </c>
+      <c r="AK19">
+        <v>1.9</v>
+      </c>
+      <c r="AL19">
+        <v>1.64</v>
+      </c>
+      <c r="AM19">
+        <v>2.12</v>
+      </c>
+      <c r="AN19">
+        <v>1.27</v>
+      </c>
+      <c r="AO19">
+        <v>1.26</v>
+      </c>
+      <c r="AP19">
+        <v>1.57</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1.5</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>1.27</v>
+      </c>
+      <c r="AV19">
+        <v>1.06</v>
+      </c>
+      <c r="AW19">
+        <v>2.33</v>
+      </c>
+      <c r="AX19">
+        <v>1.67</v>
+      </c>
+      <c r="AY19">
+        <v>7</v>
+      </c>
+      <c r="AZ19">
+        <v>2.8</v>
+      </c>
+      <c r="BA19">
+        <v>1.17</v>
+      </c>
+      <c r="BB19">
+        <v>1.33</v>
+      </c>
+      <c r="BC19">
+        <v>1.62</v>
+      </c>
+      <c r="BD19">
+        <v>1.97</v>
+      </c>
+      <c r="BE19">
+        <v>2.47</v>
+      </c>
+      <c r="BF19">
+        <v>4</v>
+      </c>
+      <c r="BG19">
+        <v>3</v>
+      </c>
+      <c r="BH19">
+        <v>8</v>
+      </c>
+      <c r="BI19">
+        <v>4</v>
+      </c>
+      <c r="BJ19">
+        <v>12</v>
+      </c>
+      <c r="BK19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -295,6 +295,12 @@
     <t>['14', '82']</t>
   </si>
   <si>
+    <t>['27', '30', '37', '38']</t>
+  </si>
+  <si>
+    <t>['45+3', '48']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -329,6 +335,15 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['9', '23', '74']</t>
+  </si>
+  <si>
+    <t>['23', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK19"/>
+  <dimension ref="A1:BK23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +949,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1024,7 +1039,7 @@
         <v>1.5</v>
       </c>
       <c r="AT2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1406,7 +1421,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1594,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1698,7 +1713,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1889,7 +1904,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1976,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>1.5</v>
@@ -2080,7 +2095,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2271,7 +2286,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2653,7 +2668,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2844,7 +2859,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -2931,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3125,7 +3140,7 @@
         <v>3</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3226,7 +3241,7 @@
         <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3417,7 +3432,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3507,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU15">
         <v>1.66</v>
@@ -3608,7 +3623,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3990,7 +4005,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4181,7 +4196,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4323,6 +4338,770 @@
       </c>
       <c r="BK19">
         <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6708681</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45157.54166666666</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q20">
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>2.7</v>
+      </c>
+      <c r="U20">
+        <v>2.15</v>
+      </c>
+      <c r="V20">
+        <v>3.5</v>
+      </c>
+      <c r="W20">
+        <v>1.36</v>
+      </c>
+      <c r="X20">
+        <v>3</v>
+      </c>
+      <c r="Y20">
+        <v>2.62</v>
+      </c>
+      <c r="Z20">
+        <v>1.44</v>
+      </c>
+      <c r="AA20">
+        <v>6.5</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>2.08</v>
+      </c>
+      <c r="AD20">
+        <v>3.35</v>
+      </c>
+      <c r="AE20">
+        <v>3.17</v>
+      </c>
+      <c r="AF20">
+        <v>1.05</v>
+      </c>
+      <c r="AG20">
+        <v>9</v>
+      </c>
+      <c r="AH20">
+        <v>1.25</v>
+      </c>
+      <c r="AI20">
+        <v>3.75</v>
+      </c>
+      <c r="AJ20">
+        <v>1.75</v>
+      </c>
+      <c r="AK20">
+        <v>1.96</v>
+      </c>
+      <c r="AL20">
+        <v>1.67</v>
+      </c>
+      <c r="AM20">
+        <v>2.1</v>
+      </c>
+      <c r="AN20">
+        <v>1.33</v>
+      </c>
+      <c r="AO20">
+        <v>1.29</v>
+      </c>
+      <c r="AP20">
+        <v>1.7</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>3</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>1.62</v>
+      </c>
+      <c r="AV20">
+        <v>1.15</v>
+      </c>
+      <c r="AW20">
+        <v>2.77</v>
+      </c>
+      <c r="AX20">
+        <v>1.65</v>
+      </c>
+      <c r="AY20">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ20">
+        <v>2.6</v>
+      </c>
+      <c r="BA20">
+        <v>1.17</v>
+      </c>
+      <c r="BB20">
+        <v>1.32</v>
+      </c>
+      <c r="BC20">
+        <v>1.49</v>
+      </c>
+      <c r="BD20">
+        <v>2</v>
+      </c>
+      <c r="BE20">
+        <v>2.4</v>
+      </c>
+      <c r="BF20">
+        <v>5</v>
+      </c>
+      <c r="BG20">
+        <v>2</v>
+      </c>
+      <c r="BH20">
+        <v>0</v>
+      </c>
+      <c r="BI20">
+        <v>0</v>
+      </c>
+      <c r="BJ20">
+        <v>5</v>
+      </c>
+      <c r="BK20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6708684</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45157.54166666666</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>3</v>
+      </c>
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>2.9</v>
+      </c>
+      <c r="U21">
+        <v>2.15</v>
+      </c>
+      <c r="V21">
+        <v>3.25</v>
+      </c>
+      <c r="W21">
+        <v>1.32</v>
+      </c>
+      <c r="X21">
+        <v>3.22</v>
+      </c>
+      <c r="Y21">
+        <v>2.65</v>
+      </c>
+      <c r="Z21">
+        <v>1.43</v>
+      </c>
+      <c r="AA21">
+        <v>5.3</v>
+      </c>
+      <c r="AB21">
+        <v>1.13</v>
+      </c>
+      <c r="AC21">
+        <v>2.22</v>
+      </c>
+      <c r="AD21">
+        <v>3.6</v>
+      </c>
+      <c r="AE21">
+        <v>2.73</v>
+      </c>
+      <c r="AF21">
+        <v>1.04</v>
+      </c>
+      <c r="AG21">
+        <v>10</v>
+      </c>
+      <c r="AH21">
+        <v>1.25</v>
+      </c>
+      <c r="AI21">
+        <v>3.75</v>
+      </c>
+      <c r="AJ21">
+        <v>1.6</v>
+      </c>
+      <c r="AK21">
+        <v>2.19</v>
+      </c>
+      <c r="AL21">
+        <v>1.63</v>
+      </c>
+      <c r="AM21">
+        <v>2.2</v>
+      </c>
+      <c r="AN21">
+        <v>1.36</v>
+      </c>
+      <c r="AO21">
+        <v>1.25</v>
+      </c>
+      <c r="AP21">
+        <v>1.47</v>
+      </c>
+      <c r="AQ21">
+        <v>1</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0.5</v>
+      </c>
+      <c r="AT21">
+        <v>1.5</v>
+      </c>
+      <c r="AU21">
+        <v>0.9</v>
+      </c>
+      <c r="AV21">
+        <v>1.06</v>
+      </c>
+      <c r="AW21">
+        <v>1.96</v>
+      </c>
+      <c r="AX21">
+        <v>1.83</v>
+      </c>
+      <c r="AY21">
+        <v>7.5</v>
+      </c>
+      <c r="AZ21">
+        <v>2.35</v>
+      </c>
+      <c r="BA21">
+        <v>1.19</v>
+      </c>
+      <c r="BB21">
+        <v>1.3</v>
+      </c>
+      <c r="BC21">
+        <v>1.53</v>
+      </c>
+      <c r="BD21">
+        <v>2</v>
+      </c>
+      <c r="BE21">
+        <v>2.45</v>
+      </c>
+      <c r="BF21">
+        <v>5</v>
+      </c>
+      <c r="BG21">
+        <v>2</v>
+      </c>
+      <c r="BH21">
+        <v>4</v>
+      </c>
+      <c r="BI21">
+        <v>2</v>
+      </c>
+      <c r="BJ21">
+        <v>9</v>
+      </c>
+      <c r="BK21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6708683</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45158.54166666666</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>10</v>
+      </c>
+      <c r="T22">
+        <v>2.4</v>
+      </c>
+      <c r="U22">
+        <v>2.2</v>
+      </c>
+      <c r="V22">
+        <v>4</v>
+      </c>
+      <c r="W22">
+        <v>1.35</v>
+      </c>
+      <c r="X22">
+        <v>3.04</v>
+      </c>
+      <c r="Y22">
+        <v>2.5</v>
+      </c>
+      <c r="Z22">
+        <v>1.48</v>
+      </c>
+      <c r="AA22">
+        <v>5.9</v>
+      </c>
+      <c r="AB22">
+        <v>1.11</v>
+      </c>
+      <c r="AC22">
+        <v>1.72</v>
+      </c>
+      <c r="AD22">
+        <v>3.33</v>
+      </c>
+      <c r="AE22">
+        <v>3.61</v>
+      </c>
+      <c r="AF22">
+        <v>1.01</v>
+      </c>
+      <c r="AG22">
+        <v>10.5</v>
+      </c>
+      <c r="AH22">
+        <v>1.2</v>
+      </c>
+      <c r="AI22">
+        <v>3.9</v>
+      </c>
+      <c r="AJ22">
+        <v>1.72</v>
+      </c>
+      <c r="AK22">
+        <v>1.93</v>
+      </c>
+      <c r="AL22">
+        <v>1.65</v>
+      </c>
+      <c r="AM22">
+        <v>2.1</v>
+      </c>
+      <c r="AN22">
+        <v>1.32</v>
+      </c>
+      <c r="AO22">
+        <v>1.26</v>
+      </c>
+      <c r="AP22">
+        <v>1.78</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>1.5</v>
+      </c>
+      <c r="AT22">
+        <v>1.5</v>
+      </c>
+      <c r="AU22">
+        <v>1.28</v>
+      </c>
+      <c r="AV22">
+        <v>2.11</v>
+      </c>
+      <c r="AW22">
+        <v>3.39</v>
+      </c>
+      <c r="AX22">
+        <v>1.66</v>
+      </c>
+      <c r="AY22">
+        <v>9.1</v>
+      </c>
+      <c r="AZ22">
+        <v>2.54</v>
+      </c>
+      <c r="BA22">
+        <v>1.2</v>
+      </c>
+      <c r="BB22">
+        <v>1.33</v>
+      </c>
+      <c r="BC22">
+        <v>1.57</v>
+      </c>
+      <c r="BD22">
+        <v>2</v>
+      </c>
+      <c r="BE22">
+        <v>2.62</v>
+      </c>
+      <c r="BF22">
+        <v>8</v>
+      </c>
+      <c r="BG22">
+        <v>5</v>
+      </c>
+      <c r="BH22">
+        <v>7</v>
+      </c>
+      <c r="BI22">
+        <v>8</v>
+      </c>
+      <c r="BJ22">
+        <v>15</v>
+      </c>
+      <c r="BK22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6708686</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45158.64583333334</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <v>6</v>
+      </c>
+      <c r="S23">
+        <v>14</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>2.32</v>
+      </c>
+      <c r="V23">
+        <v>2.32</v>
+      </c>
+      <c r="W23">
+        <v>1.36</v>
+      </c>
+      <c r="X23">
+        <v>3.11</v>
+      </c>
+      <c r="Y23">
+        <v>2.8</v>
+      </c>
+      <c r="Z23">
+        <v>1.43</v>
+      </c>
+      <c r="AA23">
+        <v>6.8</v>
+      </c>
+      <c r="AB23">
+        <v>1.07</v>
+      </c>
+      <c r="AC23">
+        <v>3.27</v>
+      </c>
+      <c r="AD23">
+        <v>3.17</v>
+      </c>
+      <c r="AE23">
+        <v>1.86</v>
+      </c>
+      <c r="AF23">
+        <v>1.05</v>
+      </c>
+      <c r="AG23">
+        <v>8</v>
+      </c>
+      <c r="AH23">
+        <v>1.29</v>
+      </c>
+      <c r="AI23">
+        <v>3.3</v>
+      </c>
+      <c r="AJ23">
+        <v>1.79</v>
+      </c>
+      <c r="AK23">
+        <v>1.84</v>
+      </c>
+      <c r="AL23">
+        <v>1.83</v>
+      </c>
+      <c r="AM23">
+        <v>1.9</v>
+      </c>
+      <c r="AN23">
+        <v>2.05</v>
+      </c>
+      <c r="AO23">
+        <v>1.2</v>
+      </c>
+      <c r="AP23">
+        <v>1.15</v>
+      </c>
+      <c r="AQ23">
+        <v>1</v>
+      </c>
+      <c r="AR23">
+        <v>1</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>1.67</v>
+      </c>
+      <c r="AU23">
+        <v>2.11</v>
+      </c>
+      <c r="AV23">
+        <v>1.6</v>
+      </c>
+      <c r="AW23">
+        <v>3.71</v>
+      </c>
+      <c r="AX23">
+        <v>2.82</v>
+      </c>
+      <c r="AY23">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AZ23">
+        <v>1.54</v>
+      </c>
+      <c r="BA23">
+        <v>1.13</v>
+      </c>
+      <c r="BB23">
+        <v>1.25</v>
+      </c>
+      <c r="BC23">
+        <v>1.34</v>
+      </c>
+      <c r="BD23">
+        <v>1.95</v>
+      </c>
+      <c r="BE23">
+        <v>2.03</v>
+      </c>
+      <c r="BF23">
+        <v>5</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>8</v>
+      </c>
+      <c r="BI23">
+        <v>7</v>
+      </c>
+      <c r="BJ23">
+        <v>13</v>
+      </c>
+      <c r="BK23">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -4895,10 +4895,10 @@
         <v>2.62</v>
       </c>
       <c r="BF22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH22">
         <v>7</v>
@@ -4907,10 +4907,10 @@
         <v>8</v>
       </c>
       <c r="BJ22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BK22">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:63">

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -301,6 +301,15 @@
     <t>['45+3', '48']</t>
   </si>
   <si>
+    <t>['27', '84', '90+7']</t>
+  </si>
+  <si>
+    <t>['42', '47']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -344,6 +353,18 @@
   </si>
   <si>
     <t>['23', '90+4']</t>
+  </si>
+  <si>
+    <t>['36', '41']</t>
+  </si>
+  <si>
+    <t>['13', '26']</t>
+  </si>
+  <si>
+    <t>['38', '90+3']</t>
+  </si>
+  <si>
+    <t>['57', '73']</t>
   </si>
 </sst>
 </file>
@@ -705,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK23"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +970,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1418,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT4">
         <v>1.67</v>
@@ -1713,7 +1734,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1904,7 +1925,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1994,7 +2015,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2095,7 +2116,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2286,7 +2307,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2376,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2668,7 +2689,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2755,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -2859,7 +2880,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3137,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT13">
         <v>1.5</v>
@@ -3241,7 +3262,7 @@
         <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3328,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU14">
         <v>0.55</v>
@@ -3432,7 +3453,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3623,7 +3644,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -3713,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>2.42</v>
@@ -3901,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4005,7 +4026,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4196,7 +4217,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4387,7 +4408,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4578,7 +4599,7 @@
         <v>79</v>
       </c>
       <c r="P21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4960,7 +4981,7 @@
         <v>79</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5102,6 +5123,770 @@
       </c>
       <c r="BK23">
         <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6708687</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45163.64583333334</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>10</v>
+      </c>
+      <c r="T24">
+        <v>3.1</v>
+      </c>
+      <c r="U24">
+        <v>2.1</v>
+      </c>
+      <c r="V24">
+        <v>3.1</v>
+      </c>
+      <c r="W24">
+        <v>1.4</v>
+      </c>
+      <c r="X24">
+        <v>2.75</v>
+      </c>
+      <c r="Y24">
+        <v>2.75</v>
+      </c>
+      <c r="Z24">
+        <v>1.4</v>
+      </c>
+      <c r="AA24">
+        <v>7</v>
+      </c>
+      <c r="AB24">
+        <v>1.08</v>
+      </c>
+      <c r="AC24">
+        <v>2.39</v>
+      </c>
+      <c r="AD24">
+        <v>3.25</v>
+      </c>
+      <c r="AE24">
+        <v>2.69</v>
+      </c>
+      <c r="AF24">
+        <v>1.06</v>
+      </c>
+      <c r="AG24">
+        <v>8</v>
+      </c>
+      <c r="AH24">
+        <v>1.33</v>
+      </c>
+      <c r="AI24">
+        <v>3.1</v>
+      </c>
+      <c r="AJ24">
+        <v>1.87</v>
+      </c>
+      <c r="AK24">
+        <v>1.77</v>
+      </c>
+      <c r="AL24">
+        <v>1.78</v>
+      </c>
+      <c r="AM24">
+        <v>1.95</v>
+      </c>
+      <c r="AN24">
+        <v>1.42</v>
+      </c>
+      <c r="AO24">
+        <v>1.25</v>
+      </c>
+      <c r="AP24">
+        <v>1.44</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0.33</v>
+      </c>
+      <c r="AT24">
+        <v>1.5</v>
+      </c>
+      <c r="AU24">
+        <v>0.79</v>
+      </c>
+      <c r="AV24">
+        <v>1.65</v>
+      </c>
+      <c r="AW24">
+        <v>2.44</v>
+      </c>
+      <c r="AX24">
+        <v>2.05</v>
+      </c>
+      <c r="AY24">
+        <v>7.4</v>
+      </c>
+      <c r="AZ24">
+        <v>2.1</v>
+      </c>
+      <c r="BA24">
+        <v>1.15</v>
+      </c>
+      <c r="BB24">
+        <v>1.29</v>
+      </c>
+      <c r="BC24">
+        <v>1.56</v>
+      </c>
+      <c r="BD24">
+        <v>1.9</v>
+      </c>
+      <c r="BE24">
+        <v>2.38</v>
+      </c>
+      <c r="BF24">
+        <v>3</v>
+      </c>
+      <c r="BG24">
+        <v>7</v>
+      </c>
+      <c r="BH24">
+        <v>3</v>
+      </c>
+      <c r="BI24">
+        <v>9</v>
+      </c>
+      <c r="BJ24">
+        <v>6</v>
+      </c>
+      <c r="BK24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6708696</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <v>5</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>2.1</v>
+      </c>
+      <c r="U25">
+        <v>2.25</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>1.36</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>2.55</v>
+      </c>
+      <c r="Z25">
+        <v>1.46</v>
+      </c>
+      <c r="AA25">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>1.11</v>
+      </c>
+      <c r="AC25">
+        <v>1.7</v>
+      </c>
+      <c r="AD25">
+        <v>3.5</v>
+      </c>
+      <c r="AE25">
+        <v>4.4</v>
+      </c>
+      <c r="AF25">
+        <v>1.05</v>
+      </c>
+      <c r="AG25">
+        <v>9</v>
+      </c>
+      <c r="AH25">
+        <v>1.22</v>
+      </c>
+      <c r="AI25">
+        <v>4</v>
+      </c>
+      <c r="AJ25">
+        <v>1.71</v>
+      </c>
+      <c r="AK25">
+        <v>1.84</v>
+      </c>
+      <c r="AL25">
+        <v>1.75</v>
+      </c>
+      <c r="AM25">
+        <v>2</v>
+      </c>
+      <c r="AN25">
+        <v>1.11</v>
+      </c>
+      <c r="AO25">
+        <v>1.2</v>
+      </c>
+      <c r="AP25">
+        <v>2.25</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>3</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>1.94</v>
+      </c>
+      <c r="AV25">
+        <v>1.13</v>
+      </c>
+      <c r="AW25">
+        <v>3.07</v>
+      </c>
+      <c r="AX25">
+        <v>1.5</v>
+      </c>
+      <c r="AY25">
+        <v>7.5</v>
+      </c>
+      <c r="AZ25">
+        <v>3.3</v>
+      </c>
+      <c r="BA25">
+        <v>1.13</v>
+      </c>
+      <c r="BB25">
+        <v>1.26</v>
+      </c>
+      <c r="BC25">
+        <v>1.39</v>
+      </c>
+      <c r="BD25">
+        <v>1.7</v>
+      </c>
+      <c r="BE25">
+        <v>2.13</v>
+      </c>
+      <c r="BF25">
+        <v>6</v>
+      </c>
+      <c r="BG25">
+        <v>5</v>
+      </c>
+      <c r="BH25">
+        <v>7</v>
+      </c>
+      <c r="BI25">
+        <v>3</v>
+      </c>
+      <c r="BJ25">
+        <v>13</v>
+      </c>
+      <c r="BK25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6708690</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>9</v>
+      </c>
+      <c r="S26">
+        <v>13</v>
+      </c>
+      <c r="T26">
+        <v>2.3</v>
+      </c>
+      <c r="U26">
+        <v>2.3</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26">
+        <v>1.33</v>
+      </c>
+      <c r="X26">
+        <v>3.25</v>
+      </c>
+      <c r="Y26">
+        <v>2.4</v>
+      </c>
+      <c r="Z26">
+        <v>1.51</v>
+      </c>
+      <c r="AA26">
+        <v>5.5</v>
+      </c>
+      <c r="AB26">
+        <v>1.12</v>
+      </c>
+      <c r="AC26">
+        <v>1.97</v>
+      </c>
+      <c r="AD26">
+        <v>3.4</v>
+      </c>
+      <c r="AE26">
+        <v>3.4</v>
+      </c>
+      <c r="AF26">
+        <v>1.04</v>
+      </c>
+      <c r="AG26">
+        <v>10</v>
+      </c>
+      <c r="AH26">
+        <v>1.2</v>
+      </c>
+      <c r="AI26">
+        <v>4.33</v>
+      </c>
+      <c r="AJ26">
+        <v>1.57</v>
+      </c>
+      <c r="AK26">
+        <v>2.15</v>
+      </c>
+      <c r="AL26">
+        <v>1.57</v>
+      </c>
+      <c r="AM26">
+        <v>2.3</v>
+      </c>
+      <c r="AN26">
+        <v>1.2</v>
+      </c>
+      <c r="AO26">
+        <v>1.2</v>
+      </c>
+      <c r="AP26">
+        <v>1.95</v>
+      </c>
+      <c r="AQ26">
+        <v>3</v>
+      </c>
+      <c r="AR26">
+        <v>1.5</v>
+      </c>
+      <c r="AS26">
+        <v>2.33</v>
+      </c>
+      <c r="AT26">
+        <v>1.33</v>
+      </c>
+      <c r="AU26">
+        <v>2.17</v>
+      </c>
+      <c r="AV26">
+        <v>1.6</v>
+      </c>
+      <c r="AW26">
+        <v>3.77</v>
+      </c>
+      <c r="AX26">
+        <v>1.62</v>
+      </c>
+      <c r="AY26">
+        <v>7.5</v>
+      </c>
+      <c r="AZ26">
+        <v>2.88</v>
+      </c>
+      <c r="BA26">
+        <v>1.11</v>
+      </c>
+      <c r="BB26">
+        <v>1.22</v>
+      </c>
+      <c r="BC26">
+        <v>1.34</v>
+      </c>
+      <c r="BD26">
+        <v>1.62</v>
+      </c>
+      <c r="BE26">
+        <v>2.03</v>
+      </c>
+      <c r="BF26">
+        <v>7</v>
+      </c>
+      <c r="BG26">
+        <v>7</v>
+      </c>
+      <c r="BH26">
+        <v>3</v>
+      </c>
+      <c r="BI26">
+        <v>5</v>
+      </c>
+      <c r="BJ26">
+        <v>10</v>
+      </c>
+      <c r="BK26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6708689</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45164.54166666666</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>5</v>
+      </c>
+      <c r="S27">
+        <v>9</v>
+      </c>
+      <c r="T27">
+        <v>1.9</v>
+      </c>
+      <c r="U27">
+        <v>2.45</v>
+      </c>
+      <c r="V27">
+        <v>5.5</v>
+      </c>
+      <c r="W27">
+        <v>1.3</v>
+      </c>
+      <c r="X27">
+        <v>3.4</v>
+      </c>
+      <c r="Y27">
+        <v>2.36</v>
+      </c>
+      <c r="Z27">
+        <v>1.54</v>
+      </c>
+      <c r="AA27">
+        <v>5</v>
+      </c>
+      <c r="AB27">
+        <v>1.14</v>
+      </c>
+      <c r="AC27">
+        <v>1.55</v>
+      </c>
+      <c r="AD27">
+        <v>4</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AF27">
+        <v>1.03</v>
+      </c>
+      <c r="AG27">
+        <v>11</v>
+      </c>
+      <c r="AH27">
+        <v>1.18</v>
+      </c>
+      <c r="AI27">
+        <v>4.5</v>
+      </c>
+      <c r="AJ27">
+        <v>1.53</v>
+      </c>
+      <c r="AK27">
+        <v>2.2</v>
+      </c>
+      <c r="AL27">
+        <v>1.75</v>
+      </c>
+      <c r="AM27">
+        <v>2</v>
+      </c>
+      <c r="AN27">
+        <v>1.08</v>
+      </c>
+      <c r="AO27">
+        <v>1.15</v>
+      </c>
+      <c r="AP27">
+        <v>2.65</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>2</v>
+      </c>
+      <c r="AS27">
+        <v>1.5</v>
+      </c>
+      <c r="AT27">
+        <v>2.33</v>
+      </c>
+      <c r="AU27">
+        <v>2.22</v>
+      </c>
+      <c r="AV27">
+        <v>1.47</v>
+      </c>
+      <c r="AW27">
+        <v>3.69</v>
+      </c>
+      <c r="AX27">
+        <v>1.3</v>
+      </c>
+      <c r="AY27">
+        <v>9</v>
+      </c>
+      <c r="AZ27">
+        <v>4.5</v>
+      </c>
+      <c r="BA27">
+        <v>1.15</v>
+      </c>
+      <c r="BB27">
+        <v>1.3</v>
+      </c>
+      <c r="BC27">
+        <v>1.46</v>
+      </c>
+      <c r="BD27">
+        <v>1.95</v>
+      </c>
+      <c r="BE27">
+        <v>2.32</v>
+      </c>
+      <c r="BF27">
+        <v>3</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27">
+        <v>6</v>
+      </c>
+      <c r="BI27">
+        <v>4</v>
+      </c>
+      <c r="BJ27">
+        <v>9</v>
+      </c>
+      <c r="BK27">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -726,7 +726,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
         <v>2</v>
@@ -5489,22 +5489,22 @@
         <v>2.13</v>
       </c>
       <c r="BF25">
+        <v>8</v>
+      </c>
+      <c r="BG25">
+        <v>7</v>
+      </c>
+      <c r="BH25">
         <v>6</v>
       </c>
-      <c r="BG25">
-        <v>5</v>
-      </c>
-      <c r="BH25">
-        <v>7</v>
-      </c>
       <c r="BI25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BK25">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:63">
@@ -5680,19 +5680,19 @@
         <v>2.03</v>
       </c>
       <c r="BF26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH26">
         <v>3</v>
       </c>
       <c r="BI26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK26">
         <v>12</v>
@@ -5874,7 +5874,7 @@
         <v>3</v>
       </c>
       <c r="BG27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH27">
         <v>6</v>
@@ -5886,7 +5886,198 @@
         <v>9</v>
       </c>
       <c r="BK27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6708688</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45165.64583333334</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+      <c r="R28">
+        <v>6</v>
+      </c>
+      <c r="S28">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <v>3.66</v>
+      </c>
+      <c r="U28">
+        <v>2.06</v>
+      </c>
+      <c r="V28">
+        <v>2.88</v>
+      </c>
+      <c r="W28">
+        <v>1.43</v>
+      </c>
+      <c r="X28">
+        <v>2.7</v>
+      </c>
+      <c r="Y28">
+        <v>2.99</v>
+      </c>
+      <c r="Z28">
+        <v>1.36</v>
+      </c>
+      <c r="AA28">
+        <v>6.5</v>
+      </c>
+      <c r="AB28">
+        <v>1.08</v>
+      </c>
+      <c r="AC28">
+        <v>3.02</v>
+      </c>
+      <c r="AD28">
+        <v>3.34</v>
+      </c>
+      <c r="AE28">
+        <v>2.35</v>
+      </c>
+      <c r="AF28">
+        <v>1.03</v>
+      </c>
+      <c r="AG28">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH28">
+        <v>1.31</v>
+      </c>
+      <c r="AI28">
+        <v>3.04</v>
+      </c>
+      <c r="AJ28">
+        <v>1.92</v>
+      </c>
+      <c r="AK28">
+        <v>1.7</v>
+      </c>
+      <c r="AL28">
+        <v>1.8</v>
+      </c>
+      <c r="AM28">
+        <v>1.9</v>
+      </c>
+      <c r="AN28">
+        <v>1.6</v>
+      </c>
+      <c r="AO28">
+        <v>1.32</v>
+      </c>
+      <c r="AP28">
+        <v>1.37</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>1</v>
+      </c>
+      <c r="AS28">
+        <v>1.33</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>1.17</v>
+      </c>
+      <c r="AV28">
+        <v>1.99</v>
+      </c>
+      <c r="AW28">
+        <v>3.16</v>
+      </c>
+      <c r="AX28">
+        <v>2.25</v>
+      </c>
+      <c r="AY28">
         <v>7</v>
+      </c>
+      <c r="AZ28">
+        <v>1.95</v>
+      </c>
+      <c r="BA28">
+        <v>1.31</v>
+      </c>
+      <c r="BB28">
+        <v>1.46</v>
+      </c>
+      <c r="BC28">
+        <v>1.77</v>
+      </c>
+      <c r="BD28">
+        <v>2.3</v>
+      </c>
+      <c r="BE28">
+        <v>3.05</v>
+      </c>
+      <c r="BF28">
+        <v>4</v>
+      </c>
+      <c r="BG28">
+        <v>4</v>
+      </c>
+      <c r="BH28">
+        <v>2</v>
+      </c>
+      <c r="BI28">
+        <v>7</v>
+      </c>
+      <c r="BJ28">
+        <v>6</v>
+      </c>
+      <c r="BK28">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,21 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['49', '66']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['22', '90+2', '90+4']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -365,6 +380,18 @@
   </si>
   <si>
     <t>['57', '73']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['59', '62']</t>
+  </si>
+  <si>
+    <t>['78', '87']</t>
   </si>
 </sst>
 </file>
@@ -726,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:BK34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -970,7 +997,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="Q2">
         <v>6</v>
@@ -1057,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1248,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -1442,7 +1469,7 @@
         <v>0.33</v>
       </c>
       <c r="AT4">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1630,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
         <v>2</v>
@@ -1734,7 +1761,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -1824,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1925,7 +1952,7 @@
         <v>81</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2012,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT7">
         <v>1.33</v>
@@ -2116,7 +2143,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2307,7 +2334,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -2394,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>2.33</v>
@@ -2689,7 +2716,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -2880,7 +2907,7 @@
         <v>86</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q12">
         <v>6</v>
@@ -3161,7 +3188,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3262,7 +3289,7 @@
         <v>79</v>
       </c>
       <c r="P14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3453,7 +3480,7 @@
         <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3543,7 +3570,7 @@
         <v>2</v>
       </c>
       <c r="AT15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>1.66</v>
@@ -3644,7 +3671,7 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -4026,7 +4053,7 @@
         <v>91</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4113,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT18">
         <v>2</v>
@@ -4217,7 +4244,7 @@
         <v>92</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4304,7 +4331,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
         <v>0</v>
@@ -4408,7 +4435,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4498,7 +4525,7 @@
         <v>3</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU20">
         <v>1.62</v>
@@ -4599,7 +4626,7 @@
         <v>79</v>
       </c>
       <c r="P21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -4686,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>0.9</v>
@@ -4877,10 +4904,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>1.28</v>
@@ -4981,7 +5008,7 @@
         <v>79</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q23">
         <v>8</v>
@@ -5071,7 +5098,7 @@
         <v>0.5</v>
       </c>
       <c r="AT23">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU23">
         <v>2.11</v>
@@ -5172,7 +5199,7 @@
         <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5363,7 +5390,7 @@
         <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q25">
         <v>8</v>
@@ -5554,7 +5581,7 @@
         <v>96</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -5745,7 +5772,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6023,7 +6050,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6078,6 +6105,1152 @@
       </c>
       <c r="BK28">
         <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6708698</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45170.52083333334</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>7</v>
+      </c>
+      <c r="T29">
+        <v>2.45</v>
+      </c>
+      <c r="U29">
+        <v>2.15</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>3.25</v>
+      </c>
+      <c r="Y29">
+        <v>2.6</v>
+      </c>
+      <c r="Z29">
+        <v>1.45</v>
+      </c>
+      <c r="AA29">
+        <v>5.5</v>
+      </c>
+      <c r="AB29">
+        <v>1.12</v>
+      </c>
+      <c r="AC29">
+        <v>1.86</v>
+      </c>
+      <c r="AD29">
+        <v>3.45</v>
+      </c>
+      <c r="AE29">
+        <v>3.55</v>
+      </c>
+      <c r="AF29">
+        <v>1.05</v>
+      </c>
+      <c r="AG29">
+        <v>9</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.75</v>
+      </c>
+      <c r="AJ29">
+        <v>1.73</v>
+      </c>
+      <c r="AK29">
+        <v>2.04</v>
+      </c>
+      <c r="AL29">
+        <v>1.66</v>
+      </c>
+      <c r="AM29">
+        <v>2.15</v>
+      </c>
+      <c r="AN29">
+        <v>1.22</v>
+      </c>
+      <c r="AO29">
+        <v>1.22</v>
+      </c>
+      <c r="AP29">
+        <v>1.83</v>
+      </c>
+      <c r="AQ29">
+        <v>1.5</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>1.33</v>
+      </c>
+      <c r="AT29">
+        <v>0.33</v>
+      </c>
+      <c r="AU29">
+        <v>1.35</v>
+      </c>
+      <c r="AV29">
+        <v>1.15</v>
+      </c>
+      <c r="AW29">
+        <v>2.5</v>
+      </c>
+      <c r="AX29">
+        <v>1.5</v>
+      </c>
+      <c r="AY29">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ29">
+        <v>2.98</v>
+      </c>
+      <c r="BA29">
+        <v>1.19</v>
+      </c>
+      <c r="BB29">
+        <v>1.32</v>
+      </c>
+      <c r="BC29">
+        <v>1.8</v>
+      </c>
+      <c r="BD29">
+        <v>1.99</v>
+      </c>
+      <c r="BE29">
+        <v>2.6</v>
+      </c>
+      <c r="BF29">
+        <v>3</v>
+      </c>
+      <c r="BG29">
+        <v>2</v>
+      </c>
+      <c r="BH29">
+        <v>5</v>
+      </c>
+      <c r="BI29">
+        <v>8</v>
+      </c>
+      <c r="BJ29">
+        <v>8</v>
+      </c>
+      <c r="BK29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6708699</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45171.4375</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>99</v>
+      </c>
+      <c r="P30" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>2.55</v>
+      </c>
+      <c r="U30">
+        <v>2.05</v>
+      </c>
+      <c r="V30">
+        <v>4.2</v>
+      </c>
+      <c r="W30">
+        <v>1.43</v>
+      </c>
+      <c r="X30">
+        <v>2.65</v>
+      </c>
+      <c r="Y30">
+        <v>2.75</v>
+      </c>
+      <c r="Z30">
+        <v>1.4</v>
+      </c>
+      <c r="AA30">
+        <v>7</v>
+      </c>
+      <c r="AB30">
+        <v>1.08</v>
+      </c>
+      <c r="AC30">
+        <v>2.01</v>
+      </c>
+      <c r="AD30">
+        <v>3.25</v>
+      </c>
+      <c r="AE30">
+        <v>3.15</v>
+      </c>
+      <c r="AF30">
+        <v>1.07</v>
+      </c>
+      <c r="AG30">
+        <v>7.5</v>
+      </c>
+      <c r="AH30">
+        <v>1.33</v>
+      </c>
+      <c r="AI30">
+        <v>3.1</v>
+      </c>
+      <c r="AJ30">
+        <v>2.02</v>
+      </c>
+      <c r="AK30">
+        <v>1.78</v>
+      </c>
+      <c r="AL30">
+        <v>1.83</v>
+      </c>
+      <c r="AM30">
+        <v>1.9</v>
+      </c>
+      <c r="AN30">
+        <v>1.2</v>
+      </c>
+      <c r="AO30">
+        <v>1.25</v>
+      </c>
+      <c r="AP30">
+        <v>1.83</v>
+      </c>
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.33</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>1</v>
+      </c>
+      <c r="AV30">
+        <v>1.26</v>
+      </c>
+      <c r="AW30">
+        <v>2.26</v>
+      </c>
+      <c r="AX30">
+        <v>1.45</v>
+      </c>
+      <c r="AY30">
+        <v>8</v>
+      </c>
+      <c r="AZ30">
+        <v>3.5</v>
+      </c>
+      <c r="BA30">
+        <v>1.13</v>
+      </c>
+      <c r="BB30">
+        <v>1.25</v>
+      </c>
+      <c r="BC30">
+        <v>1.48</v>
+      </c>
+      <c r="BD30">
+        <v>1.8</v>
+      </c>
+      <c r="BE30">
+        <v>2.1</v>
+      </c>
+      <c r="BF30">
+        <v>5</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>5</v>
+      </c>
+      <c r="BI30">
+        <v>9</v>
+      </c>
+      <c r="BJ30">
+        <v>10</v>
+      </c>
+      <c r="BK30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6708701</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45171.54166666666</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>2.35</v>
+      </c>
+      <c r="U31">
+        <v>2.1</v>
+      </c>
+      <c r="V31">
+        <v>4.5</v>
+      </c>
+      <c r="W31">
+        <v>1.41</v>
+      </c>
+      <c r="X31">
+        <v>2.7</v>
+      </c>
+      <c r="Y31">
+        <v>2.75</v>
+      </c>
+      <c r="Z31">
+        <v>1.4</v>
+      </c>
+      <c r="AA31">
+        <v>6.5</v>
+      </c>
+      <c r="AB31">
+        <v>1.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.75</v>
+      </c>
+      <c r="AD31">
+        <v>3.4</v>
+      </c>
+      <c r="AE31">
+        <v>4.2</v>
+      </c>
+      <c r="AF31">
+        <v>1.06</v>
+      </c>
+      <c r="AG31">
+        <v>8</v>
+      </c>
+      <c r="AH31">
+        <v>1.33</v>
+      </c>
+      <c r="AI31">
+        <v>3.1</v>
+      </c>
+      <c r="AJ31">
+        <v>2.02</v>
+      </c>
+      <c r="AK31">
+        <v>1.79</v>
+      </c>
+      <c r="AL31">
+        <v>1.9</v>
+      </c>
+      <c r="AM31">
+        <v>1.83</v>
+      </c>
+      <c r="AN31">
+        <v>1.15</v>
+      </c>
+      <c r="AO31">
+        <v>1.22</v>
+      </c>
+      <c r="AP31">
+        <v>2</v>
+      </c>
+      <c r="AQ31">
+        <v>1.33</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>1.75</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>1.13</v>
+      </c>
+      <c r="AV31">
+        <v>1.03</v>
+      </c>
+      <c r="AW31">
+        <v>2.16</v>
+      </c>
+      <c r="AX31">
+        <v>1.5</v>
+      </c>
+      <c r="AY31">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31">
+        <v>3.3</v>
+      </c>
+      <c r="BA31">
+        <v>1.15</v>
+      </c>
+      <c r="BB31">
+        <v>1.29</v>
+      </c>
+      <c r="BC31">
+        <v>1.47</v>
+      </c>
+      <c r="BD31">
+        <v>1.93</v>
+      </c>
+      <c r="BE31">
+        <v>2.28</v>
+      </c>
+      <c r="BF31">
+        <v>2</v>
+      </c>
+      <c r="BG31">
+        <v>6</v>
+      </c>
+      <c r="BH31">
+        <v>6</v>
+      </c>
+      <c r="BI31">
+        <v>6</v>
+      </c>
+      <c r="BJ31">
+        <v>8</v>
+      </c>
+      <c r="BK31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6708702</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45171.54166666666</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>101</v>
+      </c>
+      <c r="P32" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>3.5</v>
+      </c>
+      <c r="U32">
+        <v>2.15</v>
+      </c>
+      <c r="V32">
+        <v>2.7</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>3.25</v>
+      </c>
+      <c r="Y32">
+        <v>2.55</v>
+      </c>
+      <c r="Z32">
+        <v>1.46</v>
+      </c>
+      <c r="AA32">
+        <v>5.5</v>
+      </c>
+      <c r="AB32">
+        <v>1.12</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32">
+        <v>3.3</v>
+      </c>
+      <c r="AE32">
+        <v>2.1</v>
+      </c>
+      <c r="AF32">
+        <v>1.04</v>
+      </c>
+      <c r="AG32">
+        <v>10</v>
+      </c>
+      <c r="AH32">
+        <v>1.25</v>
+      </c>
+      <c r="AI32">
+        <v>3.75</v>
+      </c>
+      <c r="AJ32">
+        <v>1.61</v>
+      </c>
+      <c r="AK32">
+        <v>2.05</v>
+      </c>
+      <c r="AL32">
+        <v>1.62</v>
+      </c>
+      <c r="AM32">
+        <v>2.2</v>
+      </c>
+      <c r="AN32">
+        <v>1.57</v>
+      </c>
+      <c r="AO32">
+        <v>1.22</v>
+      </c>
+      <c r="AP32">
+        <v>1.3</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>1.67</v>
+      </c>
+      <c r="AS32">
+        <v>3</v>
+      </c>
+      <c r="AT32">
+        <v>1.25</v>
+      </c>
+      <c r="AU32">
+        <v>1.62</v>
+      </c>
+      <c r="AV32">
+        <v>1.54</v>
+      </c>
+      <c r="AW32">
+        <v>3.16</v>
+      </c>
+      <c r="AX32">
+        <v>2.4</v>
+      </c>
+      <c r="AY32">
+        <v>7</v>
+      </c>
+      <c r="AZ32">
+        <v>1.85</v>
+      </c>
+      <c r="BA32">
+        <v>1.13</v>
+      </c>
+      <c r="BB32">
+        <v>1.26</v>
+      </c>
+      <c r="BC32">
+        <v>1.4</v>
+      </c>
+      <c r="BD32">
+        <v>1.85</v>
+      </c>
+      <c r="BE32">
+        <v>2.21</v>
+      </c>
+      <c r="BF32">
+        <v>8</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>12</v>
+      </c>
+      <c r="BI32">
+        <v>3</v>
+      </c>
+      <c r="BJ32">
+        <v>20</v>
+      </c>
+      <c r="BK32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>6708703</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45172.52083333334</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>9</v>
+      </c>
+      <c r="T33">
+        <v>2.2</v>
+      </c>
+      <c r="U33">
+        <v>2.25</v>
+      </c>
+      <c r="V33">
+        <v>4.5</v>
+      </c>
+      <c r="W33">
+        <v>1.35</v>
+      </c>
+      <c r="X33">
+        <v>3.04</v>
+      </c>
+      <c r="Y33">
+        <v>2.55</v>
+      </c>
+      <c r="Z33">
+        <v>1.46</v>
+      </c>
+      <c r="AA33">
+        <v>5.7</v>
+      </c>
+      <c r="AB33">
+        <v>1.12</v>
+      </c>
+      <c r="AC33">
+        <v>1.65</v>
+      </c>
+      <c r="AD33">
+        <v>3.85</v>
+      </c>
+      <c r="AE33">
+        <v>4.6</v>
+      </c>
+      <c r="AF33">
+        <v>1.01</v>
+      </c>
+      <c r="AG33">
+        <v>12</v>
+      </c>
+      <c r="AH33">
+        <v>1.22</v>
+      </c>
+      <c r="AI33">
+        <v>4</v>
+      </c>
+      <c r="AJ33">
+        <v>1.7</v>
+      </c>
+      <c r="AK33">
+        <v>2</v>
+      </c>
+      <c r="AL33">
+        <v>1.72</v>
+      </c>
+      <c r="AM33">
+        <v>2.05</v>
+      </c>
+      <c r="AN33">
+        <v>1.13</v>
+      </c>
+      <c r="AO33">
+        <v>1.2</v>
+      </c>
+      <c r="AP33">
+        <v>1.96</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>1.5</v>
+      </c>
+      <c r="AS33">
+        <v>1</v>
+      </c>
+      <c r="AT33">
+        <v>2</v>
+      </c>
+      <c r="AU33">
+        <v>1.7</v>
+      </c>
+      <c r="AV33">
+        <v>0.84</v>
+      </c>
+      <c r="AW33">
+        <v>2.54</v>
+      </c>
+      <c r="AX33">
+        <v>1.38</v>
+      </c>
+      <c r="AY33">
+        <v>8</v>
+      </c>
+      <c r="AZ33">
+        <v>4</v>
+      </c>
+      <c r="BA33">
+        <v>1.26</v>
+      </c>
+      <c r="BB33">
+        <v>1.51</v>
+      </c>
+      <c r="BC33">
+        <v>1.88</v>
+      </c>
+      <c r="BD33">
+        <v>2.42</v>
+      </c>
+      <c r="BE33">
+        <v>2.85</v>
+      </c>
+      <c r="BF33">
+        <v>5</v>
+      </c>
+      <c r="BG33">
+        <v>4</v>
+      </c>
+      <c r="BH33">
+        <v>9</v>
+      </c>
+      <c r="BI33">
+        <v>5</v>
+      </c>
+      <c r="BJ33">
+        <v>14</v>
+      </c>
+      <c r="BK33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>6708700</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45172.54166666666</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>5</v>
+      </c>
+      <c r="O34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>7</v>
+      </c>
+      <c r="T34">
+        <v>1.92</v>
+      </c>
+      <c r="U34">
+        <v>2.65</v>
+      </c>
+      <c r="V34">
+        <v>6.08</v>
+      </c>
+      <c r="W34">
+        <v>1.27</v>
+      </c>
+      <c r="X34">
+        <v>3.5</v>
+      </c>
+      <c r="Y34">
+        <v>2.34</v>
+      </c>
+      <c r="Z34">
+        <v>1.59</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>1.15</v>
+      </c>
+      <c r="AC34">
+        <v>1.45</v>
+      </c>
+      <c r="AD34">
+        <v>4.6</v>
+      </c>
+      <c r="AE34">
+        <v>5.5</v>
+      </c>
+      <c r="AF34">
+        <v>1.02</v>
+      </c>
+      <c r="AG34">
+        <v>10</v>
+      </c>
+      <c r="AH34">
+        <v>1.18</v>
+      </c>
+      <c r="AI34">
+        <v>4.33</v>
+      </c>
+      <c r="AJ34">
+        <v>1.55</v>
+      </c>
+      <c r="AK34">
+        <v>2.3</v>
+      </c>
+      <c r="AL34">
+        <v>1.75</v>
+      </c>
+      <c r="AM34">
+        <v>1.95</v>
+      </c>
+      <c r="AN34">
+        <v>1.06</v>
+      </c>
+      <c r="AO34">
+        <v>1.14</v>
+      </c>
+      <c r="AP34">
+        <v>2.43</v>
+      </c>
+      <c r="AQ34">
+        <v>1</v>
+      </c>
+      <c r="AR34">
+        <v>1.5</v>
+      </c>
+      <c r="AS34">
+        <v>2</v>
+      </c>
+      <c r="AT34">
+        <v>1</v>
+      </c>
+      <c r="AU34">
+        <v>1.72</v>
+      </c>
+      <c r="AV34">
+        <v>1.77</v>
+      </c>
+      <c r="AW34">
+        <v>3.49</v>
+      </c>
+      <c r="AX34">
+        <v>1.29</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>4.75</v>
+      </c>
+      <c r="BA34">
+        <v>1.14</v>
+      </c>
+      <c r="BB34">
+        <v>1.28</v>
+      </c>
+      <c r="BC34">
+        <v>1.42</v>
+      </c>
+      <c r="BD34">
+        <v>1.85</v>
+      </c>
+      <c r="BE34">
+        <v>2.15</v>
+      </c>
+      <c r="BF34">
+        <v>7</v>
+      </c>
+      <c r="BG34">
+        <v>6</v>
+      </c>
+      <c r="BH34">
+        <v>7</v>
+      </c>
+      <c r="BI34">
+        <v>8</v>
+      </c>
+      <c r="BJ34">
+        <v>14</v>
+      </c>
+      <c r="BK34">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -6662,22 +6662,22 @@
         <v>2.28</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI31">
         <v>6</v>
       </c>
       <c r="BJ31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BK31">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:63">
@@ -6853,22 +6853,22 @@
         <v>2.21</v>
       </c>
       <c r="BF32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG32">
         <v>0</v>
       </c>
       <c r="BH32">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BI32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BK32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:63">
@@ -7044,22 +7044,22 @@
         <v>2.85</v>
       </c>
       <c r="BF33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BI33">
         <v>5</v>
       </c>
       <c r="BJ33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BK33">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:63">
@@ -7235,19 +7235,19 @@
         <v>2.15</v>
       </c>
       <c r="BF34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BH34">
         <v>7</v>
       </c>
       <c r="BI34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ34">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK34">
         <v>14</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK38"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT12" t="n">
         <v>1.67</v>
@@ -3745,7 +3745,7 @@
         <v>2.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU16" t="n">
         <v>2.42</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.38</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT23" t="n">
         <v>1.25</v>
@@ -5775,7 +5775,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU26" t="n">
         <v>2.17</v>
@@ -5975,7 +5975,7 @@
         <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
         <v>2.5</v>
@@ -7638,19 +7638,19 @@
         <v>2.32</v>
       </c>
       <c r="BF35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BG35" t="n">
         <v>3</v>
       </c>
       <c r="BH35" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI35" t="n">
         <v>1</v>
       </c>
       <c r="BJ35" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BK35" t="n">
         <v>4</v>
@@ -7841,22 +7841,22 @@
         <v>2.7</v>
       </c>
       <c r="BF36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BG36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH36" t="n">
         <v>3</v>
       </c>
-      <c r="BH36" t="n">
-        <v>6</v>
-      </c>
       <c r="BI36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ36" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BK36" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -8044,7 +8044,7 @@
         <v>3</v>
       </c>
       <c r="BF37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG37" t="n">
         <v>2</v>
@@ -8053,13 +8053,13 @@
         <v>0</v>
       </c>
       <c r="BI37" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK37" t="n">
         <v>7</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>3</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -8247,22 +8247,428 @@
         <v>2.62</v>
       </c>
       <c r="BF38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6708708</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45186.52083333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>4</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>['11', '30', '57']</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7</v>
+      </c>
+      <c r="S39" t="n">
+        <v>11</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6708707</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45186.54166666666</v>
+      </c>
+      <c r="F40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>['10', '65']</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>5</v>
       </c>
-      <c r="BG38" t="n">
+      <c r="R40" t="n">
+        <v>8</v>
+      </c>
+      <c r="S40" t="n">
+        <v>13</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI40" t="n">
         <v>5</v>
       </c>
-      <c r="BH38" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI38" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ38" t="n">
-        <v>7</v>
-      </c>
-      <c r="BK38" t="n">
-        <v>14</v>
+      <c r="BJ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK40"/>
+  <dimension ref="A1:BK44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT5" t="n">
         <v>1.33</v>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT14" t="n">
         <v>2.5</v>
@@ -3542,7 +3542,7 @@
         <v>2.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>1.66</v>
@@ -3745,7 +3745,7 @@
         <v>2.25</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU16" t="n">
         <v>2.42</v>
@@ -3948,7 +3948,7 @@
         <v>2.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU17" t="n">
         <v>2.18</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>2</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU22" t="n">
         <v>1.28</v>
@@ -5166,7 +5166,7 @@
         <v>0.33</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU23" t="n">
         <v>2.11</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5572,7 +5572,7 @@
         <v>2.25</v>
       </c>
       <c r="AT25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU25" t="n">
         <v>1.94</v>
@@ -5775,7 +5775,7 @@
         <v>2.5</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU26" t="n">
         <v>2.17</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT28" t="n">
         <v>1.67</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT29" t="n">
         <v>0.33</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AT31" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>3</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7399,7 +7399,7 @@
         <v>2</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AU34" t="n">
         <v>1.72</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AT38" t="n">
         <v>1.67</v>
@@ -8617,7 +8617,7 @@
         <v>0.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.92</v>
@@ -8669,6 +8669,818 @@
       </c>
       <c r="BK40" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6708714</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45191.52083333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['22', '44', '76']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6708711</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F42" t="n">
+        <v>8</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" t="n">
+        <v>11</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6708712</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>8</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6708713</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45192.54166666666</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>['20', '41', '71', '79', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>10</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>14</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK44"/>
+  <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2.25</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -3136,7 +3136,7 @@
         <v>2.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>3</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.62</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0.9</v>
@@ -6384,7 +6384,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>1.35</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.7</v>
@@ -7396,7 +7396,7 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -8936,13 +8936,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R42" t="n">
         <v>6</v>
       </c>
       <c r="S42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T42" t="n">
         <v>2.3</v>
@@ -9059,22 +9059,22 @@
         <v>2.15</v>
       </c>
       <c r="BF42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG42" t="n">
         <v>5</v>
       </c>
-      <c r="BG42" t="n">
-        <v>4</v>
-      </c>
       <c r="BH42" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI42" t="n">
         <v>2</v>
       </c>
       <c r="BJ42" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK42" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -9139,13 +9139,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T43" t="n">
         <v>4.33</v>
@@ -9265,19 +9265,19 @@
         <v>2</v>
       </c>
       <c r="BG43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH43" t="n">
         <v>3</v>
       </c>
       <c r="BI43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ43" t="n">
         <v>5</v>
       </c>
       <c r="BK43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -9342,13 +9342,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R44" t="n">
         <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T44" t="n">
         <v>3.75</v>
@@ -9465,13 +9465,13 @@
         <v>2.1</v>
       </c>
       <c r="BF44" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG44" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH44" t="n">
         <v>8</v>
-      </c>
-      <c r="BH44" t="n">
-        <v>7</v>
       </c>
       <c r="BI44" t="n">
         <v>9</v>
@@ -9480,7 +9480,413 @@
         <v>14</v>
       </c>
       <c r="BK44" t="n">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6708715</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45193.52083333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>8</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['42', '47']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V45" t="n">
+        <v>5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BA45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6708710</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45193.54166666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['41', '53']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>['48', '63']</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -9871,22 +9871,22 @@
         <v>2.88</v>
       </c>
       <c r="BF46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG46" t="n">
         <v>4</v>
       </c>
-      <c r="BG46" t="n">
-        <v>2</v>
-      </c>
       <c r="BH46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK46" t="n">
         <v>6</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ46"/>
+  <dimension ref="A1:AZ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7" t="n">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.6</v>
@@ -3559,7 +3559,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.5</v>
@@ -4579,7 +4579,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -6106,7 +6106,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -6786,10 +6786,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -7129,7 +7129,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -8316,7 +8316,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.5</v>
@@ -8347,6 +8347,346 @@
       </c>
       <c r="AZ46" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6708697</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45196.54166666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['58', '74']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X47" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6708680</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45196.64583333334</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['5', '66', '77']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ48"/>
+  <dimension ref="A1:AZ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5</v>
@@ -3216,7 +3216,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16" t="n">
         <v>2</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.2</v>
@@ -6616,7 +6616,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.5</v>
@@ -8501,19 +8501,19 @@
         <v>2.94</v>
       </c>
       <c r="AU47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW47" t="n">
         <v>3</v>
       </c>
       <c r="AX47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ47" t="n">
         <v>13</v>
@@ -8671,22 +8671,192 @@
         <v>3.12</v>
       </c>
       <c r="AU48" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV48" t="n">
         <v>4</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>5</v>
       </c>
       <c r="AW48" t="n">
         <v>5</v>
       </c>
       <c r="AX48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6708721</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45198.52083333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>2</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" t="n">
         <v>3</v>
       </c>
-      <c r="AY48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AZ48" t="n">
+      <c r="N49" t="n">
         <v>8</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['12', '18', '61', '83', '90+4']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>['50', '62', '75']</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ49"/>
+  <dimension ref="A1:AZ51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2199,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -3046,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.6</v>
@@ -5089,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -5769,7 +5769,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -6619,7 +6619,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -6786,7 +6786,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.75</v>
@@ -8486,7 +8486,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.75</v>
@@ -8841,22 +8841,362 @@
         <v>3.05</v>
       </c>
       <c r="AU49" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AV49" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW49" t="n">
         <v>5</v>
       </c>
       <c r="AX49" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6708717</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45199.54166666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW50" t="n">
         <v>5</v>
       </c>
-      <c r="AY49" t="n">
+      <c r="AX50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6708719</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45199.54166666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X51" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY51" t="n">
         <v>16</v>
       </c>
-      <c r="AZ49" t="n">
-        <v>10</v>
+      <c r="AZ51" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ51"/>
+  <dimension ref="A1:AZ54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.2</v>
@@ -3559,7 +3559,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4406,7 +4406,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.6</v>
@@ -4579,7 +4579,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -4916,7 +4916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5086,7 +5086,7 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>2</v>
@@ -5259,7 +5259,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ35" t="n">
         <v>0</v>
@@ -6789,7 +6789,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -6959,7 +6959,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -7126,10 +7126,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -7296,7 +7296,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>2</v>
@@ -8489,7 +8489,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -8659,7 +8659,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -9017,13 +9017,13 @@
         <v>2</v>
       </c>
       <c r="AW50" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX50" t="n">
         <v>1</v>
       </c>
       <c r="AY50" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ50" t="n">
         <v>3</v>
@@ -9184,7 +9184,7 @@
         <v>5</v>
       </c>
       <c r="AV51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW51" t="n">
         <v>11</v>
@@ -9196,7 +9196,517 @@
         <v>16</v>
       </c>
       <c r="AZ51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6708716</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45200.52083333334</v>
+      </c>
+      <c r="F52" t="n">
+        <v>9</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
         <v>5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>8</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['27', '36', '84', '86', '90']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>['13', '52', '63']</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X52" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6708718</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45200.54166666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>['2', '47', '75']</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X53" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6708720</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45200.54166666666</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -9017,13 +9017,13 @@
         <v>2</v>
       </c>
       <c r="AW50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX50" t="n">
         <v>1</v>
       </c>
       <c r="AY50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ50" t="n">
         <v>3</v>
@@ -9181,22 +9181,22 @@
         <v>2.52</v>
       </c>
       <c r="AU51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW51" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX51" t="n">
         <v>1</v>
       </c>
       <c r="AY51" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AZ51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -9351,22 +9351,22 @@
         <v>3.5</v>
       </c>
       <c r="AU52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV52" t="n">
         <v>7</v>
       </c>
-      <c r="AV52" t="n">
-        <v>3</v>
-      </c>
       <c r="AW52" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ52" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -9524,16 +9524,16 @@
         <v>2</v>
       </c>
       <c r="AV53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX53" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY53" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ53" t="n">
         <v>13</v>
@@ -9694,19 +9694,19 @@
         <v>4</v>
       </c>
       <c r="AV54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY54" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ54" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ54"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>16</v>
       </c>
+      <c r="BA2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>7</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>9</v>
       </c>
+      <c r="BA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>16</v>
       </c>
+      <c r="BA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>7</v>
       </c>
+      <c r="BA6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>10</v>
       </c>
+      <c r="BA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>7</v>
       </c>
+      <c r="BA8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>6</v>
       </c>
+      <c r="BA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>9</v>
       </c>
+      <c r="BA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>12</v>
       </c>
+      <c r="BA11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>17</v>
       </c>
+      <c r="BA12" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>8</v>
       </c>
+      <c r="BA13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>15</v>
       </c>
+      <c r="BA14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>16</v>
       </c>
+      <c r="BA15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>14</v>
       </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>6</v>
       </c>
+      <c r="BA17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>11</v>
       </c>
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>7</v>
       </c>
+      <c r="BA19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>2</v>
       </c>
+      <c r="BA20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>4</v>
       </c>
+      <c r="BA21" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>12</v>
       </c>
+      <c r="BA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>11</v>
       </c>
+      <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>16</v>
       </c>
+      <c r="BA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>11</v>
       </c>
+      <c r="BA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>12</v>
       </c>
+      <c r="BA26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>10</v>
       </c>
+      <c r="BA27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.54</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>11</v>
       </c>
+      <c r="BA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>10</v>
       </c>
+      <c r="BA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
+      <c r="BA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>13</v>
       </c>
+      <c r="BA31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>2</v>
       </c>
+      <c r="BA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>11</v>
       </c>
+      <c r="BA33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>14</v>
       </c>
+      <c r="BA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>4</v>
       </c>
+      <c r="BA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>9</v>
       </c>
+      <c r="BA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>7</v>
       </c>
+      <c r="BA37" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>16</v>
       </c>
+      <c r="BA38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.43</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>13</v>
       </c>
+      <c r="BA39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>8</v>
       </c>
+      <c r="BA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>13</v>
       </c>
+      <c r="BA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>7</v>
       </c>
+      <c r="BA42" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>6</v>
       </c>
+      <c r="BA43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>19</v>
       </c>
+      <c r="BA44" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>6</v>
       </c>
+      <c r="BA45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.48</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>6</v>
       </c>
+      <c r="BA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8518,6 +10758,54 @@
       <c r="AZ47" t="n">
         <v>13</v>
       </c>
+      <c r="BA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -8688,6 +10976,54 @@
       <c r="AZ48" t="n">
         <v>6</v>
       </c>
+      <c r="BA48" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -8858,6 +11194,54 @@
       <c r="AZ49" t="n">
         <v>11</v>
       </c>
+      <c r="BA49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9028,6 +11412,54 @@
       <c r="AZ50" t="n">
         <v>3</v>
       </c>
+      <c r="BA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9198,6 +11630,54 @@
       <c r="AZ51" t="n">
         <v>4</v>
       </c>
+      <c r="BA51" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -9368,6 +11848,54 @@
       <c r="AZ52" t="n">
         <v>12</v>
       </c>
+      <c r="BA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -9538,6 +12066,54 @@
       <c r="AZ53" t="n">
         <v>13</v>
       </c>
+      <c r="BA53" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -9707,6 +12283,54 @@
       </c>
       <c r="AZ54" t="n">
         <v>11</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.6</v>
@@ -2009,7 +2009,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>2</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14" t="n">
         <v>2</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.6</v>
@@ -3971,7 +3971,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR16" t="n">
         <v>2.42</v>
@@ -4189,7 +4189,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR17" t="n">
         <v>2.18</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18" t="n">
         <v>2</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR21" t="n">
         <v>0.9</v>
@@ -5279,7 +5279,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR22" t="n">
         <v>1.28</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -5933,7 +5933,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR25" t="n">
         <v>1.94</v>
@@ -6151,7 +6151,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR26" t="n">
         <v>2.17</v>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27" t="n">
         <v>2</v>
@@ -6584,10 +6584,10 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.5</v>
@@ -7023,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.33</v>
@@ -7677,7 +7677,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR33" t="n">
         <v>1.7</v>
@@ -7892,10 +7892,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR34" t="n">
         <v>1.72</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39" t="n">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ40" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9421,7 +9421,7 @@
         <v>1</v>
       </c>
       <c r="AQ41" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1.14</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR42" t="n">
         <v>1.27</v>
@@ -9854,7 +9854,7 @@
         <v>1.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.6</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR44" t="n">
         <v>0.92</v>
@@ -10290,10 +10290,10 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR45" t="n">
         <v>1.89</v>
@@ -10726,7 +10726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
         <v>2</v>
@@ -10947,7 +10947,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.33</v>
@@ -11819,7 +11819,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR52" t="n">
         <v>2.16</v>
@@ -12252,10 +12252,10 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12331,6 +12331,1314 @@
       </c>
       <c r="BP54" t="n">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6708726</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45205.52083333334</v>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>2</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['9', '48']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6708722</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X56" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6708724</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6708723</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>10</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>['43', '51', '75']</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['82', '89']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X58" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6708725</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F59" t="n">
+        <v>10</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>['22', '71']</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X59" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6708727</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['40', '59']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X60" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -12706,19 +12706,19 @@
         <v>4</v>
       </c>
       <c r="AV56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX56" t="n">
         <v>3</v>
       </c>
       <c r="AY56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA56" t="n">
         <v>3</v>
@@ -12921,22 +12921,22 @@
         <v>2.12</v>
       </c>
       <c r="AU57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV57" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW57" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY57" t="n">
         <v>10</v>
       </c>
       <c r="AZ57" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA57" t="n">
         <v>5</v>
@@ -13139,22 +13139,22 @@
         <v>3.5</v>
       </c>
       <c r="AU58" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA58" t="n">
         <v>7</v>
@@ -13357,22 +13357,22 @@
         <v>3.1</v>
       </c>
       <c r="AU59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV59" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW59" t="n">
         <v>4</v>
-      </c>
-      <c r="AW59" t="n">
-        <v>3</v>
       </c>
       <c r="AX59" t="n">
         <v>8</v>
       </c>
       <c r="AY59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA59" t="n">
         <v>1</v>
@@ -13575,22 +13575,22 @@
         <v>3.22</v>
       </c>
       <c r="AU60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW60" t="n">
         <v>4</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>5</v>
       </c>
       <c r="AX60" t="n">
         <v>5</v>
       </c>
       <c r="AY60" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ60" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA60" t="n">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP60"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ12" t="n">
         <v>2.2</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.6</v>
@@ -7241,7 +7241,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.67</v>
@@ -11601,7 +11601,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -12034,7 +12034,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ53" t="n">
         <v>2</v>
@@ -13639,6 +13639,224 @@
       </c>
       <c r="BP60" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6708731</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45219.52083333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>11</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['11', '87']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>['58', '69']</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X61" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.93</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.67</v>
@@ -2227,7 +2227,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.5</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.4</v>
@@ -3535,7 +3535,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -3753,7 +3753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR15" t="n">
         <v>1.66</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.67</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.17</v>
@@ -4407,7 +4407,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.4</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.2</v>
@@ -5497,7 +5497,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR23" t="n">
         <v>2.11</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.17</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.67</v>
@@ -6369,7 +6369,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -6805,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.17</v>
@@ -7456,10 +7456,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.4</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -8328,10 +8328,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -8985,7 +8985,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -9418,7 +9418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.67</v>
@@ -9857,7 +9857,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10508,10 +10508,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -10729,7 +10729,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.5</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11380,10 +11380,10 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR50" t="n">
         <v>1.93</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.5</v>
@@ -12037,7 +12037,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR53" t="n">
         <v>1.68</v>
@@ -13793,10 +13793,10 @@
         <v>2.65</v>
       </c>
       <c r="AU61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW61" t="n">
         <v>4</v>
@@ -13805,10 +13805,10 @@
         <v>5</v>
       </c>
       <c r="AY61" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ61" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA61" t="n">
         <v>4</v>
@@ -13857,6 +13857,1096 @@
       </c>
       <c r="BP61" t="n">
         <v>1.93</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6708732</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F62" t="n">
+        <v>11</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X62" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>13</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6708730</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F63" t="n">
+        <v>11</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4</v>
+      </c>
+      <c r="L63" t="n">
+        <v>5</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>6</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['15', '29', '41', '62', '73']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6708733</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>11</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['6', '19', '42', '45', '63']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X64" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6708729</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>2</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="n">
+        <v>6</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['7', '11']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>['30', '60', '68', '74']</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6708728</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>11</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['64', '76']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X66" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14011,19 +14011,19 @@
         <v>2.98</v>
       </c>
       <c r="AU62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV62" t="n">
         <v>4</v>
       </c>
       <c r="AW62" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX62" t="n">
         <v>1</v>
       </c>
       <c r="AY62" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ62" t="n">
         <v>5</v>
@@ -14229,19 +14229,19 @@
         <v>3.53</v>
       </c>
       <c r="AU63" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AV63" t="n">
         <v>5</v>
       </c>
       <c r="AW63" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX63" t="n">
         <v>3</v>
       </c>
       <c r="AY63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ63" t="n">
         <v>8</v>
@@ -14447,22 +14447,22 @@
         <v>3.29</v>
       </c>
       <c r="AU64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV64" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW64" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY64" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ64" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA64" t="n">
         <v>9</v>
@@ -14665,22 +14665,22 @@
         <v>2.33</v>
       </c>
       <c r="AU65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV65" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX65" t="n">
         <v>4</v>
       </c>
       <c r="AY65" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ65" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA65" t="n">
         <v>5</v>
@@ -14883,31 +14883,31 @@
         <v>3.36</v>
       </c>
       <c r="AU66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW66" t="n">
         <v>4</v>
       </c>
       <c r="AX66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC66" t="n">
         <v>4</v>
-      </c>
-      <c r="AY66" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ66" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA66" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC66" t="n">
-        <v>5</v>
       </c>
       <c r="BD66" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.4</v>
@@ -3535,7 +3535,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.17</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.67</v>
@@ -6369,7 +6369,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.2</v>
@@ -8331,7 +8331,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -11383,7 +11383,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.93</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.5</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.4</v>
@@ -14653,7 +14653,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.08</v>
@@ -14947,6 +14947,224 @@
       </c>
       <c r="BP66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6708735</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45226.52083333334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="n">
+        <v>4</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['19', '53']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>['42', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U67" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V67" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.95</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.5</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12" t="n">
         <v>2.2</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.33</v>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>2</v>
@@ -7241,7 +7241,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -8113,7 +8113,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
         <v>2.17</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.67</v>
@@ -11165,7 +11165,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11601,7 +11601,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -12034,7 +12034,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.17</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.2</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.2</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>0.4</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>0.5</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -13999,7 +13999,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.87</v>
@@ -15165,6 +15165,442 @@
       </c>
       <c r="BP67" t="n">
         <v>1.95</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6708739</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45227.47916666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>['25', '48']</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>7</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X68" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6708736</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X69" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.67</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ9" t="n">
         <v>2</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.4</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.33</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.4</v>
@@ -5061,7 +5061,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR21" t="n">
         <v>0.9</v>
@@ -5715,7 +5715,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -7456,7 +7456,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.33</v>
@@ -7677,7 +7677,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.7</v>
@@ -7892,7 +7892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.2</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8767,7 +8767,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -10290,10 +10290,10 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.89</v>
@@ -10726,7 +10726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.17</v>
@@ -10947,7 +10947,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -11380,7 +11380,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50" t="n">
         <v>2</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.4</v>
@@ -11819,7 +11819,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR52" t="n">
         <v>2.16</v>
@@ -12255,7 +12255,7 @@
         <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.17</v>
@@ -12691,7 +12691,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR56" t="n">
         <v>1.16</v>
@@ -12909,7 +12909,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR57" t="n">
         <v>1.11</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.67</v>
@@ -13563,7 +13563,7 @@
         <v>1</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.67</v>
@@ -15101,22 +15101,22 @@
         <v>3.44</v>
       </c>
       <c r="AU67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV67" t="n">
         <v>4</v>
       </c>
-      <c r="AV67" t="n">
-        <v>2</v>
-      </c>
       <c r="AW67" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA67" t="n">
         <v>6</v>
@@ -15319,22 +15319,22 @@
         <v>2.84</v>
       </c>
       <c r="AU68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX68" t="n">
         <v>4</v>
       </c>
-      <c r="AV68" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>3</v>
-      </c>
       <c r="AY68" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ68" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA68" t="n">
         <v>7</v>
@@ -15537,31 +15537,31 @@
         <v>2.53</v>
       </c>
       <c r="AU69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV69" t="n">
         <v>3</v>
       </c>
       <c r="AW69" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX69" t="n">
         <v>2</v>
       </c>
       <c r="AY69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ69" t="n">
         <v>5</v>
       </c>
       <c r="BA69" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB69" t="n">
         <v>4</v>
       </c>
       <c r="BC69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD69" t="n">
         <v>0</v>
@@ -15601,6 +15601,660 @@
       </c>
       <c r="BP69" t="n">
         <v>1.55</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6708737</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['30', '54']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6708738</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['41', '51']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['15', '61', '76']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X71" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6708734</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['6', '9', '14', '47']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -15537,22 +15537,22 @@
         <v>2.53</v>
       </c>
       <c r="AU69" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW69" t="n">
         <v>8</v>
       </c>
       <c r="AX69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY69" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ69" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA69" t="n">
         <v>6</v>
@@ -15758,19 +15758,19 @@
         <v>3</v>
       </c>
       <c r="AV70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX70" t="n">
         <v>6</v>
       </c>
       <c r="AY70" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ70" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>9</v>
       </c>
       <c r="BA70" t="n">
         <v>9</v>
@@ -15973,22 +15973,22 @@
         <v>3.7</v>
       </c>
       <c r="AU71" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY71" t="n">
         <v>12</v>
       </c>
       <c r="AZ71" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA71" t="n">
         <v>7</v>
@@ -16191,10 +16191,10 @@
         <v>2.75</v>
       </c>
       <c r="AU72" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW72" t="n">
         <v>8</v>
@@ -16203,19 +16203,19 @@
         <v>2</v>
       </c>
       <c r="AY72" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB72" t="n">
         <v>1</v>
       </c>
       <c r="BC72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD72" t="n">
         <v>1.17</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ9" t="n">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -7241,7 +7241,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -7892,7 +7892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.2</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.67</v>
@@ -11601,7 +11601,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.67</v>
@@ -13781,7 +13781,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -16176,7 +16176,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.43</v>
@@ -16255,6 +16255,224 @@
       </c>
       <c r="BP72" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6708682</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45231.45833333334</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>5</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['3', '16', '23', '31', '80']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S73" t="n">
+        <v>8</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.63</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.2</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ14" t="n">
         <v>2</v>
@@ -3753,7 +3753,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR15" t="n">
         <v>1.66</v>
@@ -3971,7 +3971,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR16" t="n">
         <v>2.42</v>
@@ -4189,7 +4189,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR17" t="n">
         <v>2.18</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.67</v>
@@ -4843,7 +4843,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.67</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.2</v>
@@ -5497,7 +5497,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR23" t="n">
         <v>2.11</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.43</v>
@@ -5933,7 +5933,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR25" t="n">
         <v>1.94</v>
@@ -6151,7 +6151,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR26" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.33</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.33</v>
@@ -7459,7 +7459,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.67</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.33</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -9203,7 +9203,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9418,10 +9418,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR41" t="n">
         <v>1.14</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR42" t="n">
         <v>1.27</v>
@@ -9854,10 +9854,10 @@
         <v>1.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.2</v>
@@ -10508,10 +10508,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -10729,7 +10729,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.43</v>
@@ -12037,7 +12037,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR53" t="n">
         <v>1.68</v>
@@ -12473,7 +12473,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR55" t="n">
         <v>1.26</v>
@@ -12688,7 +12688,7 @@
         <v>0.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.43</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.67</v>
@@ -13345,7 +13345,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.33</v>
@@ -14217,7 +14217,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR63" t="n">
         <v>2.28</v>
@@ -14435,7 +14435,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR64" t="n">
         <v>2.21</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -14868,10 +14868,10 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -16409,31 +16409,31 @@
         <v>2.82</v>
       </c>
       <c r="AU73" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AV73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AZ73" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC73" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BD73" t="n">
         <v>1.09</v>
@@ -16473,6 +16473,1096 @@
       </c>
       <c r="BP73" t="n">
         <v>1.63</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6708742</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45233.5625</v>
+      </c>
+      <c r="F74" t="n">
+        <v>13</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['5', '16', '85']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X74" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6708741</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>13</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6708743</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F76" t="n">
+        <v>13</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="n">
+        <v>5</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['30', '48', '55', '86']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6708744</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>13</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X77" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6708745</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45234.45833333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>13</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>7</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X78" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.33</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.57</v>
@@ -5279,7 +5279,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>1.28</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.14</v>
@@ -7895,7 +7895,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.72</v>
@@ -8328,7 +8328,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ36" t="n">
         <v>2</v>
@@ -10075,7 +10075,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>0.92</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.67</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -14214,7 +14214,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.57</v>
@@ -16630,19 +16630,19 @@
         <v>3</v>
       </c>
       <c r="AV74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY74" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ74" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA74" t="n">
         <v>2</v>
@@ -16845,31 +16845,31 @@
         <v>2.67</v>
       </c>
       <c r="AU75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV75" t="n">
         <v>4</v>
       </c>
       <c r="AW75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX75" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY75" t="n">
         <v>6</v>
       </c>
       <c r="AZ75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB75" t="n">
         <v>3</v>
       </c>
       <c r="BC75" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD75" t="n">
         <v>2.95</v>
@@ -17066,28 +17066,28 @@
         <v>3</v>
       </c>
       <c r="AV76" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AW76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ76" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA76" t="n">
         <v>5</v>
       </c>
       <c r="BB76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC76" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD76" t="n">
         <v>2.57</v>
@@ -17281,31 +17281,31 @@
         <v>2.31</v>
       </c>
       <c r="AU77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW77" t="n">
         <v>4</v>
       </c>
-      <c r="AV77" t="n">
+      <c r="AX77" t="n">
         <v>5</v>
       </c>
-      <c r="AW77" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>7</v>
-      </c>
       <c r="AY77" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA77" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB77" t="n">
         <v>6</v>
       </c>
       <c r="BC77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD77" t="n">
         <v>1.85</v>
@@ -17499,19 +17499,19 @@
         <v>2.75</v>
       </c>
       <c r="AU78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW78" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY78" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ78" t="n">
         <v>4</v>
@@ -17520,10 +17520,10 @@
         <v>3</v>
       </c>
       <c r="BB78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD78" t="n">
         <v>1.27</v>
@@ -17563,6 +17563,224 @@
       </c>
       <c r="BP78" t="n">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6708740</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45235.5625</v>
+      </c>
+      <c r="F79" t="n">
+        <v>13</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>2</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>2</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['12', '45+1']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="U79" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.33</v>
@@ -3317,7 +3317,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.33</v>
@@ -5061,7 +5061,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR21" t="n">
         <v>0.9</v>
@@ -7456,7 +7456,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.57</v>
@@ -7677,7 +7677,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR33" t="n">
         <v>1.7</v>
@@ -10293,7 +10293,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR45" t="n">
         <v>1.89</v>
@@ -11380,7 +11380,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
         <v>2</v>
@@ -12909,7 +12909,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR57" t="n">
         <v>1.11</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.67</v>
@@ -15743,7 +15743,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR70" t="n">
         <v>1.32</v>
@@ -15958,7 +15958,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
         <v>2.33</v>
@@ -17781,6 +17781,224 @@
       </c>
       <c r="BP79" t="n">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6708749</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45240.5625</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.29</v>
@@ -1791,7 +1791,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ9" t="n">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.43</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.57</v>
@@ -5279,7 +5279,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR22" t="n">
         <v>1.28</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.57</v>
@@ -6366,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ27" t="n">
         <v>2</v>
@@ -6587,7 +6587,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.14</v>
@@ -7241,7 +7241,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -7892,10 +7892,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR34" t="n">
         <v>1.72</v>
@@ -8113,7 +8113,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -8767,7 +8767,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ39" t="n">
         <v>2.29</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.57</v>
@@ -9418,7 +9418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.57</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.14</v>
@@ -10075,7 +10075,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR44" t="n">
         <v>0.92</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.57</v>
@@ -10511,7 +10511,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -11165,7 +11165,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11601,7 +11601,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -12034,7 +12034,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.29</v>
@@ -12252,10 +12252,10 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -13124,10 +13124,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.57</v>
@@ -13560,10 +13560,10 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -13999,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR62" t="n">
         <v>1.87</v>
@@ -14435,7 +14435,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR64" t="n">
         <v>2.21</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -15304,10 +15304,10 @@
         <v>0.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -15522,10 +15522,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR69" t="n">
         <v>1.47</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR71" t="n">
         <v>1.94</v>
@@ -16176,7 +16176,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.43</v>
@@ -16394,10 +16394,10 @@
         <v>0.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR73" t="n">
         <v>1.57</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.57</v>
@@ -17048,7 +17048,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76" t="n">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.29</v>
@@ -17269,7 +17269,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR79" t="n">
         <v>2.38</v>
@@ -17999,6 +17999,1096 @@
       </c>
       <c r="BP80" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6708751</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S81" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6708750</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>2</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>['21', '25', '74']</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X82" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6708748</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45241.45833333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['55', '58']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6708747</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45242.45833333334</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S84" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6708746</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45242.5625</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['48', '50']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U85" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X85" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.57</v>
@@ -1573,7 +1573,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.43</v>
@@ -2009,7 +2009,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.57</v>
@@ -2445,7 +2445,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.57</v>
@@ -3968,10 +3968,10 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR16" t="n">
         <v>2.42</v>
@@ -4189,7 +4189,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR17" t="n">
         <v>2.18</v>
@@ -4404,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -5930,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR25" t="n">
         <v>1.94</v>
@@ -6151,7 +6151,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR26" t="n">
         <v>2.17</v>
@@ -6366,10 +6366,10 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.43</v>
@@ -7023,7 +7023,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.29</v>
@@ -8328,10 +8328,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>2.43</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -9203,7 +9203,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9421,7 +9421,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR41" t="n">
         <v>1.14</v>
@@ -9639,7 +9639,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR42" t="n">
         <v>1.27</v>
@@ -9854,7 +9854,7 @@
         <v>1.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.57</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.29</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.57</v>
@@ -11383,7 +11383,7 @@
         <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR50" t="n">
         <v>1.93</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.29</v>
@@ -11819,7 +11819,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR52" t="n">
         <v>2.16</v>
@@ -12037,7 +12037,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR53" t="n">
         <v>1.68</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.43</v>
@@ -12470,10 +12470,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR55" t="n">
         <v>1.26</v>
@@ -12688,10 +12688,10 @@
         <v>0.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR56" t="n">
         <v>1.16</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.57</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.29</v>
@@ -13345,7 +13345,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -14214,7 +14214,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.57</v>
@@ -14653,7 +14653,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR65" t="n">
         <v>1.08</v>
@@ -14871,7 +14871,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15089,7 +15089,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR67" t="n">
         <v>2.14</v>
@@ -15304,7 +15304,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.29</v>
@@ -15740,7 +15740,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.57</v>
@@ -16179,7 +16179,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR72" t="n">
         <v>1.43</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR75" t="n">
         <v>1.13</v>
@@ -17051,7 +17051,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR76" t="n">
         <v>1.53</v>
@@ -17266,7 +17266,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ77" t="n">
         <v>0.43</v>
@@ -17487,7 +17487,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR78" t="n">
         <v>1.51</v>
@@ -17702,7 +17702,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.29</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.43</v>
@@ -19089,6 +19089,1096 @@
       </c>
       <c r="BP85" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6708753</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45254.5625</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6708752</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['40', '43']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6708754</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>3</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['39', '42', '70']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>7</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6708756</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['7', '35', '71']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X89" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6708757</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>6</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X90" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -19243,10 +19243,10 @@
         <v>2.87</v>
       </c>
       <c r="AU86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW86" t="n">
         <v>3</v>
@@ -19255,10 +19255,10 @@
         <v>5</v>
       </c>
       <c r="AY86" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA86" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP90"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3099,7 +3099,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.57</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.13</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -8110,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.57</v>
@@ -8767,7 +8767,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.38</v>
@@ -12255,7 +12255,7 @@
         <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -13563,7 +13563,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.43</v>
@@ -15086,7 +15086,7 @@
         <v>2.17</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.13</v>
@@ -15961,7 +15961,7 @@
         <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR71" t="n">
         <v>1.94</v>
@@ -19013,7 +19013,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AR85" t="n">
         <v>1.01</v>
@@ -19243,10 +19243,10 @@
         <v>2.87</v>
       </c>
       <c r="AU86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW86" t="n">
         <v>3</v>
@@ -19255,10 +19255,10 @@
         <v>5</v>
       </c>
       <c r="AY86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA86" t="n">
         <v>4</v>
@@ -19461,19 +19461,19 @@
         <v>2.82</v>
       </c>
       <c r="AU87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX87" t="n">
         <v>5</v>
       </c>
-      <c r="AV87" t="n">
-        <v>7</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>7</v>
-      </c>
       <c r="AY87" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ87" t="n">
         <v>14</v>
@@ -19482,10 +19482,10 @@
         <v>4</v>
       </c>
       <c r="BB87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD87" t="n">
         <v>3.48</v>
@@ -19679,19 +19679,19 @@
         <v>2.97</v>
       </c>
       <c r="AU88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV88" t="n">
         <v>3</v>
       </c>
-      <c r="AV88" t="n">
-        <v>4</v>
-      </c>
       <c r="AW88" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY88" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ88" t="n">
         <v>9</v>
@@ -19897,31 +19897,31 @@
         <v>2.43</v>
       </c>
       <c r="AU89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA89" t="n">
         <v>3</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>2</v>
-      </c>
-      <c r="BA89" t="n">
-        <v>2</v>
       </c>
       <c r="BB89" t="n">
         <v>4</v>
       </c>
       <c r="BC89" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD89" t="n">
         <v>1.88</v>
@@ -20115,13 +20115,13 @@
         <v>3.51</v>
       </c>
       <c r="AU90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV90" t="n">
         <v>3</v>
       </c>
       <c r="AW90" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX90" t="n">
         <v>1</v>
@@ -20179,6 +20179,224 @@
       </c>
       <c r="BP90" t="n">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6708755</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45256.5625</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>['52', '75']</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -20333,22 +20333,22 @@
         <v>3.72</v>
       </c>
       <c r="AU91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW91" t="n">
         <v>4</v>
       </c>
-      <c r="AW91" t="n">
-        <v>3</v>
-      </c>
       <c r="AX91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY91" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA91" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -20336,19 +20336,19 @@
         <v>7</v>
       </c>
       <c r="AV91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY91" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA91" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.38</v>
@@ -1791,7 +1791,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.38</v>
@@ -2227,7 +2227,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.13</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>2.5</v>
@@ -3317,7 +3317,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR15" t="n">
         <v>1.66</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR21" t="n">
         <v>0.9</v>
@@ -5276,10 +5276,10 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR22" t="n">
         <v>1.28</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR23" t="n">
         <v>2.11</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.13</v>
@@ -7241,7 +7241,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -7456,10 +7456,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7674,10 +7674,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR33" t="n">
         <v>1.7</v>
@@ -7892,10 +7892,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR34" t="n">
         <v>1.72</v>
@@ -8113,7 +8113,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -9418,7 +9418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.38</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.13</v>
@@ -9857,7 +9857,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10075,7 +10075,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR44" t="n">
         <v>0.92</v>
@@ -10290,10 +10290,10 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.89</v>
@@ -10508,10 +10508,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.38</v>
@@ -11165,7 +11165,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11380,7 +11380,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.13</v>
@@ -11601,7 +11601,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -12034,7 +12034,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ53" t="n">
         <v>2.38</v>
@@ -12909,7 +12909,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR57" t="n">
         <v>1.11</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.38</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.5</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.87</v>
@@ -14217,7 +14217,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR63" t="n">
         <v>2.28</v>
@@ -14435,7 +14435,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR64" t="n">
         <v>2.21</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
         <v>2.13</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ66" t="n">
         <v>2.38</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -15522,10 +15522,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.47</v>
@@ -15743,7 +15743,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR70" t="n">
         <v>1.32</v>
@@ -15958,7 +15958,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
         <v>2.5</v>
@@ -16176,7 +16176,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.38</v>
@@ -16394,10 +16394,10 @@
         <v>0.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR73" t="n">
         <v>1.57</v>
@@ -16612,10 +16612,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR74" t="n">
         <v>1.03</v>
@@ -17048,7 +17048,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.38</v>
@@ -17269,7 +17269,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,7 +17484,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.13</v>
@@ -17705,7 +17705,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
         <v>2.38</v>
@@ -17920,10 +17920,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="AR81" t="n">
         <v>1.68</v>
@@ -18356,10 +18356,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18574,10 +18574,10 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR83" t="n">
         <v>1.48</v>
@@ -18792,10 +18792,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19010,7 +19010,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.5</v>
@@ -20397,6 +20397,1314 @@
       </c>
       <c r="BP91" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6708763</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45261.5625</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['17', '90+1']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X92" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6708758</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45262.45833333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>['20', '31']</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U93" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6708760</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45262.45833333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['24', '43']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6708761</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45262.45833333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X95" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6708759</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45263.45833333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>2</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['58', '90+1']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S96" t="n">
+        <v>6</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U96" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6708762</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45263.5625</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2</v>
+      </c>
+      <c r="K97" t="n">
+        <v>3</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="n">
+        <v>4</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['31', '58']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['25', '38']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S97" t="n">
+        <v>7</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U97" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X97" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -21641,19 +21641,19 @@
         <v>2.81</v>
       </c>
       <c r="AU97" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW97" t="n">
         <v>7</v>
       </c>
       <c r="AX97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ97" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.5</v>
@@ -1573,7 +1573,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5</v>
@@ -2227,7 +2227,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.75</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ14" t="n">
         <v>2.13</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.38</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.13</v>
@@ -4407,7 +4407,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4625,7 +4625,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.5</v>
@@ -5712,10 +5712,10 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.13</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.38</v>
@@ -6587,7 +6587,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -8328,7 +8328,7 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.13</v>
@@ -8549,7 +8549,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.5</v>
@@ -10729,7 +10729,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -10947,7 +10947,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11816,10 +11816,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR52" t="n">
         <v>2.16</v>
@@ -12034,10 +12034,10 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR53" t="n">
         <v>1.68</v>
@@ -12255,7 +12255,7 @@
         <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12691,7 +12691,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR56" t="n">
         <v>1.16</v>
@@ -12906,7 +12906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.75</v>
@@ -13563,7 +13563,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13778,7 +13778,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.25</v>
@@ -13999,7 +13999,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62" t="n">
         <v>1.87</v>
@@ -14214,7 +14214,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.5</v>
@@ -14871,7 +14871,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,7 +15086,7 @@
         <v>2.17</v>
       </c>
       <c r="AP67" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ67" t="n">
         <v>2.13</v>
@@ -15522,10 +15522,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR69" t="n">
         <v>1.47</v>
@@ -15961,7 +15961,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR71" t="n">
         <v>1.94</v>
@@ -16179,7 +16179,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR72" t="n">
         <v>1.43</v>
@@ -16830,7 +16830,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.38</v>
@@ -17051,7 +17051,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR76" t="n">
         <v>1.53</v>
@@ -17702,7 +17702,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.5</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.5</v>
@@ -18795,7 +18795,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19013,7 +19013,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR85" t="n">
         <v>1.01</v>
@@ -19446,10 +19446,10 @@
         <v>2.29</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR87" t="n">
         <v>1.1</v>
@@ -20100,10 +20100,10 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR90" t="n">
         <v>2.29</v>
@@ -20318,10 +20318,10 @@
         <v>2.43</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AR91" t="n">
         <v>2.07</v>
@@ -20754,7 +20754,7 @@
         <v>1.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.75</v>
@@ -21411,7 +21411,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR96" t="n">
         <v>1.53</v>
@@ -21704,6 +21704,878 @@
         <v>2.9</v>
       </c>
       <c r="BP97" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6708768</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45268.5625</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6708766</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X99" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6708765</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>6</v>
+      </c>
+      <c r="N100" t="n">
+        <v>6</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['15', '18', '25', '31', '51', '84']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6708764</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45269.45833333334</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X101" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP101" t="n">
         <v>1.37</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2009,7 +2009,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.5600000000000001</v>
@@ -2445,7 +2445,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.44</v>
@@ -3535,7 +3535,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.5</v>
@@ -3971,7 +3971,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR16" t="n">
         <v>2.42</v>
@@ -6151,7 +6151,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR26" t="n">
         <v>2.17</v>
@@ -6366,10 +6366,10 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -8331,7 +8331,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.44</v>
@@ -8982,7 +8982,7 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ39" t="n">
         <v>2.44</v>
@@ -9203,7 +9203,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9421,7 +9421,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR41" t="n">
         <v>1.14</v>
@@ -10726,7 +10726,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47" t="n">
         <v>2.44</v>
@@ -11383,7 +11383,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR50" t="n">
         <v>1.93</v>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.25</v>
@@ -12252,7 +12252,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54" t="n">
         <v>2.22</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.13</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.5</v>
@@ -13345,7 +13345,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -14653,7 +14653,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR65" t="n">
         <v>1.08</v>
@@ -15089,7 +15089,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR67" t="n">
         <v>2.14</v>
@@ -15304,7 +15304,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ68" t="n">
         <v>0.25</v>
@@ -15740,7 +15740,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.75</v>
@@ -16833,7 +16833,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR75" t="n">
         <v>1.13</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5</v>
@@ -19228,10 +19228,10 @@
         <v>1.57</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR86" t="n">
         <v>1.32</v>
@@ -19664,7 +19664,7 @@
         <v>0.14</v>
       </c>
       <c r="AP88" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.13</v>
@@ -19885,7 +19885,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR89" t="n">
         <v>1.18</v>
@@ -21859,7 +21859,7 @@
         <v>3.89</v>
       </c>
       <c r="AU98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV98" t="n">
         <v>4</v>
@@ -21868,13 +21868,13 @@
         <v>3</v>
       </c>
       <c r="AX98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA98" t="n">
         <v>2</v>
@@ -22077,31 +22077,31 @@
         <v>2.53</v>
       </c>
       <c r="AU99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW99" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB99" t="n">
         <v>5</v>
       </c>
-      <c r="AY99" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ99" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>3</v>
-      </c>
       <c r="BC99" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BD99" t="n">
         <v>1.66</v>
@@ -22298,19 +22298,19 @@
         <v>2</v>
       </c>
       <c r="AV100" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ100" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA100" t="n">
         <v>5</v>
@@ -22513,22 +22513,22 @@
         <v>2.27</v>
       </c>
       <c r="AU101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY101" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ101" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA101" t="n">
         <v>2</v>
@@ -22577,6 +22577,442 @@
       </c>
       <c r="BP101" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6708767</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45270.45833333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['48', '73']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X102" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6708769</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45270.5625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X103" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -22731,31 +22731,31 @@
         <v>2.5</v>
       </c>
       <c r="AU102" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV102" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX102" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY102" t="n">
         <v>6</v>
       </c>
       <c r="AZ102" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA102" t="n">
         <v>1</v>
       </c>
       <c r="BB102" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC102" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD102" t="n">
         <v>1.7</v>
@@ -22949,22 +22949,22 @@
         <v>3.36</v>
       </c>
       <c r="AU103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX103" t="n">
         <v>9</v>
       </c>
-      <c r="AW103" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX103" t="n">
-        <v>10</v>
-      </c>
       <c r="AY103" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AZ103" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA103" t="n">
         <v>0</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.44</v>
@@ -1791,7 +1791,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
         <v>0.25</v>
@@ -3317,7 +3317,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR17" t="n">
         <v>2.18</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.44</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5600000000000001</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR21" t="n">
         <v>0.9</v>
@@ -5279,7 +5279,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR22" t="n">
         <v>1.28</v>
@@ -5933,7 +5933,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR25" t="n">
         <v>1.94</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ28" t="n">
         <v>2.22</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,10 +7020,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR30" t="n">
         <v>1</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.25</v>
@@ -7456,7 +7456,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.5</v>
@@ -7677,7 +7677,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR33" t="n">
         <v>1.7</v>
@@ -7895,7 +7895,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR34" t="n">
         <v>1.72</v>
@@ -9418,7 +9418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.33</v>
@@ -9636,10 +9636,10 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR42" t="n">
         <v>1.27</v>
@@ -9854,7 +9854,7 @@
         <v>1.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.5</v>
@@ -10075,7 +10075,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR44" t="n">
         <v>0.92</v>
@@ -10293,7 +10293,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR45" t="n">
         <v>1.89</v>
@@ -10511,7 +10511,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -11380,7 +11380,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.89</v>
@@ -12473,7 +12473,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR55" t="n">
         <v>1.26</v>
@@ -12688,7 +12688,7 @@
         <v>0.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.44</v>
@@ -12909,7 +12909,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR57" t="n">
         <v>1.11</v>
@@ -13127,7 +13127,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60" t="n">
         <v>2.22</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.5600000000000001</v>
@@ -14435,7 +14435,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR64" t="n">
         <v>2.21</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.89</v>
@@ -15743,7 +15743,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR70" t="n">
         <v>1.32</v>
@@ -15958,7 +15958,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ71" t="n">
         <v>2.22</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.5</v>
@@ -17048,7 +17048,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.44</v>
@@ -17266,10 +17266,10 @@
         <v>0.4</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17487,7 +17487,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR78" t="n">
         <v>1.51</v>
@@ -17705,7 +17705,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR79" t="n">
         <v>2.38</v>
@@ -17920,10 +17920,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -18141,7 +18141,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81" t="n">
         <v>1.68</v>
@@ -18356,7 +18356,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.25</v>
@@ -18577,7 +18577,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR83" t="n">
         <v>1.48</v>
@@ -19010,7 +19010,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.22</v>
@@ -19667,7 +19667,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR88" t="n">
         <v>1.82</v>
@@ -19882,7 +19882,7 @@
         <v>2</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.89</v>
@@ -20536,7 +20536,7 @@
         <v>0.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.25</v>
@@ -20757,7 +20757,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR93" t="n">
         <v>1.48</v>
@@ -20972,10 +20972,10 @@
         <v>1.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR94" t="n">
         <v>1.85</v>
@@ -21190,7 +21190,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.5</v>
@@ -21629,7 +21629,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97" t="n">
         <v>1.56</v>
@@ -23013,6 +23013,878 @@
       </c>
       <c r="BP103" t="n">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6708773</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45275.5625</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['17', '36', '74']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X104" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6708774</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>5</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['5', '33', '56', '68']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S105" t="n">
+        <v>6</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BP105" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6708775</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['67', '77', '83']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6708771</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45276.45833333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['62', '63']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['13', '55']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP107"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.33</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.89</v>
@@ -2663,7 +2663,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR15" t="n">
         <v>1.66</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.33</v>
@@ -5497,7 +5497,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR23" t="n">
         <v>2.11</v>
@@ -7241,7 +7241,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -7459,7 +7459,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.56</v>
@@ -7892,7 +7892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.33</v>
@@ -9857,7 +9857,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.56</v>
@@ -10508,7 +10508,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.5600000000000001</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.44</v>
@@ -11601,7 +11601,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -13342,7 +13342,7 @@
         <v>2</v>
       </c>
       <c r="AP59" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ59" t="n">
         <v>1.33</v>
@@ -13781,7 +13781,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -14217,7 +14217,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR63" t="n">
         <v>2.28</v>
@@ -14868,7 +14868,7 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ66" t="n">
         <v>2.44</v>
@@ -15307,7 +15307,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -16176,7 +16176,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.44</v>
@@ -16394,10 +16394,10 @@
         <v>0.4</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR73" t="n">
         <v>1.57</v>
@@ -16615,7 +16615,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR74" t="n">
         <v>1.03</v>
@@ -17484,7 +17484,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.11</v>
@@ -18359,7 +18359,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18792,7 +18792,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ84" t="n">
         <v>0.5600000000000001</v>
@@ -20539,7 +20539,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR92" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -21408,7 +21408,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ96" t="n">
         <v>0.5600000000000001</v>
@@ -21626,7 +21626,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ97" t="n">
         <v>0.5600000000000001</v>
@@ -23885,6 +23885,442 @@
       </c>
       <c r="BP107" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6708770</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45277.45833333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X108" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6708772</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45277.5625</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>2</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>3</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['24', '61']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X109" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -24257,22 +24257,22 @@
         <v>2.92</v>
       </c>
       <c r="AU109" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX109" t="n">
         <v>3</v>
       </c>
       <c r="AY109" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ109" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA109" t="n">
         <v>8</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -23238,7 +23238,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>6708774</v>
+        <v>6708771</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -23258,197 +23258,197 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Trenčín</t>
+          <t>FK Košice</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Zlaté Moravce</t>
+          <t>Ružomberok</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
         <v>4</v>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="n">
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['62', '63']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['13', '55']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU105" t="n">
         <v>5</v>
       </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>['5', '33', '56', '68']</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>['76']</t>
-        </is>
-      </c>
-      <c r="Q105" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R105" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S105" t="n">
-        <v>6</v>
-      </c>
-      <c r="T105" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="U105" t="n">
+      <c r="AV105" t="n">
         <v>3</v>
-      </c>
-      <c r="V105" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W105" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="X105" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z105" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AA105" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AB105" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="AC105" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD105" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE105" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AF105" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AG105" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AH105" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AI105" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AL105" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AM105" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AN105" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AO105" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AP105" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AR105" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AS105" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AT105" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU105" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV105" t="n">
-        <v>6</v>
       </c>
       <c r="AW105" t="n">
         <v>4</v>
       </c>
       <c r="AX105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY105" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ105" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC105" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BD105" t="n">
-        <v>1.23</v>
+        <v>1.93</v>
       </c>
       <c r="BE105" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="BF105" t="n">
-        <v>5.13</v>
+        <v>2.12</v>
       </c>
       <c r="BG105" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="BH105" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="BI105" t="n">
-        <v>1.29</v>
+        <v>1.55</v>
       </c>
       <c r="BJ105" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BK105" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="BL105" t="n">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="BM105" t="n">
-        <v>1.96</v>
+        <v>2.41</v>
       </c>
       <c r="BN105" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="BO105" t="n">
-        <v>2.49</v>
+        <v>3.2</v>
       </c>
       <c r="BP105" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="106">
@@ -23456,7 +23456,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>6708775</v>
+        <v>6708774</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -23476,197 +23476,197 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Dukla Banská Bystrica</t>
+          <t>Trenčín</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Žilina</t>
+          <t>Zlaté Moravce</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>['67', '77', '83']</t>
+          <t>['5', '33', '56', '68']</t>
         </is>
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>['59']</t>
+          <t>['76']</t>
         </is>
       </c>
       <c r="Q106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S106" t="n">
+        <v>6</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM106" t="n">
         <v>2.75</v>
       </c>
-      <c r="R106" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S106" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T106" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U106" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V106" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="W106" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X106" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y106" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="Z106" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AA106" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AB106" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AC106" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD106" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE106" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AF106" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AG106" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AH106" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AI106" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AJ106" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK106" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AL106" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AM106" t="n">
-        <v>1.53</v>
-      </c>
       <c r="AN106" t="n">
-        <v>1.13</v>
+        <v>1.75</v>
       </c>
       <c r="AO106" t="n">
-        <v>1.75</v>
+        <v>0.13</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.33</v>
+        <v>1.89</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.56</v>
+        <v>0.11</v>
       </c>
       <c r="AR106" t="n">
-        <v>1.45</v>
+        <v>1.78</v>
       </c>
       <c r="AS106" t="n">
         <v>1.14</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.59</v>
+        <v>2.92</v>
       </c>
       <c r="AU106" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW106" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY106" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AZ106" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA106" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC106" t="n">
         <v>9</v>
       </c>
       <c r="BD106" t="n">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="BE106" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="BF106" t="n">
-        <v>2.41</v>
+        <v>5.13</v>
       </c>
       <c r="BG106" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="BH106" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="BI106" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="BJ106" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="BK106" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="BL106" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="BM106" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="BN106" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="BO106" t="n">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="BP106" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107">
@@ -23674,7 +23674,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>6708771</v>
+        <v>6708775</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -23694,197 +23694,197 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>FK Košice</t>
+          <t>Dukla Banská Bystrica</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ružomberok</t>
+          <t>Žilina</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
       <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3</v>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1</v>
-      </c>
-      <c r="L107" t="n">
-        <v>2</v>
-      </c>
-      <c r="M107" t="n">
-        <v>2</v>
       </c>
       <c r="N107" t="n">
         <v>4</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>['62', '63']</t>
+          <t>['67', '77', '83']</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>['13', '55']</t>
+          <t>['59']</t>
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="R107" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S107" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="T107" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U107" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V107" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="W107" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X107" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y107" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z107" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AA107" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="AB107" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="AC107" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD107" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP107" t="n">
         <v>1.33</v>
       </c>
-      <c r="AF107" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AO107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AP107" t="n">
-        <v>0.89</v>
-      </c>
       <c r="AQ107" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="AR107" t="n">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.24</v>
+        <v>2.59</v>
       </c>
       <c r="AU107" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AV107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ107" t="n">
         <v>3</v>
       </c>
-      <c r="AW107" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX107" t="n">
+      <c r="BA107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB107" t="n">
         <v>3</v>
       </c>
-      <c r="AY107" t="n">
+      <c r="BC107" t="n">
         <v>9</v>
       </c>
-      <c r="AZ107" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA107" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB107" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC107" t="n">
-        <v>3</v>
-      </c>
       <c r="BD107" t="n">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="BE107" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF107" t="n">
-        <v>2.12</v>
+        <v>2.41</v>
       </c>
       <c r="BG107" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="BH107" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="BI107" t="n">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="BJ107" t="n">
-        <v>2.4</v>
+        <v>3.35</v>
       </c>
       <c r="BK107" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="BL107" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="BM107" t="n">
-        <v>2.41</v>
+        <v>1.98</v>
       </c>
       <c r="BN107" t="n">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="BO107" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="BP107" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="108">

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.5600000000000001</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.56</v>
@@ -3535,7 +3535,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.33</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.33</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.11</v>
@@ -4407,7 +4407,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4625,7 +4625,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ20" t="n">
         <v>0.5600000000000001</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.33</v>
@@ -5715,7 +5715,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR24" t="n">
         <v>0.79</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.11</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.33</v>
@@ -6366,10 +6366,10 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -6587,7 +6587,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ28" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.17</v>
@@ -7241,7 +7241,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -7456,7 +7456,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.33</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -8328,10 +8328,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR37" t="n">
         <v>1.39</v>
@@ -8767,7 +8767,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR38" t="n">
         <v>0.82</v>
@@ -8982,10 +8982,10 @@
         <v>2</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.33</v>
@@ -10726,10 +10726,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -10947,7 +10947,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR48" t="n">
         <v>1.66</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11380,10 +11380,10 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR50" t="n">
         <v>1.93</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -11816,10 +11816,10 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR52" t="n">
         <v>2.16</v>
@@ -12034,10 +12034,10 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR53" t="n">
         <v>1.68</v>
@@ -12252,10 +12252,10 @@
         <v>1.67</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.7</v>
@@ -12470,7 +12470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ55" t="n">
         <v>0.11</v>
@@ -12691,7 +12691,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR56" t="n">
         <v>1.16</v>
@@ -13124,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.33</v>
@@ -13563,7 +13563,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.48</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR62" t="n">
         <v>1.87</v>
@@ -14214,7 +14214,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -14432,7 +14432,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>0.5600000000000001</v>
@@ -14653,7 +14653,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.08</v>
@@ -14871,7 +14871,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,10 +15086,10 @@
         <v>2.17</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR67" t="n">
         <v>2.14</v>
@@ -15304,10 +15304,10 @@
         <v>0.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -15522,10 +15522,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR69" t="n">
         <v>1.47</v>
@@ -15740,7 +15740,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.56</v>
@@ -15958,10 +15958,10 @@
         <v>2.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.94</v>
@@ -16179,7 +16179,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR72" t="n">
         <v>1.43</v>
@@ -16397,7 +16397,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR73" t="n">
         <v>1.57</v>
@@ -17051,7 +17051,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR76" t="n">
         <v>1.53</v>
@@ -17702,7 +17702,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.33</v>
@@ -17920,7 +17920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.56</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5600000000000001</v>
@@ -18359,7 +18359,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.33</v>
@@ -18795,7 +18795,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19013,7 +19013,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR85" t="n">
         <v>1.01</v>
@@ -19228,7 +19228,7 @@
         <v>1.57</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.33</v>
@@ -19449,7 +19449,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.1</v>
@@ -19664,7 +19664,7 @@
         <v>0.14</v>
       </c>
       <c r="AP88" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ88" t="n">
         <v>0.11</v>
@@ -19885,7 +19885,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR89" t="n">
         <v>1.18</v>
@@ -20100,10 +20100,10 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR90" t="n">
         <v>2.29</v>
@@ -20318,10 +20318,10 @@
         <v>2.43</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ91" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR91" t="n">
         <v>2.07</v>
@@ -20539,7 +20539,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR92" t="n">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>1.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.56</v>
@@ -20972,7 +20972,7 @@
         <v>1.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.33</v>
@@ -21411,7 +21411,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR96" t="n">
         <v>1.53</v>
@@ -21844,10 +21844,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ98" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR98" t="n">
         <v>2.32</v>
@@ -22062,10 +22062,10 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AR99" t="n">
         <v>1.39</v>
@@ -22280,10 +22280,10 @@
         <v>2.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR100" t="n">
         <v>2.01</v>
@@ -22501,7 +22501,7 @@
         <v>0.44</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR101" t="n">
         <v>1.14</v>
@@ -22716,10 +22716,10 @@
         <v>2.13</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.29</v>
@@ -22934,7 +22934,7 @@
         <v>1.38</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.33</v>
@@ -23588,7 +23588,7 @@
         <v>0.13</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.11</v>
@@ -24027,7 +24027,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR108" t="n">
         <v>1.62</v>
@@ -24321,6 +24321,1314 @@
       </c>
       <c r="BP109" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6708776</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45331.5625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['9', '36', '82', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6708777</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>2</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['61', '72']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X111" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6708778</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X112" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6708780</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['2', '69']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6708781</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X114" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6708779</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45333.5625</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2</v>
+      </c>
+      <c r="L115" t="n">
+        <v>4</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['6', '43', '58', '71']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>6</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X115" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25565,31 +25565,31 @@
         <v>3.01</v>
       </c>
       <c r="AU115" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AV115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW115" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AX115" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AY115" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB115" t="n">
         <v>4</v>
       </c>
-      <c r="BA115" t="n">
-        <v>2</v>
-      </c>
-      <c r="BB115" t="n">
-        <v>2</v>
-      </c>
       <c r="BC115" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD115" t="n">
         <v>1.21</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.11</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.33</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.5</v>
@@ -1791,7 +1791,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>2</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>1</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ14" t="n">
         <v>2</v>
@@ -3971,7 +3971,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR16" t="n">
         <v>2.42</v>
@@ -4404,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ18" t="n">
         <v>2.5</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.5</v>
@@ -4843,7 +4843,7 @@
         <v>2</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR21" t="n">
         <v>0.9</v>
@@ -5279,7 +5279,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR22" t="n">
         <v>1.28</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.4</v>
@@ -6151,7 +6151,7 @@
         <v>2</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR26" t="n">
         <v>2.17</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ28" t="n">
         <v>2</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.11</v>
@@ -7238,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.2</v>
@@ -7677,7 +7677,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR33" t="n">
         <v>1.7</v>
@@ -7895,7 +7895,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR34" t="n">
         <v>1.72</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ38" t="n">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR40" t="n">
         <v>1.92</v>
@@ -9418,10 +9418,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR41" t="n">
         <v>1.14</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ42" t="n">
         <v>0.11</v>
@@ -9854,7 +9854,7 @@
         <v>1.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.33</v>
@@ -10072,10 +10072,10 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR44" t="n">
         <v>0.92</v>
@@ -10293,7 +10293,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.89</v>
@@ -10511,7 +10511,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -12688,7 +12688,7 @@
         <v>0.6</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ56" t="n">
         <v>0.4</v>
@@ -12906,10 +12906,10 @@
         <v>1.5</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR57" t="n">
         <v>1.11</v>
@@ -13127,7 +13127,7 @@
         <v>2</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR58" t="n">
         <v>1.6</v>
@@ -13345,7 +13345,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -13560,7 +13560,7 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ60" t="n">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR64" t="n">
         <v>2.21</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ65" t="n">
         <v>2</v>
@@ -15743,7 +15743,7 @@
         <v>2</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR70" t="n">
         <v>1.32</v>
@@ -16612,7 +16612,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.33</v>
@@ -16830,10 +16830,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR75" t="n">
         <v>1.13</v>
@@ -17048,7 +17048,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ76" t="n">
         <v>2.5</v>
@@ -17266,10 +17266,10 @@
         <v>0.4</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17705,7 +17705,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR79" t="n">
         <v>2.38</v>
@@ -17923,7 +17923,7 @@
         <v>2</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR80" t="n">
         <v>1.95</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR81" t="n">
         <v>1.68</v>
@@ -18356,7 +18356,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.2</v>
@@ -18577,7 +18577,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR83" t="n">
         <v>1.48</v>
@@ -19010,7 +19010,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ85" t="n">
         <v>2</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR86" t="n">
         <v>1.32</v>
@@ -19446,7 +19446,7 @@
         <v>2.29</v>
       </c>
       <c r="AP87" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ87" t="n">
         <v>2.5</v>
@@ -19882,7 +19882,7 @@
         <v>2</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ89" t="n">
         <v>2</v>
@@ -20536,7 +20536,7 @@
         <v>0.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ92" t="n">
         <v>0.2</v>
@@ -20757,7 +20757,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.48</v>
@@ -20975,7 +20975,7 @@
         <v>2</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR94" t="n">
         <v>1.85</v>
@@ -21190,7 +21190,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95" t="n">
         <v>1.33</v>
@@ -21629,7 +21629,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR97" t="n">
         <v>1.56</v>
@@ -22498,7 +22498,7 @@
         <v>0.5</v>
       </c>
       <c r="AP101" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.5</v>
@@ -22937,7 +22937,7 @@
         <v>2</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR103" t="n">
         <v>1.81</v>
@@ -23152,10 +23152,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR104" t="n">
         <v>1.28</v>
@@ -23370,10 +23370,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR105" t="n">
         <v>1.07</v>
@@ -23806,10 +23806,10 @@
         <v>1.75</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AR107" t="n">
         <v>1.45</v>
@@ -25629,6 +25629,878 @@
       </c>
       <c r="BP115" t="n">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6708784</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45338.5625</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6708787</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6708785</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['1']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X118" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6708786</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X119" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.3</v>
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.5</v>
@@ -3535,7 +3535,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR14" t="n">
         <v>0.55</v>
@@ -3753,7 +3753,7 @@
         <v>2</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR15" t="n">
         <v>1.66</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.3</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.1</v>
@@ -4407,7 +4407,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR18" t="n">
         <v>1.38</v>
@@ -4625,7 +4625,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR19" t="n">
         <v>1.27</v>
@@ -4840,10 +4840,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>1.62</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.5</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.3</v>
@@ -5494,10 +5494,10 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR23" t="n">
         <v>2.11</v>
@@ -5930,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.1</v>
@@ -6148,7 +6148,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.3</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR27" t="n">
         <v>2.22</v>
@@ -6805,7 +6805,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.35</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.1</v>
@@ -7241,7 +7241,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR31" t="n">
         <v>1.13</v>
@@ -7456,10 +7456,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR32" t="n">
         <v>1.62</v>
@@ -7674,7 +7674,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.5</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="AP35" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR35" t="n">
         <v>2.02</v>
@@ -8328,10 +8328,10 @@
         <v>2.33</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR36" t="n">
         <v>1.94</v>
@@ -8985,7 +8985,7 @@
         <v>2</v>
       </c>
       <c r="AQ39" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR39" t="n">
         <v>1.78</v>
@@ -9200,7 +9200,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.3</v>
@@ -9418,7 +9418,7 @@
         <v>1.75</v>
       </c>
       <c r="AP41" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.3</v>
@@ -9857,7 +9857,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR43" t="n">
         <v>1.23</v>
@@ -10508,10 +10508,10 @@
         <v>0.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.65</v>
@@ -10729,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="AQ47" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR47" t="n">
         <v>1.21</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.4</v>
@@ -11162,10 +11162,10 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR49" t="n">
         <v>2.11</v>
@@ -11380,10 +11380,10 @@
         <v>2.5</v>
       </c>
       <c r="AP50" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR50" t="n">
         <v>1.93</v>
@@ -11601,7 +11601,7 @@
         <v>2</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR51" t="n">
         <v>1.18</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.4</v>
@@ -12034,10 +12034,10 @@
         <v>1.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ53" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR53" t="n">
         <v>1.68</v>
@@ -13778,10 +13778,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR61" t="n">
         <v>1.51</v>
@@ -13996,10 +13996,10 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR62" t="n">
         <v>1.87</v>
@@ -14214,10 +14214,10 @@
         <v>1.6</v>
       </c>
       <c r="AP63" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR63" t="n">
         <v>2.28</v>
@@ -14432,10 +14432,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>2.21</v>
@@ -14650,10 +14650,10 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ65" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR65" t="n">
         <v>1.08</v>
@@ -14868,10 +14868,10 @@
         <v>2</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ66" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR66" t="n">
         <v>1.65</v>
@@ -15086,10 +15086,10 @@
         <v>2.17</v>
       </c>
       <c r="AP67" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ67" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR67" t="n">
         <v>2.14</v>
@@ -15307,7 +15307,7 @@
         <v>2</v>
       </c>
       <c r="AQ68" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR68" t="n">
         <v>1.58</v>
@@ -15522,10 +15522,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR69" t="n">
         <v>1.47</v>
@@ -15958,7 +15958,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ71" t="n">
         <v>2</v>
@@ -16397,7 +16397,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR73" t="n">
         <v>1.57</v>
@@ -16612,10 +16612,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR74" t="n">
         <v>1.03</v>
@@ -17051,7 +17051,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR76" t="n">
         <v>1.53</v>
@@ -17269,7 +17269,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR77" t="n">
         <v>1.14</v>
@@ -17484,7 +17484,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.1</v>
@@ -17702,7 +17702,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.3</v>
@@ -17920,7 +17920,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -18141,7 +18141,7 @@
         <v>2</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR81" t="n">
         <v>1.68</v>
@@ -18359,7 +18359,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18574,7 +18574,7 @@
         <v>1</v>
       </c>
       <c r="AP83" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.3</v>
@@ -18795,7 +18795,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ84" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR84" t="n">
         <v>1.57</v>
@@ -19010,7 +19010,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ85" t="n">
         <v>2</v>
@@ -19449,7 +19449,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ87" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR87" t="n">
         <v>1.1</v>
@@ -19885,7 +19885,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR89" t="n">
         <v>1.18</v>
@@ -20100,7 +20100,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.4</v>
@@ -20318,7 +20318,7 @@
         <v>2.43</v>
       </c>
       <c r="AP91" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ91" t="n">
         <v>2</v>
@@ -20536,10 +20536,10 @@
         <v>0.29</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR92" t="n">
         <v>1</v>
@@ -20754,7 +20754,7 @@
         <v>1.57</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.5</v>
@@ -20972,7 +20972,7 @@
         <v>1.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.3</v>
@@ -21193,7 +21193,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR95" t="n">
         <v>1.43</v>
@@ -21408,10 +21408,10 @@
         <v>0.57</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ96" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR96" t="n">
         <v>1.53</v>
@@ -21629,7 +21629,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR97" t="n">
         <v>1.56</v>
@@ -21844,7 +21844,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ98" t="n">
         <v>2</v>
@@ -22062,7 +22062,7 @@
         <v>0.38</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.4</v>
@@ -22280,10 +22280,10 @@
         <v>2.38</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR100" t="n">
         <v>2.01</v>
@@ -22501,7 +22501,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR101" t="n">
         <v>1.14</v>
@@ -22719,7 +22719,7 @@
         <v>2</v>
       </c>
       <c r="AQ102" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR102" t="n">
         <v>1.29</v>
@@ -23370,10 +23370,10 @@
         <v>0.5</v>
       </c>
       <c r="AP105" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR105" t="n">
         <v>1.07</v>
@@ -23588,7 +23588,7 @@
         <v>0.13</v>
       </c>
       <c r="AP106" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.1</v>
@@ -24024,10 +24024,10 @@
         <v>0.25</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR108" t="n">
         <v>1.62</v>
@@ -24245,7 +24245,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR109" t="n">
         <v>1.71</v>
@@ -24460,10 +24460,10 @@
         <v>2.44</v>
       </c>
       <c r="AP110" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AQ110" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR110" t="n">
         <v>2.27</v>
@@ -24678,10 +24678,10 @@
         <v>1.89</v>
       </c>
       <c r="AP111" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AQ111" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AR111" t="n">
         <v>1.39</v>
@@ -24899,7 +24899,7 @@
         <v>2</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AR112" t="n">
         <v>1.69</v>
@@ -25114,10 +25114,10 @@
         <v>0.22</v>
       </c>
       <c r="AP113" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR113" t="n">
         <v>1.89</v>
@@ -25550,7 +25550,7 @@
         <v>0.44</v>
       </c>
       <c r="AP115" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.4</v>
@@ -25986,7 +25986,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.3</v>
@@ -26425,7 +26425,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ119" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AR119" t="n">
         <v>1.19</v>
@@ -26858,10 +26858,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR121" t="n">
         <v>1.68</v>
@@ -26937,6 +26937,1314 @@
       </c>
       <c r="BP121" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6708789</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45345.5625</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>FK Košice</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Skalica</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>2</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>3</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="n">
+        <v>3</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['12', '23']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S122" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X122" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6708788</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Žilina</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Zemplín Michalovce</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X123" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6708792</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Spartak Trnava</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Dukla Banská Bystrica</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['22', '33']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S124" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X124" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6708793</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Zlaté Moravce</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Ružomberok</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>4</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="n">
+        <v>6</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['41', '44']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['10', '20', '54', '85']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V125" t="n">
+        <v>3</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X125" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6708791</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Trenčín</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['51', '66']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>4</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X126" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6708790</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Slovakia Super Liga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45347.5625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>21</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Podbrezová</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.92</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['16', '90']</t>
   </si>
   <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['3', '31', '43']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -715,9 +721,6 @@
     <t>['13', '55']</t>
   </si>
   <si>
-    <t>['76']</t>
-  </si>
-  <si>
     <t>['44']</t>
   </si>
   <si>
@@ -749,6 +752,15 @@
   </si>
   <si>
     <t>['90']</t>
+  </si>
+  <si>
+    <t>['63', '82']</t>
+  </si>
+  <si>
+    <t>['39', '54']</t>
+  </si>
+  <si>
+    <t>['52', '76']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1381,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1450,7 +1462,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ2">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1653,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
         <v>0.09</v>
@@ -2065,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ5">
         <v>2.58</v>
@@ -2271,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2399,7 +2411,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2480,7 +2492,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2605,7 +2617,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2892,7 +2904,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ9">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3017,7 +3029,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3304,7 +3316,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ11">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3507,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ12">
         <v>1.82</v>
@@ -3841,7 +3853,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -3922,7 +3934,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ14">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR14">
         <v>0.55</v>
@@ -4253,7 +4265,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4331,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16">
         <v>2.58</v>
@@ -4459,7 +4471,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4537,10 +4549,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>2.42</v>
@@ -4665,7 +4677,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4871,7 +4883,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5283,7 +5295,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5361,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ21">
         <v>1.45</v>
@@ -5570,7 +5582,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ22">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5695,7 +5707,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5773,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ23">
         <v>1.45</v>
@@ -5901,7 +5913,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6107,7 +6119,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6188,7 +6200,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ25">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR25">
         <v>2.22</v>
@@ -6313,7 +6325,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6394,7 +6406,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ26">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR26">
         <v>2.17</v>
@@ -6519,7 +6531,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6597,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>0.09</v>
@@ -6803,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.82</v>
@@ -7215,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ30">
         <v>0.09</v>
@@ -7343,7 +7355,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7421,10 +7433,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.13</v>
@@ -7755,7 +7767,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7961,7 +7973,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8042,7 +8054,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ34">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8373,7 +8385,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8579,7 +8591,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8657,10 +8669,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR37">
         <v>1.94</v>
@@ -9197,7 +9209,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9275,10 +9287,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR40">
         <v>1.92</v>
@@ -9403,7 +9415,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9481,10 +9493,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ41">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9609,7 +9621,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9815,7 +9827,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9896,7 +9908,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ43">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR43">
         <v>0.92</v>
@@ -10021,7 +10033,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10099,7 +10111,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ44">
         <v>1.45</v>
@@ -10433,7 +10445,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10639,7 +10651,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11051,7 +11063,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11129,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ49">
         <v>0.45</v>
@@ -11338,7 +11350,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ50">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11544,7 +11556,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ51">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11669,7 +11681,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11875,7 +11887,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11953,7 +11965,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ53">
         <v>2.58</v>
@@ -12777,7 +12789,7 @@
         <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>0.45</v>
@@ -12905,7 +12917,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -12986,7 +12998,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ58">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13192,7 +13204,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.56</v>
@@ -13317,7 +13329,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13523,7 +13535,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13601,10 +13613,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ61">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13729,7 +13741,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13807,10 +13819,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ62">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR62">
         <v>1.08</v>
@@ -13935,7 +13947,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14013,7 +14025,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ63">
         <v>1.45</v>
@@ -14553,7 +14565,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14759,7 +14771,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14840,7 +14852,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ67">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR67">
         <v>2.14</v>
@@ -14965,7 +14977,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15046,7 +15058,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ68">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15171,7 +15183,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15249,7 +15261,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ69">
         <v>0.45</v>
@@ -15377,7 +15389,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15583,7 +15595,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15995,7 +16007,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16076,7 +16088,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ73">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.57</v>
@@ -16201,7 +16213,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16279,7 +16291,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ74">
         <v>1.45</v>
@@ -16488,7 +16500,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ75">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR75">
         <v>1.13</v>
@@ -16613,7 +16625,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16897,7 +16909,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17231,7 +17243,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17309,10 +17321,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR79">
         <v>2.38</v>
@@ -17643,7 +17655,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17721,10 +17733,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ81">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR81">
         <v>1.48</v>
@@ -17849,7 +17861,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -17930,7 +17942,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ82">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18467,7 +18479,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18545,7 +18557,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ85">
         <v>1.82</v>
@@ -18754,7 +18766,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ86">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -19085,7 +19097,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19163,10 +19175,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19291,7 +19303,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19575,7 +19587,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ90">
         <v>0.45</v>
@@ -19703,7 +19715,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19909,7 +19921,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -19987,10 +19999,10 @@
         <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR92">
         <v>1</v>
@@ -20115,7 +20127,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20196,7 +20208,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ93">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR93">
         <v>1.85</v>
@@ -20527,7 +20539,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20605,7 +20617,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ95">
         <v>1.45</v>
@@ -20939,7 +20951,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21223,7 +21235,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ98">
         <v>1.82</v>
@@ -21351,7 +21363,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21557,7 +21569,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21841,7 +21853,7 @@
         <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ101">
         <v>0.45</v>
@@ -21969,7 +21981,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22050,7 +22062,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ102">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR102">
         <v>1.29</v>
@@ -22256,7 +22268,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ103">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22459,10 +22471,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22587,7 +22599,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22665,7 +22677,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22999,7 +23011,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="Q107">
         <v>1.9</v>
@@ -23286,7 +23298,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ108">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23411,7 +23423,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23617,7 +23629,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23695,7 +23707,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ110">
         <v>2.58</v>
@@ -23823,7 +23835,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23901,10 +23913,10 @@
         <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ111">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24235,7 +24247,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24316,7 +24328,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ113">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24647,7 +24659,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24853,7 +24865,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24934,7 +24946,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ116">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25137,10 +25149,10 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ117">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR117">
         <v>1.1</v>
@@ -25343,7 +25355,7 @@
         <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ118">
         <v>1.45</v>
@@ -25471,7 +25483,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25677,7 +25689,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25883,7 +25895,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26167,7 +26179,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AQ122">
         <v>0.45</v>
@@ -26295,7 +26307,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26373,10 +26385,10 @@
         <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
         <v>2.14</v>
@@ -26582,7 +26594,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR124">
         <v>1.72</v>
@@ -26707,7 +26719,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26785,7 +26797,7 @@
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -26913,7 +26925,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27325,7 +27337,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27531,7 +27543,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27815,10 +27827,10 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28149,7 +28161,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28230,7 +28242,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ132">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28561,7 +28573,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28657,19 +28669,19 @@
         <v>4</v>
       </c>
       <c r="AV134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX134">
         <v>4</v>
       </c>
       <c r="AY134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA134">
         <v>3</v>
@@ -28718,6 +28730,830 @@
       </c>
       <c r="BP134">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7372711</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>80</v>
+      </c>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>84</v>
+      </c>
+      <c r="P135" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q135">
+        <v>3.1</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>3.2</v>
+      </c>
+      <c r="T135">
+        <v>1.38</v>
+      </c>
+      <c r="U135">
+        <v>2.8</v>
+      </c>
+      <c r="V135">
+        <v>2.7</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>6.7</v>
+      </c>
+      <c r="Y135">
+        <v>1.09</v>
+      </c>
+      <c r="Z135">
+        <v>2.48</v>
+      </c>
+      <c r="AA135">
+        <v>3.04</v>
+      </c>
+      <c r="AB135">
+        <v>2.44</v>
+      </c>
+      <c r="AC135">
+        <v>1.02</v>
+      </c>
+      <c r="AD135">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE135">
+        <v>1.27</v>
+      </c>
+      <c r="AF135">
+        <v>3.63</v>
+      </c>
+      <c r="AG135">
+        <v>1.95</v>
+      </c>
+      <c r="AH135">
+        <v>1.85</v>
+      </c>
+      <c r="AI135">
+        <v>1.65</v>
+      </c>
+      <c r="AJ135">
+        <v>2.05</v>
+      </c>
+      <c r="AK135">
+        <v>1.44</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
+        <v>1.5</v>
+      </c>
+      <c r="AN135">
+        <v>0.27</v>
+      </c>
+      <c r="AO135">
+        <v>0.27</v>
+      </c>
+      <c r="AP135">
+        <v>0.25</v>
+      </c>
+      <c r="AQ135">
+        <v>0.5</v>
+      </c>
+      <c r="AR135">
+        <v>1.43</v>
+      </c>
+      <c r="AS135">
+        <v>1.35</v>
+      </c>
+      <c r="AT135">
+        <v>2.78</v>
+      </c>
+      <c r="AU135">
+        <v>3</v>
+      </c>
+      <c r="AV135">
+        <v>5</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>8</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>4</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>9</v>
+      </c>
+      <c r="BD135">
+        <v>1.89</v>
+      </c>
+      <c r="BE135">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF135">
+        <v>2.14</v>
+      </c>
+      <c r="BG135">
+        <v>1.17</v>
+      </c>
+      <c r="BH135">
+        <v>4.6</v>
+      </c>
+      <c r="BI135">
+        <v>1.29</v>
+      </c>
+      <c r="BJ135">
+        <v>3.3</v>
+      </c>
+      <c r="BK135">
+        <v>1.59</v>
+      </c>
+      <c r="BL135">
+        <v>2.31</v>
+      </c>
+      <c r="BM135">
+        <v>1.95</v>
+      </c>
+      <c r="BN135">
+        <v>1.84</v>
+      </c>
+      <c r="BO135">
+        <v>2.46</v>
+      </c>
+      <c r="BP135">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7372712</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>70</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>174</v>
+      </c>
+      <c r="P136" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q136">
+        <v>3.4</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>3.1</v>
+      </c>
+      <c r="T136">
+        <v>1.45</v>
+      </c>
+      <c r="U136">
+        <v>2.55</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.66</v>
+      </c>
+      <c r="AA136">
+        <v>2.97</v>
+      </c>
+      <c r="AB136">
+        <v>2.33</v>
+      </c>
+      <c r="AC136">
+        <v>1.04</v>
+      </c>
+      <c r="AD136">
+        <v>7.6</v>
+      </c>
+      <c r="AE136">
+        <v>1.35</v>
+      </c>
+      <c r="AF136">
+        <v>3.11</v>
+      </c>
+      <c r="AG136">
+        <v>2.1</v>
+      </c>
+      <c r="AH136">
+        <v>1.69</v>
+      </c>
+      <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
+        <v>1.85</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.28</v>
+      </c>
+      <c r="AM136">
+        <v>1.42</v>
+      </c>
+      <c r="AN136">
+        <v>1.64</v>
+      </c>
+      <c r="AO136">
+        <v>1.82</v>
+      </c>
+      <c r="AP136">
+        <v>1.5</v>
+      </c>
+      <c r="AQ136">
+        <v>1.92</v>
+      </c>
+      <c r="AR136">
+        <v>1.28</v>
+      </c>
+      <c r="AS136">
+        <v>1.39</v>
+      </c>
+      <c r="AT136">
+        <v>2.67</v>
+      </c>
+      <c r="AU136">
+        <v>9</v>
+      </c>
+      <c r="AV136">
+        <v>9</v>
+      </c>
+      <c r="AW136">
+        <v>7</v>
+      </c>
+      <c r="AX136">
+        <v>6</v>
+      </c>
+      <c r="AY136">
+        <v>16</v>
+      </c>
+      <c r="AZ136">
+        <v>15</v>
+      </c>
+      <c r="BA136">
+        <v>7</v>
+      </c>
+      <c r="BB136">
+        <v>7</v>
+      </c>
+      <c r="BC136">
+        <v>14</v>
+      </c>
+      <c r="BD136">
+        <v>1.98</v>
+      </c>
+      <c r="BE136">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF136">
+        <v>2.06</v>
+      </c>
+      <c r="BG136">
+        <v>1.25</v>
+      </c>
+      <c r="BH136">
+        <v>3.8</v>
+      </c>
+      <c r="BI136">
+        <v>1.45</v>
+      </c>
+      <c r="BJ136">
+        <v>2.55</v>
+      </c>
+      <c r="BK136">
+        <v>1.78</v>
+      </c>
+      <c r="BL136">
+        <v>2.02</v>
+      </c>
+      <c r="BM136">
+        <v>2.22</v>
+      </c>
+      <c r="BN136">
+        <v>1.64</v>
+      </c>
+      <c r="BO136">
+        <v>3</v>
+      </c>
+      <c r="BP136">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7372713</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137" t="s">
+        <v>84</v>
+      </c>
+      <c r="P137" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q137">
+        <v>4.75</v>
+      </c>
+      <c r="R137">
+        <v>2.15</v>
+      </c>
+      <c r="S137">
+        <v>2.25</v>
+      </c>
+      <c r="T137">
+        <v>1.39</v>
+      </c>
+      <c r="U137">
+        <v>2.86</v>
+      </c>
+      <c r="V137">
+        <v>2.74</v>
+      </c>
+      <c r="W137">
+        <v>1.42</v>
+      </c>
+      <c r="X137">
+        <v>6.6</v>
+      </c>
+      <c r="Y137">
+        <v>1.09</v>
+      </c>
+      <c r="Z137">
+        <v>4.21</v>
+      </c>
+      <c r="AA137">
+        <v>3.36</v>
+      </c>
+      <c r="AB137">
+        <v>1.58</v>
+      </c>
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>9.1</v>
+      </c>
+      <c r="AE137">
+        <v>1.27</v>
+      </c>
+      <c r="AF137">
+        <v>3.63</v>
+      </c>
+      <c r="AG137">
+        <v>1.85</v>
+      </c>
+      <c r="AH137">
+        <v>1.95</v>
+      </c>
+      <c r="AI137">
+        <v>1.77</v>
+      </c>
+      <c r="AJ137">
+        <v>1.85</v>
+      </c>
+      <c r="AK137">
+        <v>2.05</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>1.18</v>
+      </c>
+      <c r="AN137">
+        <v>1.09</v>
+      </c>
+      <c r="AO137">
+        <v>1.27</v>
+      </c>
+      <c r="AP137">
+        <v>1.08</v>
+      </c>
+      <c r="AQ137">
+        <v>1.25</v>
+      </c>
+      <c r="AR137">
+        <v>1.14</v>
+      </c>
+      <c r="AS137">
+        <v>1.71</v>
+      </c>
+      <c r="AT137">
+        <v>2.85</v>
+      </c>
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>2</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>10</v>
+      </c>
+      <c r="AY137">
+        <v>7</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>2</v>
+      </c>
+      <c r="BB137">
+        <v>9</v>
+      </c>
+      <c r="BC137">
+        <v>11</v>
+      </c>
+      <c r="BD137">
+        <v>3.72</v>
+      </c>
+      <c r="BE137">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF137">
+        <v>1.36</v>
+      </c>
+      <c r="BG137">
+        <v>1.27</v>
+      </c>
+      <c r="BH137">
+        <v>3.5</v>
+      </c>
+      <c r="BI137">
+        <v>1.5</v>
+      </c>
+      <c r="BJ137">
+        <v>2.47</v>
+      </c>
+      <c r="BK137">
+        <v>1.84</v>
+      </c>
+      <c r="BL137">
+        <v>1.95</v>
+      </c>
+      <c r="BM137">
+        <v>2.29</v>
+      </c>
+      <c r="BN137">
+        <v>1.59</v>
+      </c>
+      <c r="BO137">
+        <v>3.1</v>
+      </c>
+      <c r="BP137">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7372714</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45360.5625</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>81</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138" t="s">
+        <v>175</v>
+      </c>
+      <c r="P138" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q138">
+        <v>2.5</v>
+      </c>
+      <c r="R138">
+        <v>2.51</v>
+      </c>
+      <c r="S138">
+        <v>3.74</v>
+      </c>
+      <c r="T138">
+        <v>1.24</v>
+      </c>
+      <c r="U138">
+        <v>3.8</v>
+      </c>
+      <c r="V138">
+        <v>2.26</v>
+      </c>
+      <c r="W138">
+        <v>1.62</v>
+      </c>
+      <c r="X138">
+        <v>4.7</v>
+      </c>
+      <c r="Y138">
+        <v>1.16</v>
+      </c>
+      <c r="Z138">
+        <v>2.02</v>
+      </c>
+      <c r="AA138">
+        <v>3.27</v>
+      </c>
+      <c r="AB138">
+        <v>2.94</v>
+      </c>
+      <c r="AC138">
+        <v>1.02</v>
+      </c>
+      <c r="AD138">
+        <v>10</v>
+      </c>
+      <c r="AE138">
+        <v>1.17</v>
+      </c>
+      <c r="AF138">
+        <v>4.75</v>
+      </c>
+      <c r="AG138">
+        <v>1.43</v>
+      </c>
+      <c r="AH138">
+        <v>2.31</v>
+      </c>
+      <c r="AI138">
+        <v>1.47</v>
+      </c>
+      <c r="AJ138">
+        <v>2.6</v>
+      </c>
+      <c r="AK138">
+        <v>1.27</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>1.63</v>
+      </c>
+      <c r="AN138">
+        <v>2.27</v>
+      </c>
+      <c r="AO138">
+        <v>1.18</v>
+      </c>
+      <c r="AP138">
+        <v>2.33</v>
+      </c>
+      <c r="AQ138">
+        <v>1.08</v>
+      </c>
+      <c r="AR138">
+        <v>2.1</v>
+      </c>
+      <c r="AS138">
+        <v>1.78</v>
+      </c>
+      <c r="AT138">
+        <v>3.88</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>5</v>
+      </c>
+      <c r="AW138">
+        <v>5</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>10</v>
+      </c>
+      <c r="AZ138">
+        <v>12</v>
+      </c>
+      <c r="BA138">
+        <v>2</v>
+      </c>
+      <c r="BB138">
+        <v>8</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>1.73</v>
+      </c>
+      <c r="BE138">
+        <v>9.1</v>
+      </c>
+      <c r="BF138">
+        <v>2.4</v>
+      </c>
+      <c r="BG138">
+        <v>1.19</v>
+      </c>
+      <c r="BH138">
+        <v>4.4</v>
+      </c>
+      <c r="BI138">
+        <v>1.29</v>
+      </c>
+      <c r="BJ138">
+        <v>3.3</v>
+      </c>
+      <c r="BK138">
+        <v>1.61</v>
+      </c>
+      <c r="BL138">
+        <v>2.27</v>
+      </c>
+      <c r="BM138">
+        <v>1.99</v>
+      </c>
+      <c r="BN138">
+        <v>1.81</v>
+      </c>
+      <c r="BO138">
+        <v>2.51</v>
+      </c>
+      <c r="BP138">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>['3', '31', '43']</t>
+  </si>
+  <si>
+    <t>['45+1', '68', '78']</t>
   </si>
   <si>
     <t>['34', '41', '90+2', '90+5']</t>
@@ -1122,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1384,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1874,7 +1877,7 @@
         <v>0.64</v>
       </c>
       <c r="AQ4">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2411,7 +2414,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2489,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7">
         <v>1.25</v>
@@ -2617,7 +2620,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3029,7 +3032,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3853,7 +3856,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4265,7 +4268,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4471,7 +4474,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4677,7 +4680,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4758,7 +4761,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ18">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4883,7 +4886,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5295,7 +5298,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5579,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ22">
         <v>1.08</v>
@@ -5707,7 +5710,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5788,7 +5791,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR23">
         <v>2.11</v>
@@ -5913,7 +5916,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6119,7 +6122,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6325,7 +6328,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6531,7 +6534,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7355,7 +7358,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7642,7 +7645,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -7767,7 +7770,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7845,7 +7848,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33">
         <v>1.45</v>
@@ -7973,7 +7976,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8385,7 +8388,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8591,7 +8594,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9209,7 +9212,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9415,7 +9418,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9621,7 +9624,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9827,7 +9830,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10033,7 +10036,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10114,7 +10117,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.23</v>
@@ -10445,7 +10448,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10523,7 +10526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10651,7 +10654,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10935,7 +10938,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ48">
         <v>0.45</v>
@@ -11063,7 +11066,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11681,7 +11684,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11887,7 +11890,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12917,7 +12920,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13329,7 +13332,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13535,7 +13538,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13741,7 +13744,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13947,7 +13950,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14028,7 +14031,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>2.28</v>
@@ -14565,7 +14568,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14643,7 +14646,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ66">
         <v>2.58</v>
@@ -14771,7 +14774,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14977,7 +14980,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15183,7 +15186,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15389,7 +15392,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15595,7 +15598,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -16007,7 +16010,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16213,7 +16216,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16294,7 +16297,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ74">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.03</v>
@@ -16625,7 +16628,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17115,7 +17118,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>0.09</v>
@@ -17243,7 +17246,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17655,7 +17658,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17861,7 +17864,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18479,7 +18482,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19097,7 +19100,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19303,7 +19306,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19715,7 +19718,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19921,7 +19924,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20127,7 +20130,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20414,7 +20417,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ94">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.43</v>
@@ -20539,7 +20542,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20823,7 +20826,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ96">
         <v>0.45</v>
@@ -20951,7 +20954,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21363,7 +21366,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21569,7 +21572,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21981,7 +21984,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22599,7 +22602,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -23295,7 +23298,7 @@
         <v>0.25</v>
       </c>
       <c r="AP108">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ108">
         <v>0.5</v>
@@ -23423,7 +23426,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23504,7 +23507,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ109">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23629,7 +23632,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23835,7 +23838,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24247,7 +24250,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24659,7 +24662,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24865,7 +24868,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25483,7 +25486,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25689,7 +25692,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25895,7 +25898,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -25973,10 +25976,10 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ121">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR121">
         <v>1.68</v>
@@ -26307,7 +26310,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26591,7 +26594,7 @@
         <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>1.92</v>
@@ -26719,7 +26722,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26925,7 +26928,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27212,7 +27215,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
         <v>1.85</v>
@@ -27337,7 +27340,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27543,7 +27546,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28161,7 +28164,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28573,7 +28576,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28779,7 +28782,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28985,7 +28988,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29397,7 +29400,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29554,6 +29557,212 @@
       </c>
       <c r="BP138">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7372715</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s">
+        <v>78</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>176</v>
+      </c>
+      <c r="P139" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q139">
+        <v>2.62</v>
+      </c>
+      <c r="R139">
+        <v>1.99</v>
+      </c>
+      <c r="S139">
+        <v>4.55</v>
+      </c>
+      <c r="T139">
+        <v>1.48</v>
+      </c>
+      <c r="U139">
+        <v>2.54</v>
+      </c>
+      <c r="V139">
+        <v>3.15</v>
+      </c>
+      <c r="W139">
+        <v>1.33</v>
+      </c>
+      <c r="X139">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y139">
+        <v>1.06</v>
+      </c>
+      <c r="Z139">
+        <v>1.97</v>
+      </c>
+      <c r="AA139">
+        <v>2.99</v>
+      </c>
+      <c r="AB139">
+        <v>3.35</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>7.4</v>
+      </c>
+      <c r="AE139">
+        <v>1.35</v>
+      </c>
+      <c r="AF139">
+        <v>2.84</v>
+      </c>
+      <c r="AG139">
+        <v>2.15</v>
+      </c>
+      <c r="AH139">
+        <v>1.65</v>
+      </c>
+      <c r="AI139">
+        <v>1.9</v>
+      </c>
+      <c r="AJ139">
+        <v>1.8</v>
+      </c>
+      <c r="AK139">
+        <v>1.25</v>
+      </c>
+      <c r="AL139">
+        <v>1.32</v>
+      </c>
+      <c r="AM139">
+        <v>1.76</v>
+      </c>
+      <c r="AN139">
+        <v>1.73</v>
+      </c>
+      <c r="AO139">
+        <v>1.45</v>
+      </c>
+      <c r="AP139">
+        <v>1.83</v>
+      </c>
+      <c r="AQ139">
+        <v>1.33</v>
+      </c>
+      <c r="AR139">
+        <v>1.73</v>
+      </c>
+      <c r="AS139">
+        <v>1.19</v>
+      </c>
+      <c r="AT139">
+        <v>2.92</v>
+      </c>
+      <c r="AU139">
+        <v>8</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>11</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>5</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>1.6</v>
+      </c>
+      <c r="BE139">
+        <v>8.9</v>
+      </c>
+      <c r="BF139">
+        <v>2.72</v>
+      </c>
+      <c r="BG139">
+        <v>1.33</v>
+      </c>
+      <c r="BH139">
+        <v>3.2</v>
+      </c>
+      <c r="BI139">
+        <v>1.59</v>
+      </c>
+      <c r="BJ139">
+        <v>2.31</v>
+      </c>
+      <c r="BK139">
+        <v>1.98</v>
+      </c>
+      <c r="BL139">
+        <v>1.82</v>
+      </c>
+      <c r="BM139">
+        <v>2.53</v>
+      </c>
+      <c r="BN139">
+        <v>1.49</v>
+      </c>
+      <c r="BO139">
+        <v>3.3</v>
+      </c>
+      <c r="BP139">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>['45+1', '68', '78']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
   <si>
     <t>['34', '41', '90+2', '90+5']</t>
@@ -1125,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1387,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1874,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ4">
         <v>1.33</v>
@@ -2414,7 +2417,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2620,7 +2623,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3032,7 +3035,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3113,7 +3116,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ10">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3856,7 +3859,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -3934,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ14">
         <v>1.92</v>
@@ -4268,7 +4271,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4474,7 +4477,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4680,7 +4683,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4886,7 +4889,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5298,7 +5301,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5710,7 +5713,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5916,7 +5919,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -5994,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ24">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR24">
         <v>0.79</v>
@@ -6122,7 +6125,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6328,7 +6331,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6534,7 +6537,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7358,7 +7361,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7770,7 +7773,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7976,7 +7979,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8388,7 +8391,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8466,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ36">
         <v>1.82</v>
@@ -8594,7 +8597,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8881,7 +8884,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ38">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9212,7 +9215,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9418,7 +9421,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9624,7 +9627,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9830,7 +9833,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9908,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ43">
         <v>1.08</v>
@@ -10036,7 +10039,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10448,7 +10451,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10654,7 +10657,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10941,7 +10944,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11066,7 +11069,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11684,7 +11687,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11765,7 +11768,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ52">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR52">
         <v>2.16</v>
@@ -11890,7 +11893,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12586,7 +12589,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ56">
         <v>1.45</v>
@@ -12795,7 +12798,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR57">
         <v>1.16</v>
@@ -12920,7 +12923,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13332,7 +13335,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13538,7 +13541,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13744,7 +13747,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13950,7 +13953,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14568,7 +14571,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14774,7 +14777,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14980,7 +14983,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15186,7 +15189,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15392,7 +15395,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15598,7 +15601,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15885,7 +15888,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ72">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR72">
         <v>1.43</v>
@@ -16010,7 +16013,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16216,7 +16219,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16500,7 +16503,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ75">
         <v>1.25</v>
@@ -16628,7 +16631,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17246,7 +17249,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17658,7 +17661,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17864,7 +17867,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18482,7 +18485,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19100,7 +19103,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19306,7 +19309,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19384,7 +19387,7 @@
         <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ89">
         <v>2.58</v>
@@ -19593,7 +19596,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ90">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR90">
         <v>2.29</v>
@@ -19718,7 +19721,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19924,7 +19927,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20130,7 +20133,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20542,7 +20545,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20954,7 +20957,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21366,7 +21369,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21444,7 +21447,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ99">
         <v>0.45</v>
@@ -21572,7 +21575,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21859,7 +21862,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ101">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR101">
         <v>1.39</v>
@@ -21984,7 +21987,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22602,7 +22605,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -23426,7 +23429,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23632,7 +23635,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23838,7 +23841,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24250,7 +24253,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24662,7 +24665,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24743,7 +24746,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ115">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR115">
         <v>1.81</v>
@@ -24868,7 +24871,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25486,7 +25489,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25564,7 +25567,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25692,7 +25695,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25898,7 +25901,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26310,7 +26313,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26722,7 +26725,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26928,7 +26931,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27340,7 +27343,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27546,7 +27549,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27624,7 +27627,7 @@
         <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AQ129">
         <v>0.09</v>
@@ -28039,7 +28042,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ131">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28164,7 +28167,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28576,7 +28579,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28782,7 +28785,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28988,7 +28991,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29400,7 +29403,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29763,6 +29766,212 @@
       </c>
       <c r="BP139">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7372716</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45366.5625</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P140" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q140">
+        <v>2.62</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>3.7</v>
+      </c>
+      <c r="T140">
+        <v>1.36</v>
+      </c>
+      <c r="U140">
+        <v>3</v>
+      </c>
+      <c r="V140">
+        <v>2.75</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>7</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>2.05</v>
+      </c>
+      <c r="AA140">
+        <v>1.97</v>
+      </c>
+      <c r="AB140">
+        <v>8.5</v>
+      </c>
+      <c r="AC140">
+        <v>1.07</v>
+      </c>
+      <c r="AD140">
+        <v>7.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.3</v>
+      </c>
+      <c r="AF140">
+        <v>3.4</v>
+      </c>
+      <c r="AG140">
+        <v>1.95</v>
+      </c>
+      <c r="AH140">
+        <v>1.75</v>
+      </c>
+      <c r="AI140">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.25</v>
+      </c>
+      <c r="AL140">
+        <v>1.33</v>
+      </c>
+      <c r="AM140">
+        <v>1.7</v>
+      </c>
+      <c r="AN140">
+        <v>0.64</v>
+      </c>
+      <c r="AO140">
+        <v>0.45</v>
+      </c>
+      <c r="AP140">
+        <v>0.83</v>
+      </c>
+      <c r="AQ140">
+        <v>0.42</v>
+      </c>
+      <c r="AR140">
+        <v>1.27</v>
+      </c>
+      <c r="AS140">
+        <v>1.25</v>
+      </c>
+      <c r="AT140">
+        <v>2.52</v>
+      </c>
+      <c r="AU140">
+        <v>4</v>
+      </c>
+      <c r="AV140">
+        <v>0</v>
+      </c>
+      <c r="AW140">
+        <v>8</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>12</v>
+      </c>
+      <c r="AZ140">
+        <v>3</v>
+      </c>
+      <c r="BA140">
+        <v>5</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>6</v>
+      </c>
+      <c r="BD140">
+        <v>1.58</v>
+      </c>
+      <c r="BE140">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF140">
+        <v>2.75</v>
+      </c>
+      <c r="BG140">
+        <v>1.24</v>
+      </c>
+      <c r="BH140">
+        <v>3.8</v>
+      </c>
+      <c r="BI140">
+        <v>1.4</v>
+      </c>
+      <c r="BJ140">
+        <v>2.75</v>
+      </c>
+      <c r="BK140">
+        <v>1.8</v>
+      </c>
+      <c r="BL140">
+        <v>2</v>
+      </c>
+      <c r="BM140">
+        <v>2.2</v>
+      </c>
+      <c r="BN140">
+        <v>1.6</v>
+      </c>
+      <c r="BO140">
+        <v>2.9</v>
+      </c>
+      <c r="BP140">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['53', '77']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -767,6 +773,12 @@
   </si>
   <si>
     <t>['52', '76']</t>
+  </si>
+  <si>
+    <t>['61', '66']</t>
+  </si>
+  <si>
+    <t>['13', '31', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1399,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1465,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1674,7 +1686,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2292,7 +2304,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2417,7 +2429,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2623,7 +2635,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2704,7 +2716,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ8">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2907,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -3035,7 +3047,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3113,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.42</v>
@@ -3731,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3859,7 +3871,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4143,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR15">
         <v>2.18</v>
@@ -4271,7 +4283,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4477,7 +4489,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4683,7 +4695,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4889,7 +4901,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -4967,10 +4979,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -5173,10 +5185,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>1.62</v>
@@ -5301,7 +5313,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5382,7 +5394,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5713,7 +5725,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5919,7 +5931,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6125,7 +6137,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6203,7 +6215,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>1.92</v>
@@ -6331,7 +6343,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6409,7 +6421,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.25</v>
@@ -6537,7 +6549,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6618,7 +6630,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR27">
         <v>1.94</v>
@@ -7027,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7236,7 +7248,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ30">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR30">
         <v>1</v>
@@ -7361,7 +7373,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7645,7 +7657,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7773,7 +7785,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7854,7 +7866,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ33">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -7979,7 +7991,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8263,10 +8275,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR35">
         <v>2.02</v>
@@ -8391,7 +8403,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8597,7 +8609,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9087,7 +9099,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2.58</v>
@@ -9215,7 +9227,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9421,7 +9433,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9627,7 +9639,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9705,10 +9717,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9833,7 +9845,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10039,7 +10051,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10326,7 +10338,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ45">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR45">
         <v>1.89</v>
@@ -10451,7 +10463,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10532,7 +10544,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR46">
         <v>1.65</v>
@@ -10657,7 +10669,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11069,7 +11081,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11150,7 +11162,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ49">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>2.11</v>
@@ -11353,7 +11365,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50">
         <v>1.92</v>
@@ -11687,7 +11699,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11765,7 +11777,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0.42</v>
@@ -11893,7 +11905,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12177,7 +12189,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1.82</v>
@@ -12386,7 +12398,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ55">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12592,7 +12604,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12923,7 +12935,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13001,7 +13013,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>1.08</v>
@@ -13335,7 +13347,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13413,7 +13425,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>1.82</v>
@@ -13541,7 +13553,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13747,7 +13759,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13953,7 +13965,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14237,10 +14249,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ64">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.87</v>
@@ -14443,10 +14455,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR65">
         <v>2.21</v>
@@ -14571,7 +14583,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14777,7 +14789,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14855,7 +14867,7 @@
         <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ67">
         <v>1.92</v>
@@ -14983,7 +14995,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15061,7 +15073,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15189,7 +15201,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15270,7 +15282,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ69">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.47</v>
@@ -15395,7 +15407,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15476,7 +15488,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ70">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.32</v>
@@ -15601,7 +15613,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15679,7 +15691,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1.82</v>
@@ -16013,7 +16025,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16219,7 +16231,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16631,7 +16643,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16709,7 +16721,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ76">
         <v>2.58</v>
@@ -16918,7 +16930,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17124,7 +17136,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17249,7 +17261,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17533,10 +17545,10 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.95</v>
@@ -17661,7 +17673,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17867,7 +17879,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -17945,7 +17957,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
         <v>0.5</v>
@@ -18151,10 +18163,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18360,7 +18372,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ84">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR84">
         <v>1.57</v>
@@ -18485,7 +18497,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18975,10 +18987,10 @@
         <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR87">
         <v>1.82</v>
@@ -19103,7 +19115,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19309,7 +19321,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19721,7 +19733,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19799,7 +19811,7 @@
         <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ91">
         <v>1.82</v>
@@ -19927,7 +19939,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20133,7 +20145,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20211,7 +20223,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
         <v>1.08</v>
@@ -20417,7 +20429,7 @@
         <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
         <v>1.33</v>
@@ -20545,7 +20557,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20626,7 +20638,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ95">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20832,7 +20844,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -20957,7 +20969,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21038,7 +21050,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR97">
         <v>1.56</v>
@@ -21369,7 +21381,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21450,7 +21462,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR99">
         <v>1.14</v>
@@ -21575,7 +21587,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21653,7 +21665,7 @@
         <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
         <v>2.58</v>
@@ -21987,7 +21999,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22271,7 +22283,7 @@
         <v>1.38</v>
       </c>
       <c r="AP103">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1.25</v>
@@ -22605,7 +22617,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22686,7 +22698,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR105">
         <v>1.07</v>
@@ -22889,10 +22901,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>1.45</v>
@@ -23095,10 +23107,10 @@
         <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR107">
         <v>1.78</v>
@@ -23429,7 +23441,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23635,7 +23647,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23841,7 +23853,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24125,10 +24137,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24253,7 +24265,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24331,7 +24343,7 @@
         <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113">
         <v>0.5</v>
@@ -24665,7 +24677,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24743,7 +24755,7 @@
         <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115">
         <v>0.42</v>
@@ -24871,7 +24883,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24949,7 +24961,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ116">
         <v>1.25</v>
@@ -25364,7 +25376,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ118">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25489,7 +25501,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25570,7 +25582,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.19</v>
@@ -25695,7 +25707,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25776,7 +25788,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ120">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -25901,7 +25913,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26188,7 +26200,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ122">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.12</v>
@@ -26313,7 +26325,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26725,7 +26737,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26806,7 +26818,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -26931,7 +26943,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27009,7 +27021,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AQ126">
         <v>2.58</v>
@@ -27215,7 +27227,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
         <v>1.33</v>
@@ -27343,7 +27355,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27421,10 +27433,10 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.72</v>
@@ -27549,7 +27561,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27630,7 +27642,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ129">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AR129">
         <v>1.17</v>
@@ -28039,7 +28051,7 @@
         <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ131">
         <v>0.42</v>
@@ -28167,7 +28179,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28579,7 +28591,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28785,7 +28797,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28991,7 +29003,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29403,7 +29415,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29971,6 +29983,830 @@
         <v>2.9</v>
       </c>
       <c r="BP140">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7372718</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>70</v>
+      </c>
+      <c r="H141" t="s">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>84</v>
+      </c>
+      <c r="P141" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q141">
+        <v>1.95</v>
+      </c>
+      <c r="R141">
+        <v>2.3</v>
+      </c>
+      <c r="S141">
+        <v>5.5</v>
+      </c>
+      <c r="T141">
+        <v>1.3</v>
+      </c>
+      <c r="U141">
+        <v>3.4</v>
+      </c>
+      <c r="V141">
+        <v>2.38</v>
+      </c>
+      <c r="W141">
+        <v>1.53</v>
+      </c>
+      <c r="X141">
+        <v>5.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.12</v>
+      </c>
+      <c r="Z141">
+        <v>1.48</v>
+      </c>
+      <c r="AA141">
+        <v>3.95</v>
+      </c>
+      <c r="AB141">
+        <v>5</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>10</v>
+      </c>
+      <c r="AE141">
+        <v>1.2</v>
+      </c>
+      <c r="AF141">
+        <v>4.33</v>
+      </c>
+      <c r="AG141">
+        <v>1.52</v>
+      </c>
+      <c r="AH141">
+        <v>2.13</v>
+      </c>
+      <c r="AI141">
+        <v>1.7</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>1.11</v>
+      </c>
+      <c r="AL141">
+        <v>1.22</v>
+      </c>
+      <c r="AM141">
+        <v>2.45</v>
+      </c>
+      <c r="AN141">
+        <v>1.27</v>
+      </c>
+      <c r="AO141">
+        <v>0.09</v>
+      </c>
+      <c r="AP141">
+        <v>1.25</v>
+      </c>
+      <c r="AQ141">
+        <v>0.17</v>
+      </c>
+      <c r="AR141">
+        <v>1.34</v>
+      </c>
+      <c r="AS141">
+        <v>1.13</v>
+      </c>
+      <c r="AT141">
+        <v>2.47</v>
+      </c>
+      <c r="AU141">
+        <v>4</v>
+      </c>
+      <c r="AV141">
+        <v>6</v>
+      </c>
+      <c r="AW141">
+        <v>6</v>
+      </c>
+      <c r="AX141">
+        <v>7</v>
+      </c>
+      <c r="AY141">
+        <v>10</v>
+      </c>
+      <c r="AZ141">
+        <v>13</v>
+      </c>
+      <c r="BA141">
+        <v>1</v>
+      </c>
+      <c r="BB141">
+        <v>6</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>1.34</v>
+      </c>
+      <c r="BE141">
+        <v>10.75</v>
+      </c>
+      <c r="BF141">
+        <v>3.75</v>
+      </c>
+      <c r="BG141">
+        <v>1.14</v>
+      </c>
+      <c r="BH141">
+        <v>5.2</v>
+      </c>
+      <c r="BI141">
+        <v>1.27</v>
+      </c>
+      <c r="BJ141">
+        <v>3.5</v>
+      </c>
+      <c r="BK141">
+        <v>1.43</v>
+      </c>
+      <c r="BL141">
+        <v>2.62</v>
+      </c>
+      <c r="BM141">
+        <v>1.77</v>
+      </c>
+      <c r="BN141">
+        <v>1.94</v>
+      </c>
+      <c r="BO141">
+        <v>2.25</v>
+      </c>
+      <c r="BP141">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7372719</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>84</v>
+      </c>
+      <c r="P142" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q142">
+        <v>2.36</v>
+      </c>
+      <c r="R142">
+        <v>2.33</v>
+      </c>
+      <c r="S142">
+        <v>4.67</v>
+      </c>
+      <c r="T142">
+        <v>1.34</v>
+      </c>
+      <c r="U142">
+        <v>3.17</v>
+      </c>
+      <c r="V142">
+        <v>2.72</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>5.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.12</v>
+      </c>
+      <c r="Z142">
+        <v>1.64</v>
+      </c>
+      <c r="AA142">
+        <v>3.5</v>
+      </c>
+      <c r="AB142">
+        <v>4.25</v>
+      </c>
+      <c r="AC142">
+        <v>1.05</v>
+      </c>
+      <c r="AD142">
+        <v>9</v>
+      </c>
+      <c r="AE142">
+        <v>1.22</v>
+      </c>
+      <c r="AF142">
+        <v>4</v>
+      </c>
+      <c r="AG142">
+        <v>1.54</v>
+      </c>
+      <c r="AH142">
+        <v>2.09</v>
+      </c>
+      <c r="AI142">
+        <v>1.67</v>
+      </c>
+      <c r="AJ142">
+        <v>2.1</v>
+      </c>
+      <c r="AK142">
+        <v>1.22</v>
+      </c>
+      <c r="AL142">
+        <v>1.29</v>
+      </c>
+      <c r="AM142">
+        <v>1.91</v>
+      </c>
+      <c r="AN142">
+        <v>1.91</v>
+      </c>
+      <c r="AO142">
+        <v>1</v>
+      </c>
+      <c r="AP142">
+        <v>1.75</v>
+      </c>
+      <c r="AQ142">
+        <v>1.17</v>
+      </c>
+      <c r="AR142">
+        <v>1.8</v>
+      </c>
+      <c r="AS142">
+        <v>1.28</v>
+      </c>
+      <c r="AT142">
+        <v>3.08</v>
+      </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>7</v>
+      </c>
+      <c r="AY142">
+        <v>13</v>
+      </c>
+      <c r="AZ142">
+        <v>10</v>
+      </c>
+      <c r="BA142">
+        <v>10</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>14</v>
+      </c>
+      <c r="BD142">
+        <v>1.41</v>
+      </c>
+      <c r="BE142">
+        <v>9.9</v>
+      </c>
+      <c r="BF142">
+        <v>3.38</v>
+      </c>
+      <c r="BG142">
+        <v>1.16</v>
+      </c>
+      <c r="BH142">
+        <v>4.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.3</v>
+      </c>
+      <c r="BJ142">
+        <v>3.2</v>
+      </c>
+      <c r="BK142">
+        <v>1.54</v>
+      </c>
+      <c r="BL142">
+        <v>2.32</v>
+      </c>
+      <c r="BM142">
+        <v>1.96</v>
+      </c>
+      <c r="BN142">
+        <v>1.75</v>
+      </c>
+      <c r="BO142">
+        <v>2.52</v>
+      </c>
+      <c r="BP142">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7372717</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>77</v>
+      </c>
+      <c r="H143" t="s">
+        <v>71</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <v>4</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>178</v>
+      </c>
+      <c r="P143" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q143">
+        <v>2</v>
+      </c>
+      <c r="R143">
+        <v>2.2</v>
+      </c>
+      <c r="S143">
+        <v>6</v>
+      </c>
+      <c r="T143">
+        <v>1.41</v>
+      </c>
+      <c r="U143">
+        <v>2.7</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>7</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>1.45</v>
+      </c>
+      <c r="AA143">
+        <v>3.7</v>
+      </c>
+      <c r="AB143">
+        <v>5.8</v>
+      </c>
+      <c r="AC143">
+        <v>1.07</v>
+      </c>
+      <c r="AD143">
+        <v>7.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.33</v>
+      </c>
+      <c r="AF143">
+        <v>3.1</v>
+      </c>
+      <c r="AG143">
+        <v>1.87</v>
+      </c>
+      <c r="AH143">
+        <v>1.68</v>
+      </c>
+      <c r="AI143">
+        <v>2.2</v>
+      </c>
+      <c r="AJ143">
+        <v>1.62</v>
+      </c>
+      <c r="AK143">
+        <v>1.06</v>
+      </c>
+      <c r="AL143">
+        <v>1.17</v>
+      </c>
+      <c r="AM143">
+        <v>2.65</v>
+      </c>
+      <c r="AN143">
+        <v>1.82</v>
+      </c>
+      <c r="AO143">
+        <v>0.45</v>
+      </c>
+      <c r="AP143">
+        <v>1.67</v>
+      </c>
+      <c r="AQ143">
+        <v>0.67</v>
+      </c>
+      <c r="AR143">
+        <v>1.96</v>
+      </c>
+      <c r="AS143">
+        <v>1.21</v>
+      </c>
+      <c r="AT143">
+        <v>3.17</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>11</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>17</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>6</v>
+      </c>
+      <c r="BD143">
+        <v>1.24</v>
+      </c>
+      <c r="BE143">
+        <v>10.75</v>
+      </c>
+      <c r="BF143">
+        <v>4.85</v>
+      </c>
+      <c r="BG143">
+        <v>1.29</v>
+      </c>
+      <c r="BH143">
+        <v>3.4</v>
+      </c>
+      <c r="BI143">
+        <v>1.4</v>
+      </c>
+      <c r="BJ143">
+        <v>2.75</v>
+      </c>
+      <c r="BK143">
+        <v>1.75</v>
+      </c>
+      <c r="BL143">
+        <v>1.96</v>
+      </c>
+      <c r="BM143">
+        <v>2.23</v>
+      </c>
+      <c r="BN143">
+        <v>1.58</v>
+      </c>
+      <c r="BO143">
+        <v>3</v>
+      </c>
+      <c r="BP143">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7372720</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45367.5625</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s">
+        <v>74</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>179</v>
+      </c>
+      <c r="P144" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q144">
+        <v>2.4</v>
+      </c>
+      <c r="R144">
+        <v>2.15</v>
+      </c>
+      <c r="S144">
+        <v>4.2</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.62</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>6.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.1</v>
+      </c>
+      <c r="Z144">
+        <v>1.67</v>
+      </c>
+      <c r="AA144">
+        <v>3.7</v>
+      </c>
+      <c r="AB144">
+        <v>4.2</v>
+      </c>
+      <c r="AC144">
+        <v>1.05</v>
+      </c>
+      <c r="AD144">
+        <v>9</v>
+      </c>
+      <c r="AE144">
+        <v>1.25</v>
+      </c>
+      <c r="AF144">
+        <v>3.75</v>
+      </c>
+      <c r="AG144">
+        <v>1.82</v>
+      </c>
+      <c r="AH144">
+        <v>1.96</v>
+      </c>
+      <c r="AI144">
+        <v>1.7</v>
+      </c>
+      <c r="AJ144">
+        <v>2.05</v>
+      </c>
+      <c r="AK144">
+        <v>1.22</v>
+      </c>
+      <c r="AL144">
+        <v>1.29</v>
+      </c>
+      <c r="AM144">
+        <v>1.91</v>
+      </c>
+      <c r="AN144">
+        <v>1.91</v>
+      </c>
+      <c r="AO144">
+        <v>1.45</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+      <c r="AQ144">
+        <v>1.33</v>
+      </c>
+      <c r="AR144">
+        <v>1.66</v>
+      </c>
+      <c r="AS144">
+        <v>1.23</v>
+      </c>
+      <c r="AT144">
+        <v>2.89</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>3</v>
+      </c>
+      <c r="AW144">
+        <v>7</v>
+      </c>
+      <c r="AX144">
+        <v>9</v>
+      </c>
+      <c r="AY144">
+        <v>11</v>
+      </c>
+      <c r="AZ144">
+        <v>12</v>
+      </c>
+      <c r="BA144">
+        <v>5</v>
+      </c>
+      <c r="BB144">
+        <v>7</v>
+      </c>
+      <c r="BC144">
+        <v>12</v>
+      </c>
+      <c r="BD144">
+        <v>1.56</v>
+      </c>
+      <c r="BE144">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF144">
+        <v>2.8</v>
+      </c>
+      <c r="BG144">
+        <v>1.3</v>
+      </c>
+      <c r="BH144">
+        <v>3.3</v>
+      </c>
+      <c r="BI144">
+        <v>1.4</v>
+      </c>
+      <c r="BJ144">
+        <v>2.75</v>
+      </c>
+      <c r="BK144">
+        <v>1.8</v>
+      </c>
+      <c r="BL144">
+        <v>2</v>
+      </c>
+      <c r="BM144">
+        <v>2.2</v>
+      </c>
+      <c r="BN144">
+        <v>1.6</v>
+      </c>
+      <c r="BO144">
+        <v>2.9</v>
+      </c>
+      <c r="BP144">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -780,6 +780,9 @@
   <si>
     <t>['13', '31', '45+1']</t>
   </si>
+  <si>
+    <t>['21', '80']</t>
+  </si>
 </sst>
 </file>
 
@@ -1140,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3331,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ11">
         <v>1.92</v>
@@ -3540,7 +3543,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ12">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -6836,7 +6839,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR28">
         <v>1.17</v>
@@ -8069,7 +8072,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ34">
         <v>1.08</v>
@@ -8484,7 +8487,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ36">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -10335,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ45">
         <v>1.33</v>
@@ -12192,7 +12195,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -13219,7 +13222,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13428,7 +13431,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -15694,7 +15697,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR71">
         <v>1.94</v>
@@ -15897,7 +15900,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ72">
         <v>0.42</v>
@@ -16103,7 +16106,7 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -18369,7 +18372,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -18578,7 +18581,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ85">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR85">
         <v>1.01</v>
@@ -19814,7 +19817,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -21047,7 +21050,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -21256,7 +21259,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ98">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR98">
         <v>2.32</v>
@@ -23519,7 +23522,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ109">
         <v>1.33</v>
@@ -24552,7 +24555,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ114">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR114">
         <v>1.25</v>
@@ -25785,7 +25788,7 @@
         <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ120">
         <v>0.17</v>
@@ -28463,10 +28466,10 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="AQ133">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR133">
         <v>1.83</v>
@@ -30744,22 +30747,22 @@
         <v>2.89</v>
       </c>
       <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
         <v>4</v>
       </c>
-      <c r="AV144">
-        <v>3</v>
-      </c>
       <c r="AW144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX144">
         <v>9</v>
       </c>
       <c r="AY144">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA144">
         <v>5</v>
@@ -30808,6 +30811,212 @@
       </c>
       <c r="BP144">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7372721</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45368.5625</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>79</v>
+      </c>
+      <c r="H145" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>2</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>84</v>
+      </c>
+      <c r="P145" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q145">
+        <v>2.1</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>5.5</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>1.44</v>
+      </c>
+      <c r="AA145">
+        <v>4.1</v>
+      </c>
+      <c r="AB145">
+        <v>7</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>9</v>
+      </c>
+      <c r="AE145">
+        <v>1.28</v>
+      </c>
+      <c r="AF145">
+        <v>3.5</v>
+      </c>
+      <c r="AG145">
+        <v>1.85</v>
+      </c>
+      <c r="AH145">
+        <v>1.95</v>
+      </c>
+      <c r="AI145">
+        <v>2</v>
+      </c>
+      <c r="AJ145">
+        <v>1.73</v>
+      </c>
+      <c r="AK145">
+        <v>1.09</v>
+      </c>
+      <c r="AL145">
+        <v>1.18</v>
+      </c>
+      <c r="AM145">
+        <v>2.4</v>
+      </c>
+      <c r="AN145">
+        <v>2.64</v>
+      </c>
+      <c r="AO145">
+        <v>1.82</v>
+      </c>
+      <c r="AP145">
+        <v>2.42</v>
+      </c>
+      <c r="AQ145">
+        <v>1.92</v>
+      </c>
+      <c r="AR145">
+        <v>1.79</v>
+      </c>
+      <c r="AS145">
+        <v>1.45</v>
+      </c>
+      <c r="AT145">
+        <v>3.24</v>
+      </c>
+      <c r="AU145">
+        <v>9</v>
+      </c>
+      <c r="AV145">
+        <v>2</v>
+      </c>
+      <c r="AW145">
+        <v>3</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>2</v>
+      </c>
+      <c r="BA145">
+        <v>3</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>3</v>
+      </c>
+      <c r="BD145">
+        <v>1.41</v>
+      </c>
+      <c r="BE145">
+        <v>9</v>
+      </c>
+      <c r="BF145">
+        <v>3.5</v>
+      </c>
+      <c r="BG145">
+        <v>1.36</v>
+      </c>
+      <c r="BH145">
+        <v>2.9</v>
+      </c>
+      <c r="BI145">
+        <v>1.92</v>
+      </c>
+      <c r="BJ145">
+        <v>1.88</v>
+      </c>
+      <c r="BK145">
+        <v>2.2</v>
+      </c>
+      <c r="BL145">
+        <v>1.6</v>
+      </c>
+      <c r="BM145">
+        <v>2.95</v>
+      </c>
+      <c r="BN145">
+        <v>1.35</v>
+      </c>
+      <c r="BO145">
+        <v>3.9</v>
+      </c>
+      <c r="BP145">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -30953,22 +30953,22 @@
         <v>3.24</v>
       </c>
       <c r="AU145">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW145">
+        <v>5</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>10</v>
+      </c>
+      <c r="AZ145">
         <v>3</v>
-      </c>
-      <c r="AX145">
-        <v>0</v>
-      </c>
-      <c r="AY145">
-        <v>12</v>
-      </c>
-      <c r="AZ145">
-        <v>2</v>
       </c>
       <c r="BA145">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -783,6 +783,9 @@
   <si>
     <t>['21', '80']</t>
   </si>
+  <si>
+    <t>['38']</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1895,7 +1898,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2716,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -4776,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -5809,7 +5812,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ23">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR23">
         <v>2.11</v>
@@ -7663,7 +7666,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -8896,7 +8899,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ38">
         <v>0.42</v>
@@ -10135,7 +10138,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR44">
         <v>1.23</v>
@@ -10750,7 +10753,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ47">
         <v>2.58</v>
@@ -11574,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -12398,7 +12401,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ55">
         <v>0.17</v>
@@ -14049,7 +14052,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR63">
         <v>2.28</v>
@@ -15488,7 +15491,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -16315,7 +16318,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR74">
         <v>1.03</v>
@@ -18784,7 +18787,7 @@
         <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ86">
         <v>1.25</v>
@@ -20435,7 +20438,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR94">
         <v>1.43</v>
@@ -22080,7 +22083,7 @@
         <v>2.13</v>
       </c>
       <c r="AP102">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ102">
         <v>1.92</v>
@@ -23525,7 +23528,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -24552,7 +24555,7 @@
         <v>2.22</v>
       </c>
       <c r="AP114">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ114">
         <v>1.92</v>
@@ -25997,7 +26000,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ121">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR121">
         <v>1.68</v>
@@ -27233,7 +27236,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ127">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR127">
         <v>1.85</v>
@@ -28260,7 +28263,7 @@
         <v>1.3</v>
       </c>
       <c r="AP132">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ132">
         <v>1.08</v>
@@ -28672,7 +28675,7 @@
         <v>2.55</v>
       </c>
       <c r="AP134">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AQ134">
         <v>2.58</v>
@@ -29705,7 +29708,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -31017,6 +31020,212 @@
       </c>
       <c r="BP145">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7372722</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45380.5625</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146" t="s">
+        <v>78</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>94</v>
+      </c>
+      <c r="P146" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q146">
+        <v>3.5</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>3.1</v>
+      </c>
+      <c r="T146">
+        <v>1.51</v>
+      </c>
+      <c r="U146">
+        <v>2.4</v>
+      </c>
+      <c r="V146">
+        <v>3.4</v>
+      </c>
+      <c r="W146">
+        <v>1.29</v>
+      </c>
+      <c r="X146">
+        <v>9.4</v>
+      </c>
+      <c r="Y146">
+        <v>1.04</v>
+      </c>
+      <c r="Z146">
+        <v>2.9</v>
+      </c>
+      <c r="AA146">
+        <v>3.2</v>
+      </c>
+      <c r="AB146">
+        <v>2.43</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>6.95</v>
+      </c>
+      <c r="AE146">
+        <v>1.42</v>
+      </c>
+      <c r="AF146">
+        <v>2.7</v>
+      </c>
+      <c r="AG146">
+        <v>2.1</v>
+      </c>
+      <c r="AH146">
+        <v>1.6</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.8</v>
+      </c>
+      <c r="AK146">
+        <v>1.47</v>
+      </c>
+      <c r="AL146">
+        <v>1.28</v>
+      </c>
+      <c r="AM146">
+        <v>1.3</v>
+      </c>
+      <c r="AN146">
+        <v>1.92</v>
+      </c>
+      <c r="AO146">
+        <v>1.33</v>
+      </c>
+      <c r="AP146">
+        <v>1.85</v>
+      </c>
+      <c r="AQ146">
+        <v>1.31</v>
+      </c>
+      <c r="AR146">
+        <v>1.19</v>
+      </c>
+      <c r="AS146">
+        <v>1.18</v>
+      </c>
+      <c r="AT146">
+        <v>2.37</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>1</v>
+      </c>
+      <c r="AX146">
+        <v>6</v>
+      </c>
+      <c r="AY146">
+        <v>6</v>
+      </c>
+      <c r="AZ146">
+        <v>13</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>6</v>
+      </c>
+      <c r="BD146">
+        <v>2.2</v>
+      </c>
+      <c r="BE146">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF146">
+        <v>1.86</v>
+      </c>
+      <c r="BG146">
+        <v>1.22</v>
+      </c>
+      <c r="BH146">
+        <v>4</v>
+      </c>
+      <c r="BI146">
+        <v>1.36</v>
+      </c>
+      <c r="BJ146">
+        <v>2.9</v>
+      </c>
+      <c r="BK146">
+        <v>1.7</v>
+      </c>
+      <c r="BL146">
+        <v>2.03</v>
+      </c>
+      <c r="BM146">
+        <v>2</v>
+      </c>
+      <c r="BN146">
+        <v>1.8</v>
+      </c>
+      <c r="BO146">
+        <v>2.8</v>
+      </c>
+      <c r="BP146">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['53', '77']</t>
   </si>
   <si>
+    <t>['39', '45', '66', '85']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -785,6 +788,12 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['23', '86']</t>
+  </si>
+  <si>
+    <t>['16', '82']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1414,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1483,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1.08</v>
@@ -1689,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ3">
         <v>0.17</v>
@@ -2435,7 +2444,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2516,7 +2525,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2641,7 +2650,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2928,7 +2937,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3053,7 +3062,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3134,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3543,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ12">
         <v>1.92</v>
@@ -3877,7 +3886,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4289,7 +4298,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4367,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ16">
         <v>2.58</v>
@@ -4495,7 +4504,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4576,7 +4585,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR17">
         <v>2.42</v>
@@ -4701,7 +4710,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4907,7 +4916,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -4985,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -5319,7 +5328,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5731,7 +5740,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5809,7 +5818,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ23">
         <v>1.31</v>
@@ -5937,7 +5946,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6018,7 +6027,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ24">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR24">
         <v>0.79</v>
@@ -6143,7 +6152,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6349,7 +6358,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6430,7 +6439,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR26">
         <v>2.17</v>
@@ -6555,7 +6564,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6839,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ28">
         <v>1.92</v>
@@ -7045,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ29">
         <v>1.17</v>
@@ -7379,7 +7388,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7457,10 +7466,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR31">
         <v>1.13</v>
@@ -7791,7 +7800,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7997,7 +8006,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8409,7 +8418,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8615,7 +8624,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8902,7 +8911,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ38">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -9233,7 +9242,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9311,10 +9320,10 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR40">
         <v>1.92</v>
@@ -9439,7 +9448,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9520,7 +9529,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ41">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9645,7 +9654,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9723,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ42">
         <v>0.17</v>
@@ -9851,7 +9860,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10057,7 +10066,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10135,7 +10144,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ44">
         <v>1.31</v>
@@ -10469,7 +10478,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10675,7 +10684,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10962,7 +10971,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ48">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11087,7 +11096,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11580,7 +11589,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11705,7 +11714,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11786,7 +11795,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR52">
         <v>2.16</v>
@@ -11911,7 +11920,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11989,7 +11998,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ53">
         <v>2.58</v>
@@ -12813,10 +12822,10 @@
         <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ57">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR57">
         <v>1.16</v>
@@ -12941,7 +12950,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13228,7 +13237,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR59">
         <v>1.56</v>
@@ -13353,7 +13362,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13431,7 +13440,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ60">
         <v>1.92</v>
@@ -13559,7 +13568,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13637,10 +13646,10 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13765,7 +13774,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13971,7 +13980,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14589,7 +14598,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14795,7 +14804,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15001,7 +15010,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15082,7 +15091,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15207,7 +15216,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15285,7 +15294,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ69">
         <v>0.67</v>
@@ -15413,7 +15422,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15619,7 +15628,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15906,7 +15915,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ72">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR72">
         <v>1.43</v>
@@ -16031,7 +16040,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16112,7 +16121,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR73">
         <v>1.57</v>
@@ -16237,7 +16246,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16524,7 +16533,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ75">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR75">
         <v>1.13</v>
@@ -16649,7 +16658,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16727,7 +16736,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ76">
         <v>2.58</v>
@@ -16933,7 +16942,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -17267,7 +17276,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17679,7 +17688,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17757,7 +17766,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ81">
         <v>1.08</v>
@@ -17885,7 +17894,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -17963,10 +17972,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18503,7 +18512,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18790,7 +18799,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -19121,7 +19130,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19199,7 +19208,7 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ88">
         <v>1.92</v>
@@ -19327,7 +19336,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19614,7 +19623,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ90">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR90">
         <v>2.29</v>
@@ -19739,7 +19748,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19945,7 +19954,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20026,7 +20035,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR92">
         <v>1</v>
@@ -20151,7 +20160,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20435,7 +20444,7 @@
         <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ94">
         <v>1.31</v>
@@ -20563,7 +20572,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20641,7 +20650,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ95">
         <v>1.33</v>
@@ -20975,7 +20984,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21387,7 +21396,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21593,7 +21602,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21877,10 +21886,10 @@
         <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ101">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR101">
         <v>1.39</v>
@@ -22005,7 +22014,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22292,7 +22301,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22495,7 +22504,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ104">
         <v>1.08</v>
@@ -22623,7 +22632,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22907,7 +22916,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1.33</v>
@@ -23322,7 +23331,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ108">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23447,7 +23456,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23653,7 +23662,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23859,7 +23868,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23937,7 +23946,7 @@
         <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ111">
         <v>1.92</v>
@@ -24271,7 +24280,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24352,7 +24361,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ113">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24683,7 +24692,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24764,7 +24773,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ115">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR115">
         <v>1.81</v>
@@ -24889,7 +24898,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24967,10 +24976,10 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25379,7 +25388,7 @@
         <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ118">
         <v>1.33</v>
@@ -25507,7 +25516,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25713,7 +25722,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25919,7 +25928,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26331,7 +26340,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26412,7 +26421,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR123">
         <v>2.14</v>
@@ -26743,7 +26752,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26821,7 +26830,7 @@
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ125">
         <v>1.17</v>
@@ -26949,7 +26958,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27361,7 +27370,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27567,7 +27576,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27851,10 +27860,10 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ130">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28057,10 +28066,10 @@
         <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -28185,7 +28194,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28597,7 +28606,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28803,7 +28812,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28881,10 +28890,10 @@
         <v>0.27</v>
       </c>
       <c r="AP135">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AQ135">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR135">
         <v>1.43</v>
@@ -29009,7 +29018,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29087,7 +29096,7 @@
         <v>1.82</v>
       </c>
       <c r="AP136">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AQ136">
         <v>1.92</v>
@@ -29296,7 +29305,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ137">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -29421,7 +29430,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29914,7 +29923,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30117,7 +30126,7 @@
         <v>0.09</v>
       </c>
       <c r="AP141">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ141">
         <v>0.17</v>
@@ -30245,7 +30254,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30451,7 +30460,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30863,7 +30872,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31069,7 +31078,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31162,22 +31171,22 @@
         <v>2.37</v>
       </c>
       <c r="AU146">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV146">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW146">
         <v>1</v>
       </c>
       <c r="AX146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ146">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA146">
         <v>3</v>
@@ -31226,6 +31235,624 @@
       </c>
       <c r="BP146">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7372723</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>80</v>
+      </c>
+      <c r="H147" t="s">
+        <v>73</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>146</v>
+      </c>
+      <c r="P147" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q147">
+        <v>3.1</v>
+      </c>
+      <c r="R147">
+        <v>2.05</v>
+      </c>
+      <c r="S147">
+        <v>3.25</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>2.9</v>
+      </c>
+      <c r="W147">
+        <v>1.38</v>
+      </c>
+      <c r="X147">
+        <v>7.2</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>2.41</v>
+      </c>
+      <c r="AA147">
+        <v>3.3</v>
+      </c>
+      <c r="AB147">
+        <v>2.5</v>
+      </c>
+      <c r="AC147">
+        <v>1.02</v>
+      </c>
+      <c r="AD147">
+        <v>8.6</v>
+      </c>
+      <c r="AE147">
+        <v>1.33</v>
+      </c>
+      <c r="AF147">
+        <v>3.1</v>
+      </c>
+      <c r="AG147">
+        <v>2.01</v>
+      </c>
+      <c r="AH147">
+        <v>1.79</v>
+      </c>
+      <c r="AI147">
+        <v>1.78</v>
+      </c>
+      <c r="AJ147">
+        <v>1.95</v>
+      </c>
+      <c r="AK147">
+        <v>1.42</v>
+      </c>
+      <c r="AL147">
+        <v>1.25</v>
+      </c>
+      <c r="AM147">
+        <v>1.42</v>
+      </c>
+      <c r="AN147">
+        <v>0.25</v>
+      </c>
+      <c r="AO147">
+        <v>0.42</v>
+      </c>
+      <c r="AP147">
+        <v>0.23</v>
+      </c>
+      <c r="AQ147">
+        <v>0.62</v>
+      </c>
+      <c r="AR147">
+        <v>1.41</v>
+      </c>
+      <c r="AS147">
+        <v>1.18</v>
+      </c>
+      <c r="AT147">
+        <v>2.59</v>
+      </c>
+      <c r="AU147">
+        <v>2</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>1</v>
+      </c>
+      <c r="AY147">
+        <v>6</v>
+      </c>
+      <c r="AZ147">
+        <v>5</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>9</v>
+      </c>
+      <c r="BD147">
+        <v>1.66</v>
+      </c>
+      <c r="BE147">
+        <v>7.5</v>
+      </c>
+      <c r="BF147">
+        <v>2.7</v>
+      </c>
+      <c r="BG147">
+        <v>1.23</v>
+      </c>
+      <c r="BH147">
+        <v>3.9</v>
+      </c>
+      <c r="BI147">
+        <v>1.4</v>
+      </c>
+      <c r="BJ147">
+        <v>2.75</v>
+      </c>
+      <c r="BK147">
+        <v>1.88</v>
+      </c>
+      <c r="BL147">
+        <v>1.92</v>
+      </c>
+      <c r="BM147">
+        <v>2.17</v>
+      </c>
+      <c r="BN147">
+        <v>1.61</v>
+      </c>
+      <c r="BO147">
+        <v>2.85</v>
+      </c>
+      <c r="BP147">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7372724</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>70</v>
+      </c>
+      <c r="H148" t="s">
+        <v>77</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>4</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>6</v>
+      </c>
+      <c r="O148" t="s">
+        <v>180</v>
+      </c>
+      <c r="P148" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q148">
+        <v>3.25</v>
+      </c>
+      <c r="R148">
+        <v>2.2</v>
+      </c>
+      <c r="S148">
+        <v>3</v>
+      </c>
+      <c r="T148">
+        <v>1.35</v>
+      </c>
+      <c r="U148">
+        <v>3.04</v>
+      </c>
+      <c r="V148">
+        <v>2.6</v>
+      </c>
+      <c r="W148">
+        <v>1.45</v>
+      </c>
+      <c r="X148">
+        <v>6.2</v>
+      </c>
+      <c r="Y148">
+        <v>1.1</v>
+      </c>
+      <c r="Z148">
+        <v>2.56</v>
+      </c>
+      <c r="AA148">
+        <v>3.45</v>
+      </c>
+      <c r="AB148">
+        <v>2.28</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>9.9</v>
+      </c>
+      <c r="AE148">
+        <v>1.25</v>
+      </c>
+      <c r="AF148">
+        <v>3.75</v>
+      </c>
+      <c r="AG148">
+        <v>1.82</v>
+      </c>
+      <c r="AH148">
+        <v>1.98</v>
+      </c>
+      <c r="AI148">
+        <v>1.63</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.47</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.38</v>
+      </c>
+      <c r="AN148">
+        <v>1.25</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.38</v>
+      </c>
+      <c r="AQ148">
+        <v>1.15</v>
+      </c>
+      <c r="AR148">
+        <v>1.34</v>
+      </c>
+      <c r="AS148">
+        <v>1.68</v>
+      </c>
+      <c r="AT148">
+        <v>3.02</v>
+      </c>
+      <c r="AU148">
+        <v>3</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>6</v>
+      </c>
+      <c r="AY148">
+        <v>5</v>
+      </c>
+      <c r="AZ148">
+        <v>12</v>
+      </c>
+      <c r="BA148">
+        <v>3</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>8</v>
+      </c>
+      <c r="BD148">
+        <v>2.28</v>
+      </c>
+      <c r="BE148">
+        <v>7.4</v>
+      </c>
+      <c r="BF148">
+        <v>1.88</v>
+      </c>
+      <c r="BG148">
+        <v>1.21</v>
+      </c>
+      <c r="BH148">
+        <v>4.2</v>
+      </c>
+      <c r="BI148">
+        <v>1.31</v>
+      </c>
+      <c r="BJ148">
+        <v>3.15</v>
+      </c>
+      <c r="BK148">
+        <v>1.57</v>
+      </c>
+      <c r="BL148">
+        <v>2.25</v>
+      </c>
+      <c r="BM148">
+        <v>1.98</v>
+      </c>
+      <c r="BN148">
+        <v>1.82</v>
+      </c>
+      <c r="BO148">
+        <v>2.6</v>
+      </c>
+      <c r="BP148">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7372725</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45381.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>72</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149" t="s">
+        <v>84</v>
+      </c>
+      <c r="P149" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q149">
+        <v>2.88</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>3.75</v>
+      </c>
+      <c r="T149">
+        <v>1.48</v>
+      </c>
+      <c r="U149">
+        <v>2.5</v>
+      </c>
+      <c r="V149">
+        <v>3.2</v>
+      </c>
+      <c r="W149">
+        <v>1.32</v>
+      </c>
+      <c r="X149">
+        <v>8.4</v>
+      </c>
+      <c r="Y149">
+        <v>1.05</v>
+      </c>
+      <c r="Z149">
+        <v>2.17</v>
+      </c>
+      <c r="AA149">
+        <v>3.15</v>
+      </c>
+      <c r="AB149">
+        <v>2.95</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>7.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.4</v>
+      </c>
+      <c r="AF149">
+        <v>2.8</v>
+      </c>
+      <c r="AG149">
+        <v>2.23</v>
+      </c>
+      <c r="AH149">
+        <v>1.58</v>
+      </c>
+      <c r="AI149">
+        <v>1.9</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.28</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.57</v>
+      </c>
+      <c r="AN149">
+        <v>1.5</v>
+      </c>
+      <c r="AO149">
+        <v>0.5</v>
+      </c>
+      <c r="AP149">
+        <v>1.46</v>
+      </c>
+      <c r="AQ149">
+        <v>0.54</v>
+      </c>
+      <c r="AR149">
+        <v>1.35</v>
+      </c>
+      <c r="AS149">
+        <v>1.36</v>
+      </c>
+      <c r="AT149">
+        <v>2.71</v>
+      </c>
+      <c r="AU149">
+        <v>0</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>8</v>
+      </c>
+      <c r="AY149">
+        <v>5</v>
+      </c>
+      <c r="AZ149">
+        <v>10</v>
+      </c>
+      <c r="BA149">
+        <v>6</v>
+      </c>
+      <c r="BB149">
+        <v>6</v>
+      </c>
+      <c r="BC149">
+        <v>12</v>
+      </c>
+      <c r="BD149">
+        <v>1.67</v>
+      </c>
+      <c r="BE149">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF149">
+        <v>2.61</v>
+      </c>
+      <c r="BG149">
+        <v>1.29</v>
+      </c>
+      <c r="BH149">
+        <v>3.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.43</v>
+      </c>
+      <c r="BJ149">
+        <v>2.62</v>
+      </c>
+      <c r="BK149">
+        <v>1.75</v>
+      </c>
+      <c r="BL149">
+        <v>1.96</v>
+      </c>
+      <c r="BM149">
+        <v>2.25</v>
+      </c>
+      <c r="BN149">
+        <v>1.57</v>
+      </c>
+      <c r="BO149">
+        <v>3</v>
+      </c>
+      <c r="BP149">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="261">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['39', '45', '66', '85']</t>
+  </si>
+  <si>
+    <t>['26', '90+1']</t>
   </si>
   <si>
     <t>['34', '41', '90+2', '90+5']</t>
@@ -1155,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1417,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1495,7 +1498,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2444,7 +2447,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2522,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7">
         <v>1.15</v>
@@ -2650,7 +2653,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3062,7 +3065,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3346,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ11">
         <v>1.92</v>
@@ -3761,7 +3764,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3886,7 +3889,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4298,7 +4301,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4504,7 +4507,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4710,7 +4713,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4916,7 +4919,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5328,7 +5331,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5409,7 +5412,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5612,10 +5615,10 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5740,7 +5743,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5946,7 +5949,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6152,7 +6155,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6358,7 +6361,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6564,7 +6567,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7388,7 +7391,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7800,7 +7803,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7878,10 +7881,10 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ33">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -8006,7 +8009,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8084,10 +8087,10 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ34">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8418,7 +8421,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8624,7 +8627,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9242,7 +9245,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9448,7 +9451,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9654,7 +9657,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9860,7 +9863,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9941,7 +9944,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ43">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.92</v>
@@ -10066,7 +10069,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10350,10 +10353,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR45">
         <v>1.89</v>
@@ -10478,7 +10481,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10556,7 +10559,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10684,7 +10687,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10968,7 +10971,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ48">
         <v>0.62</v>
@@ -11096,7 +11099,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11714,7 +11717,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11920,7 +11923,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12619,7 +12622,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12950,7 +12953,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13031,7 +13034,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13234,7 +13237,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ59">
         <v>1.15</v>
@@ -13362,7 +13365,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13568,7 +13571,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13774,7 +13777,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13980,7 +13983,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14598,7 +14601,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14676,7 +14679,7 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ66">
         <v>2.58</v>
@@ -14804,7 +14807,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15010,7 +15013,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15216,7 +15219,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15422,7 +15425,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15503,7 +15506,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR70">
         <v>1.32</v>
@@ -15628,7 +15631,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15912,7 +15915,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ72">
         <v>0.62</v>
@@ -16040,7 +16043,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16118,7 +16121,7 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ73">
         <v>0.54</v>
@@ -16246,7 +16249,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16658,7 +16661,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17148,7 +17151,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ78">
         <v>0.17</v>
@@ -17276,7 +17279,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17357,7 +17360,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.38</v>
@@ -17563,7 +17566,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR80">
         <v>1.95</v>
@@ -17688,7 +17691,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17769,7 +17772,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ81">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.48</v>
@@ -17894,7 +17897,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18384,7 +18387,7 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ84">
         <v>0.67</v>
@@ -18512,7 +18515,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19130,7 +19133,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19336,7 +19339,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19748,7 +19751,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19954,7 +19957,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20160,7 +20163,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20241,7 +20244,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.85</v>
@@ -20572,7 +20575,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20653,7 +20656,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20856,7 +20859,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ96">
         <v>0.67</v>
@@ -20984,7 +20987,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21062,7 +21065,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ97">
         <v>1.17</v>
@@ -21396,7 +21399,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21602,7 +21605,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22014,7 +22017,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22507,7 +22510,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ104">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22632,7 +22635,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22919,7 +22922,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR106">
         <v>1.45</v>
@@ -23328,7 +23331,7 @@
         <v>0.25</v>
       </c>
       <c r="AP108">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ108">
         <v>0.54</v>
@@ -23456,7 +23459,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23534,7 +23537,7 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ109">
         <v>1.31</v>
@@ -23662,7 +23665,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23868,7 +23871,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24280,7 +24283,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24692,7 +24695,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24898,7 +24901,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25185,7 +25188,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ117">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.1</v>
@@ -25391,7 +25394,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ118">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25516,7 +25519,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25722,7 +25725,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25800,7 +25803,7 @@
         <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ120">
         <v>0.17</v>
@@ -25928,7 +25931,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26006,7 +26009,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ121">
         <v>1.31</v>
@@ -26340,7 +26343,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26624,7 +26627,7 @@
         <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ124">
         <v>1.92</v>
@@ -26752,7 +26755,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26958,7 +26961,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27370,7 +27373,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27451,7 +27454,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR128">
         <v>1.72</v>
@@ -27576,7 +27579,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28194,7 +28197,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28275,7 +28278,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ132">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28478,7 +28481,7 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ133">
         <v>1.92</v>
@@ -28606,7 +28609,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28812,7 +28815,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29018,7 +29021,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29430,7 +29433,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29511,7 +29514,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ138">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>2.1</v>
@@ -29714,7 +29717,7 @@
         <v>1.45</v>
       </c>
       <c r="AP139">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ139">
         <v>1.31</v>
@@ -30254,7 +30257,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30460,7 +30463,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30747,7 +30750,7 @@
         <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -30872,7 +30875,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -30950,7 +30953,7 @@
         <v>1.82</v>
       </c>
       <c r="AP145">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AQ145">
         <v>1.92</v>
@@ -31078,7 +31081,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31171,22 +31174,22 @@
         <v>2.37</v>
       </c>
       <c r="AU146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV146">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW146">
         <v>1</v>
       </c>
       <c r="AX146">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY146">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ146">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA146">
         <v>3</v>
@@ -31284,7 +31287,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31377,22 +31380,22 @@
         <v>2.59</v>
       </c>
       <c r="AU147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX147">
         <v>1</v>
       </c>
       <c r="AY147">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ147">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31490,7 +31493,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31583,22 +31586,22 @@
         <v>3.02</v>
       </c>
       <c r="AU148">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV148">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW148">
         <v>2</v>
       </c>
       <c r="AX148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY148">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ148">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -31789,22 +31792,22 @@
         <v>2.71</v>
       </c>
       <c r="AU149">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV149">
         <v>2</v>
       </c>
       <c r="AW149">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX149">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA149">
         <v>6</v>
@@ -31853,6 +31856,418 @@
       </c>
       <c r="BP149">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7372726</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45381.5625</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>79</v>
+      </c>
+      <c r="H150" t="s">
+        <v>81</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>2</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>181</v>
+      </c>
+      <c r="P150" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q150">
+        <v>1.8</v>
+      </c>
+      <c r="R150">
+        <v>2.6</v>
+      </c>
+      <c r="S150">
+        <v>6</v>
+      </c>
+      <c r="T150">
+        <v>1.24</v>
+      </c>
+      <c r="U150">
+        <v>3.8</v>
+      </c>
+      <c r="V150">
+        <v>2.21</v>
+      </c>
+      <c r="W150">
+        <v>1.61</v>
+      </c>
+      <c r="X150">
+        <v>4.7</v>
+      </c>
+      <c r="Y150">
+        <v>1.16</v>
+      </c>
+      <c r="Z150">
+        <v>1.32</v>
+      </c>
+      <c r="AA150">
+        <v>4.65</v>
+      </c>
+      <c r="AB150">
+        <v>6.4</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>15.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.13</v>
+      </c>
+      <c r="AF150">
+        <v>4.9</v>
+      </c>
+      <c r="AG150">
+        <v>1.42</v>
+      </c>
+      <c r="AH150">
+        <v>2.35</v>
+      </c>
+      <c r="AI150">
+        <v>1.72</v>
+      </c>
+      <c r="AJ150">
+        <v>2.05</v>
+      </c>
+      <c r="AK150">
+        <v>1.04</v>
+      </c>
+      <c r="AL150">
+        <v>1.12</v>
+      </c>
+      <c r="AM150">
+        <v>3</v>
+      </c>
+      <c r="AN150">
+        <v>2.42</v>
+      </c>
+      <c r="AO150">
+        <v>1.08</v>
+      </c>
+      <c r="AP150">
+        <v>2.46</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>1.77</v>
+      </c>
+      <c r="AS150">
+        <v>1.77</v>
+      </c>
+      <c r="AT150">
+        <v>3.54</v>
+      </c>
+      <c r="AU150">
+        <v>3</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>9</v>
+      </c>
+      <c r="AZ150">
+        <v>7</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>6</v>
+      </c>
+      <c r="BC150">
+        <v>10</v>
+      </c>
+      <c r="BD150">
+        <v>1.3</v>
+      </c>
+      <c r="BE150">
+        <v>9.9</v>
+      </c>
+      <c r="BF150">
+        <v>4.25</v>
+      </c>
+      <c r="BG150">
+        <v>1.19</v>
+      </c>
+      <c r="BH150">
+        <v>4.3</v>
+      </c>
+      <c r="BI150">
+        <v>1.32</v>
+      </c>
+      <c r="BJ150">
+        <v>3.1</v>
+      </c>
+      <c r="BK150">
+        <v>1.6</v>
+      </c>
+      <c r="BL150">
+        <v>2.2</v>
+      </c>
+      <c r="BM150">
+        <v>1.99</v>
+      </c>
+      <c r="BN150">
+        <v>1.73</v>
+      </c>
+      <c r="BO150">
+        <v>2.6</v>
+      </c>
+      <c r="BP150">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7372727</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45382.52083333334</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s">
+        <v>74</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>103</v>
+      </c>
+      <c r="P151" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q151">
+        <v>2.1</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>5.5</v>
+      </c>
+      <c r="T151">
+        <v>1.39</v>
+      </c>
+      <c r="U151">
+        <v>2.8</v>
+      </c>
+      <c r="V151">
+        <v>2.75</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>6.9</v>
+      </c>
+      <c r="Y151">
+        <v>1.08</v>
+      </c>
+      <c r="Z151">
+        <v>1.6</v>
+      </c>
+      <c r="AA151">
+        <v>3.65</v>
+      </c>
+      <c r="AB151">
+        <v>4.5</v>
+      </c>
+      <c r="AC151">
+        <v>1.02</v>
+      </c>
+      <c r="AD151">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE151">
+        <v>1.3</v>
+      </c>
+      <c r="AF151">
+        <v>3.3</v>
+      </c>
+      <c r="AG151">
+        <v>1.97</v>
+      </c>
+      <c r="AH151">
+        <v>1.83</v>
+      </c>
+      <c r="AI151">
+        <v>1.95</v>
+      </c>
+      <c r="AJ151">
+        <v>1.8</v>
+      </c>
+      <c r="AK151">
+        <v>1.09</v>
+      </c>
+      <c r="AL151">
+        <v>1.18</v>
+      </c>
+      <c r="AM151">
+        <v>2.35</v>
+      </c>
+      <c r="AN151">
+        <v>1.83</v>
+      </c>
+      <c r="AO151">
+        <v>1.33</v>
+      </c>
+      <c r="AP151">
+        <v>1.92</v>
+      </c>
+      <c r="AQ151">
+        <v>1.23</v>
+      </c>
+      <c r="AR151">
+        <v>1.72</v>
+      </c>
+      <c r="AS151">
+        <v>1.25</v>
+      </c>
+      <c r="AT151">
+        <v>2.97</v>
+      </c>
+      <c r="AU151">
+        <v>3</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>3</v>
+      </c>
+      <c r="AX151">
+        <v>6</v>
+      </c>
+      <c r="AY151">
+        <v>6</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
+        <v>7</v>
+      </c>
+      <c r="BC151">
+        <v>9</v>
+      </c>
+      <c r="BD151">
+        <v>1.51</v>
+      </c>
+      <c r="BE151">
+        <v>8.1</v>
+      </c>
+      <c r="BF151">
+        <v>3.12</v>
+      </c>
+      <c r="BG151">
+        <v>1.3</v>
+      </c>
+      <c r="BH151">
+        <v>3.2</v>
+      </c>
+      <c r="BI151">
+        <v>1.85</v>
+      </c>
+      <c r="BJ151">
+        <v>1.95</v>
+      </c>
+      <c r="BK151">
+        <v>2.03</v>
+      </c>
+      <c r="BL151">
+        <v>1.7</v>
+      </c>
+      <c r="BM151">
+        <v>2.65</v>
+      </c>
+      <c r="BN151">
+        <v>1.42</v>
+      </c>
+      <c r="BO151">
+        <v>3.9</v>
+      </c>
+      <c r="BP151">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -31998,22 +31998,22 @@
         <v>3.54</v>
       </c>
       <c r="AU150">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW150">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX150">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY150">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA150">
         <v>4</v>
@@ -32204,7 +32204,7 @@
         <v>2.97</v>
       </c>
       <c r="AU151">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV151">
         <v>3</v>
@@ -32213,22 +32213,22 @@
         <v>3</v>
       </c>
       <c r="AX151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ151">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB151">
         <v>7</v>
       </c>
       <c r="BC151">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD151">
         <v>1.51</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -798,6 +798,9 @@
   <si>
     <t>['16', '82']</t>
   </si>
+  <si>
+    <t>['26', '69', '87']</t>
+  </si>
 </sst>
 </file>
 
@@ -1158,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2116,7 +2119,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ5">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2319,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -4382,7 +4385,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ16">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR16">
         <v>1.38</v>
@@ -4585,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ17">
         <v>1.15</v>
@@ -6645,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ27">
         <v>0.17</v>
@@ -8705,7 +8708,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ37">
         <v>1.92</v>
@@ -9120,7 +9123,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR39">
         <v>1.78</v>
@@ -10768,7 +10771,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ47">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR47">
         <v>1.21</v>
@@ -11177,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -12004,7 +12007,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ53">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -14061,7 +14064,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ63">
         <v>1.31</v>
@@ -14682,7 +14685,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ66">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -16742,7 +16745,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ76">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17357,7 +17360,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ79">
         <v>1</v>
@@ -19420,7 +19423,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ89">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR89">
         <v>1.1</v>
@@ -19623,7 +19626,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ90">
         <v>0.62</v>
@@ -21271,7 +21274,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ98">
         <v>1.92</v>
@@ -21686,7 +21689,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR100">
         <v>2.01</v>
@@ -23743,10 +23746,10 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ110">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR110">
         <v>2.27</v>
@@ -26421,7 +26424,7 @@
         <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ123">
         <v>0.54</v>
@@ -27042,7 +27045,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ126">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR126">
         <v>1.96</v>
@@ -28690,7 +28693,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ134">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR134">
         <v>1.19</v>
@@ -29511,7 +29514,7 @@
         <v>1.18</v>
       </c>
       <c r="AP138">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -32267,6 +32270,212 @@
         <v>3.9</v>
       </c>
       <c r="BP151">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7372732</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45387.52083333334</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>3</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>84</v>
+      </c>
+      <c r="P152" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q152">
+        <v>5.25</v>
+      </c>
+      <c r="R152">
+        <v>2.5</v>
+      </c>
+      <c r="S152">
+        <v>1.9</v>
+      </c>
+      <c r="T152">
+        <v>1.25</v>
+      </c>
+      <c r="U152">
+        <v>3.55</v>
+      </c>
+      <c r="V152">
+        <v>2.2</v>
+      </c>
+      <c r="W152">
+        <v>1.6</v>
+      </c>
+      <c r="X152">
+        <v>4.7</v>
+      </c>
+      <c r="Y152">
+        <v>1.16</v>
+      </c>
+      <c r="Z152">
+        <v>3.22</v>
+      </c>
+      <c r="AA152">
+        <v>3.3</v>
+      </c>
+      <c r="AB152">
+        <v>1.83</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>15.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.16</v>
+      </c>
+      <c r="AF152">
+        <v>5.07</v>
+      </c>
+      <c r="AG152">
+        <v>1.56</v>
+      </c>
+      <c r="AH152">
+        <v>2.28</v>
+      </c>
+      <c r="AI152">
+        <v>1.6</v>
+      </c>
+      <c r="AJ152">
+        <v>2.15</v>
+      </c>
+      <c r="AK152">
+        <v>2.7</v>
+      </c>
+      <c r="AL152">
+        <v>1.14</v>
+      </c>
+      <c r="AM152">
+        <v>1.11</v>
+      </c>
+      <c r="AN152">
+        <v>2.33</v>
+      </c>
+      <c r="AO152">
+        <v>2.58</v>
+      </c>
+      <c r="AP152">
+        <v>2.15</v>
+      </c>
+      <c r="AQ152">
+        <v>2.62</v>
+      </c>
+      <c r="AR152">
+        <v>2.04</v>
+      </c>
+      <c r="AS152">
+        <v>1.8</v>
+      </c>
+      <c r="AT152">
+        <v>3.84</v>
+      </c>
+      <c r="AU152">
+        <v>2</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>2</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>6</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>11</v>
+      </c>
+      <c r="BD152">
+        <v>2.68</v>
+      </c>
+      <c r="BE152">
+        <v>7.9</v>
+      </c>
+      <c r="BF152">
+        <v>1.65</v>
+      </c>
+      <c r="BG152">
+        <v>1.38</v>
+      </c>
+      <c r="BH152">
+        <v>2.71</v>
+      </c>
+      <c r="BI152">
+        <v>1.85</v>
+      </c>
+      <c r="BJ152">
+        <v>1.95</v>
+      </c>
+      <c r="BK152">
+        <v>2.14</v>
+      </c>
+      <c r="BL152">
+        <v>1.6</v>
+      </c>
+      <c r="BM152">
+        <v>3</v>
+      </c>
+      <c r="BN152">
+        <v>1.34</v>
+      </c>
+      <c r="BO152">
+        <v>3.9</v>
+      </c>
+      <c r="BP152">
         <v>1.23</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['26', '90+1']</t>
   </si>
   <si>
+    <t>['56', '90+5']</t>
+  </si>
+  <si>
+    <t>['34', '39', '69', '74']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -800,6 +806,9 @@
   </si>
   <si>
     <t>['26', '69', '87']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1429,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1704,10 +1713,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ4">
         <v>1.31</v>
@@ -2116,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>2.62</v>
@@ -2450,7 +2459,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2531,7 +2540,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ7">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2656,7 +2665,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2734,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -3068,7 +3077,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3355,7 +3364,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ11">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3561,7 +3570,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ12">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3892,7 +3901,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -3970,10 +3979,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ14">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0.55</v>
@@ -4179,7 +4188,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR15">
         <v>2.18</v>
@@ -4304,7 +4313,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4382,7 +4391,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
         <v>2.62</v>
@@ -4510,7 +4519,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4591,7 +4600,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ17">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>2.42</v>
@@ -4716,7 +4725,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4794,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ18">
         <v>1.31</v>
@@ -4922,7 +4931,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5334,7 +5343,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5412,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>1.23</v>
@@ -5746,7 +5755,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5952,7 +5961,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6030,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ24">
         <v>0.62</v>
@@ -6158,7 +6167,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6239,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>2.22</v>
@@ -6364,7 +6373,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6445,7 +6454,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
         <v>2.17</v>
@@ -6570,7 +6579,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6651,7 +6660,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ27">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR27">
         <v>1.94</v>
@@ -6854,10 +6863,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR28">
         <v>1.17</v>
@@ -7266,10 +7275,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR30">
         <v>1</v>
@@ -7394,7 +7403,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7472,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ31">
         <v>0.54</v>
@@ -7806,7 +7815,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8012,7 +8021,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8424,7 +8433,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8502,10 +8511,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ36">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8630,7 +8639,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8711,7 +8720,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ37">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR37">
         <v>1.94</v>
@@ -8914,7 +8923,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ38">
         <v>0.62</v>
@@ -9248,7 +9257,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9329,7 +9338,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ40">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
         <v>1.92</v>
@@ -9454,7 +9463,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9532,10 +9541,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9660,7 +9669,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9741,7 +9750,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ42">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9866,7 +9875,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9944,7 +9953,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10072,7 +10081,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10150,7 +10159,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ44">
         <v>1.31</v>
@@ -10484,7 +10493,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10690,7 +10699,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10768,7 +10777,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ47">
         <v>2.62</v>
@@ -11102,7 +11111,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11389,7 +11398,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11592,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ51">
         <v>0.54</v>
@@ -11720,7 +11729,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11926,7 +11935,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12213,7 +12222,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12416,10 +12425,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ55">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12622,7 +12631,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ56">
         <v>1.23</v>
@@ -12828,7 +12837,7 @@
         <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
         <v>0.62</v>
@@ -12956,7 +12965,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13243,7 +13252,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ59">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR59">
         <v>1.56</v>
@@ -13368,7 +13377,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13449,7 +13458,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ60">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13574,7 +13583,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13780,7 +13789,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13858,10 +13867,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>1.08</v>
@@ -13986,7 +13995,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14604,7 +14613,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14810,7 +14819,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14891,7 +14900,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ67">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR67">
         <v>2.14</v>
@@ -15016,7 +15025,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15222,7 +15231,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15428,7 +15437,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15506,7 +15515,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ70">
         <v>1.23</v>
@@ -15634,7 +15643,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15715,7 +15724,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR71">
         <v>1.94</v>
@@ -16046,7 +16055,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16252,7 +16261,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16330,7 +16339,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.31</v>
@@ -16536,10 +16545,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ75">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR75">
         <v>1.13</v>
@@ -16664,7 +16673,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16948,7 +16957,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -17157,7 +17166,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ78">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17282,7 +17291,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17694,7 +17703,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17900,7 +17909,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18518,7 +18527,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18596,10 +18605,10 @@
         <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR85">
         <v>1.01</v>
@@ -18802,10 +18811,10 @@
         <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ86">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -19011,7 +19020,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR87">
         <v>1.82</v>
@@ -19136,7 +19145,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19214,10 +19223,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ88">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19342,7 +19351,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19420,7 +19429,7 @@
         <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ89">
         <v>2.62</v>
@@ -19754,7 +19763,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19835,7 +19844,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -19960,7 +19969,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20038,7 +20047,7 @@
         <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
         <v>0.54</v>
@@ -20166,7 +20175,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20578,7 +20587,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20990,7 +20999,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21277,7 +21286,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ98">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR98">
         <v>2.32</v>
@@ -21402,7 +21411,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21480,7 +21489,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ99">
         <v>0.67</v>
@@ -21608,7 +21617,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22020,7 +22029,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22098,10 +22107,10 @@
         <v>2.13</v>
       </c>
       <c r="AP102">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ102">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR102">
         <v>1.29</v>
@@ -22307,7 +22316,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22510,7 +22519,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22638,7 +22647,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22716,7 +22725,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ105">
         <v>1.17</v>
@@ -23131,7 +23140,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ107">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR107">
         <v>1.78</v>
@@ -23462,7 +23471,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23668,7 +23677,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23874,7 +23883,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23955,7 +23964,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ111">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24286,7 +24295,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24570,10 +24579,10 @@
         <v>2.22</v>
       </c>
       <c r="AP114">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ114">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR114">
         <v>1.25</v>
@@ -24698,7 +24707,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24904,7 +24913,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24985,7 +24994,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25188,7 +25197,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25394,7 +25403,7 @@
         <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ118">
         <v>1.23</v>
@@ -25522,7 +25531,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25600,7 +25609,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ119">
         <v>1.17</v>
@@ -25728,7 +25737,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25809,7 +25818,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ120">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -25934,7 +25943,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26218,7 +26227,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>0.67</v>
@@ -26346,7 +26355,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26633,7 +26642,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ124">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.72</v>
@@ -26758,7 +26767,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26964,7 +26973,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27376,7 +27385,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27582,7 +27591,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27660,10 +27669,10 @@
         <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ129">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR129">
         <v>1.17</v>
@@ -27866,10 +27875,10 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ130">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28200,7 +28209,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28278,7 +28287,7 @@
         <v>1.3</v>
       </c>
       <c r="AP132">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28487,7 +28496,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ133">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR133">
         <v>1.83</v>
@@ -28612,7 +28621,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28690,7 +28699,7 @@
         <v>2.55</v>
       </c>
       <c r="AP134">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ134">
         <v>2.62</v>
@@ -28818,7 +28827,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29024,7 +29033,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29102,10 +29111,10 @@
         <v>1.82</v>
       </c>
       <c r="AP136">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ136">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29308,10 +29317,10 @@
         <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -29436,7 +29445,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29926,7 +29935,7 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AQ140">
         <v>0.62</v>
@@ -30135,7 +30144,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ141">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -30260,7 +30269,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30466,7 +30475,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30878,7 +30887,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -30959,7 +30968,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ145">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31084,7 +31093,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31162,7 +31171,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ146">
         <v>1.31</v>
@@ -31290,7 +31299,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31496,7 +31505,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31577,7 +31586,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ148">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -31780,7 +31789,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AQ149">
         <v>0.54</v>
@@ -31908,7 +31917,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32320,7 +32329,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32416,28 +32425,28 @@
         <v>2</v>
       </c>
       <c r="AV152">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW152">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY152">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ152">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB152">
         <v>4</v>
       </c>
       <c r="BC152">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD152">
         <v>2.68</v>
@@ -32477,6 +32486,830 @@
       </c>
       <c r="BP152">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7372733</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45388.41666666666</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>75</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>182</v>
+      </c>
+      <c r="P153" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q153">
+        <v>5</v>
+      </c>
+      <c r="R153">
+        <v>1.87</v>
+      </c>
+      <c r="S153">
+        <v>2.7</v>
+      </c>
+      <c r="T153">
+        <v>1.58</v>
+      </c>
+      <c r="U153">
+        <v>2.29</v>
+      </c>
+      <c r="V153">
+        <v>3.54</v>
+      </c>
+      <c r="W153">
+        <v>1.27</v>
+      </c>
+      <c r="X153">
+        <v>9.6</v>
+      </c>
+      <c r="Y153">
+        <v>1.04</v>
+      </c>
+      <c r="Z153">
+        <v>3.9</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153">
+        <v>1.91</v>
+      </c>
+      <c r="AC153">
+        <v>1.08</v>
+      </c>
+      <c r="AD153">
+        <v>6.15</v>
+      </c>
+      <c r="AE153">
+        <v>1.5</v>
+      </c>
+      <c r="AF153">
+        <v>2.4</v>
+      </c>
+      <c r="AG153">
+        <v>2.3</v>
+      </c>
+      <c r="AH153">
+        <v>1.5</v>
+      </c>
+      <c r="AI153">
+        <v>2.11</v>
+      </c>
+      <c r="AJ153">
+        <v>1.65</v>
+      </c>
+      <c r="AK153">
+        <v>1.76</v>
+      </c>
+      <c r="AL153">
+        <v>1.36</v>
+      </c>
+      <c r="AM153">
+        <v>1.21</v>
+      </c>
+      <c r="AN153">
+        <v>1.85</v>
+      </c>
+      <c r="AO153">
+        <v>1.92</v>
+      </c>
+      <c r="AP153">
+        <v>1.93</v>
+      </c>
+      <c r="AQ153">
+        <v>1.77</v>
+      </c>
+      <c r="AR153">
+        <v>1.19</v>
+      </c>
+      <c r="AS153">
+        <v>1.38</v>
+      </c>
+      <c r="AT153">
+        <v>2.57</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>4</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>8</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>1</v>
+      </c>
+      <c r="BC153">
+        <v>5</v>
+      </c>
+      <c r="BD153">
+        <v>2.35</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>1.78</v>
+      </c>
+      <c r="BG153">
+        <v>1.3</v>
+      </c>
+      <c r="BH153">
+        <v>3.2</v>
+      </c>
+      <c r="BI153">
+        <v>1.62</v>
+      </c>
+      <c r="BJ153">
+        <v>2.1</v>
+      </c>
+      <c r="BK153">
+        <v>2.09</v>
+      </c>
+      <c r="BL153">
+        <v>1.66</v>
+      </c>
+      <c r="BM153">
+        <v>2.75</v>
+      </c>
+      <c r="BN153">
+        <v>1.37</v>
+      </c>
+      <c r="BO153">
+        <v>3.6</v>
+      </c>
+      <c r="BP153">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7372731</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>71</v>
+      </c>
+      <c r="H154" t="s">
+        <v>80</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154" t="s">
+        <v>183</v>
+      </c>
+      <c r="P154" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q154">
+        <v>2.49</v>
+      </c>
+      <c r="R154">
+        <v>2.03</v>
+      </c>
+      <c r="S154">
+        <v>4.75</v>
+      </c>
+      <c r="T154">
+        <v>1.45</v>
+      </c>
+      <c r="U154">
+        <v>2.63</v>
+      </c>
+      <c r="V154">
+        <v>2.99</v>
+      </c>
+      <c r="W154">
+        <v>1.36</v>
+      </c>
+      <c r="X154">
+        <v>7.7</v>
+      </c>
+      <c r="Y154">
+        <v>1.06</v>
+      </c>
+      <c r="Z154">
+        <v>1.83</v>
+      </c>
+      <c r="AA154">
+        <v>3.45</v>
+      </c>
+      <c r="AB154">
+        <v>4</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>7.9</v>
+      </c>
+      <c r="AE154">
+        <v>1.32</v>
+      </c>
+      <c r="AF154">
+        <v>2.98</v>
+      </c>
+      <c r="AG154">
+        <v>2.05</v>
+      </c>
+      <c r="AH154">
+        <v>1.68</v>
+      </c>
+      <c r="AI154">
+        <v>1.87</v>
+      </c>
+      <c r="AJ154">
+        <v>1.83</v>
+      </c>
+      <c r="AK154">
+        <v>1.22</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.86</v>
+      </c>
+      <c r="AN154">
+        <v>1.46</v>
+      </c>
+      <c r="AO154">
+        <v>0.17</v>
+      </c>
+      <c r="AP154">
+        <v>1.57</v>
+      </c>
+      <c r="AQ154">
+        <v>0.15</v>
+      </c>
+      <c r="AR154">
+        <v>1.33</v>
+      </c>
+      <c r="AS154">
+        <v>1.18</v>
+      </c>
+      <c r="AT154">
+        <v>2.51</v>
+      </c>
+      <c r="AU154">
+        <v>2</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>7</v>
+      </c>
+      <c r="AZ154">
+        <v>4</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>5</v>
+      </c>
+      <c r="BC154">
+        <v>7</v>
+      </c>
+      <c r="BD154">
+        <v>1.48</v>
+      </c>
+      <c r="BE154">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF154">
+        <v>3.1</v>
+      </c>
+      <c r="BG154">
+        <v>1.26</v>
+      </c>
+      <c r="BH154">
+        <v>3.6</v>
+      </c>
+      <c r="BI154">
+        <v>1.37</v>
+      </c>
+      <c r="BJ154">
+        <v>2.75</v>
+      </c>
+      <c r="BK154">
+        <v>1.67</v>
+      </c>
+      <c r="BL154">
+        <v>2.07</v>
+      </c>
+      <c r="BM154">
+        <v>2.09</v>
+      </c>
+      <c r="BN154">
+        <v>1.63</v>
+      </c>
+      <c r="BO154">
+        <v>2.9</v>
+      </c>
+      <c r="BP154">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7372730</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>72</v>
+      </c>
+      <c r="H155" t="s">
+        <v>77</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>84</v>
+      </c>
+      <c r="P155" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q155">
+        <v>3.5</v>
+      </c>
+      <c r="R155">
+        <v>2.06</v>
+      </c>
+      <c r="S155">
+        <v>3</v>
+      </c>
+      <c r="T155">
+        <v>1.41</v>
+      </c>
+      <c r="U155">
+        <v>2.78</v>
+      </c>
+      <c r="V155">
+        <v>2.82</v>
+      </c>
+      <c r="W155">
+        <v>1.4</v>
+      </c>
+      <c r="X155">
+        <v>7</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>3.2</v>
+      </c>
+      <c r="AA155">
+        <v>3.2</v>
+      </c>
+      <c r="AB155">
+        <v>2.15</v>
+      </c>
+      <c r="AC155">
+        <v>1.02</v>
+      </c>
+      <c r="AD155">
+        <v>8.6</v>
+      </c>
+      <c r="AE155">
+        <v>1.28</v>
+      </c>
+      <c r="AF155">
+        <v>3.2</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.73</v>
+      </c>
+      <c r="AI155">
+        <v>1.71</v>
+      </c>
+      <c r="AJ155">
+        <v>2.02</v>
+      </c>
+      <c r="AK155">
+        <v>1.53</v>
+      </c>
+      <c r="AL155">
+        <v>1.31</v>
+      </c>
+      <c r="AM155">
+        <v>1.4</v>
+      </c>
+      <c r="AN155">
+        <v>0.83</v>
+      </c>
+      <c r="AO155">
+        <v>1.15</v>
+      </c>
+      <c r="AP155">
+        <v>0.85</v>
+      </c>
+      <c r="AQ155">
+        <v>1.14</v>
+      </c>
+      <c r="AR155">
+        <v>1.29</v>
+      </c>
+      <c r="AS155">
+        <v>1.72</v>
+      </c>
+      <c r="AT155">
+        <v>3.01</v>
+      </c>
+      <c r="AU155">
+        <v>3</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>4</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>7</v>
+      </c>
+      <c r="AZ155">
+        <v>6</v>
+      </c>
+      <c r="BA155">
+        <v>8</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>13</v>
+      </c>
+      <c r="BD155">
+        <v>2.64</v>
+      </c>
+      <c r="BE155">
+        <v>9.1</v>
+      </c>
+      <c r="BF155">
+        <v>1.62</v>
+      </c>
+      <c r="BG155">
+        <v>1.27</v>
+      </c>
+      <c r="BH155">
+        <v>3.5</v>
+      </c>
+      <c r="BI155">
+        <v>1.38</v>
+      </c>
+      <c r="BJ155">
+        <v>2.71</v>
+      </c>
+      <c r="BK155">
+        <v>1.69</v>
+      </c>
+      <c r="BL155">
+        <v>2.04</v>
+      </c>
+      <c r="BM155">
+        <v>2.12</v>
+      </c>
+      <c r="BN155">
+        <v>1.61</v>
+      </c>
+      <c r="BO155">
+        <v>2.85</v>
+      </c>
+      <c r="BP155">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7372729</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45388.54166666666</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>73</v>
+      </c>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>84</v>
+      </c>
+      <c r="P156" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q156">
+        <v>3.86</v>
+      </c>
+      <c r="R156">
+        <v>2.13</v>
+      </c>
+      <c r="S156">
+        <v>2.66</v>
+      </c>
+      <c r="T156">
+        <v>1.38</v>
+      </c>
+      <c r="U156">
+        <v>2.9</v>
+      </c>
+      <c r="V156">
+        <v>2.67</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>6.4</v>
+      </c>
+      <c r="Y156">
+        <v>1.09</v>
+      </c>
+      <c r="Z156">
+        <v>3.1</v>
+      </c>
+      <c r="AA156">
+        <v>3.35</v>
+      </c>
+      <c r="AB156">
+        <v>2.15</v>
+      </c>
+      <c r="AC156">
+        <v>1.01</v>
+      </c>
+      <c r="AD156">
+        <v>9.4</v>
+      </c>
+      <c r="AE156">
+        <v>1.23</v>
+      </c>
+      <c r="AF156">
+        <v>3.56</v>
+      </c>
+      <c r="AG156">
+        <v>1.76</v>
+      </c>
+      <c r="AH156">
+        <v>1.96</v>
+      </c>
+      <c r="AI156">
+        <v>1.66</v>
+      </c>
+      <c r="AJ156">
+        <v>2.09</v>
+      </c>
+      <c r="AK156">
+        <v>1.69</v>
+      </c>
+      <c r="AL156">
+        <v>1.29</v>
+      </c>
+      <c r="AM156">
+        <v>1.31</v>
+      </c>
+      <c r="AN156">
+        <v>1.08</v>
+      </c>
+      <c r="AO156">
+        <v>1.92</v>
+      </c>
+      <c r="AP156">
+        <v>1</v>
+      </c>
+      <c r="AQ156">
+        <v>2</v>
+      </c>
+      <c r="AR156">
+        <v>1.13</v>
+      </c>
+      <c r="AS156">
+        <v>1.44</v>
+      </c>
+      <c r="AT156">
+        <v>2.57</v>
+      </c>
+      <c r="AU156">
+        <v>3</v>
+      </c>
+      <c r="AV156">
+        <v>3</v>
+      </c>
+      <c r="AW156">
+        <v>6</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>6</v>
+      </c>
+      <c r="BA156">
+        <v>3</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>3</v>
+      </c>
+      <c r="BD156">
+        <v>2.09</v>
+      </c>
+      <c r="BE156">
+        <v>9</v>
+      </c>
+      <c r="BF156">
+        <v>1.94</v>
+      </c>
+      <c r="BG156">
+        <v>1.23</v>
+      </c>
+      <c r="BH156">
+        <v>4</v>
+      </c>
+      <c r="BI156">
+        <v>1.37</v>
+      </c>
+      <c r="BJ156">
+        <v>2.75</v>
+      </c>
+      <c r="BK156">
+        <v>1.67</v>
+      </c>
+      <c r="BL156">
+        <v>2.07</v>
+      </c>
+      <c r="BM156">
+        <v>2.09</v>
+      </c>
+      <c r="BN156">
+        <v>1.63</v>
+      </c>
+      <c r="BO156">
+        <v>2.85</v>
+      </c>
+      <c r="BP156">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>['34', '39', '69', '74']</t>
+  </si>
+  <si>
+    <t>['1', '8', '16']</t>
   </si>
   <si>
     <t>['34', '41', '90+2', '90+5']</t>
@@ -1170,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1510,7 +1513,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2459,7 +2462,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2665,7 +2668,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3077,7 +3080,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3155,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ10">
         <v>0.62</v>
@@ -3901,7 +3904,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4313,7 +4316,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4519,7 +4522,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4725,7 +4728,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4931,7 +4934,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5343,7 +5346,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5630,7 +5633,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5755,7 +5758,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5961,7 +5964,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6167,7 +6170,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6245,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6373,7 +6376,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6579,7 +6582,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7403,7 +7406,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7815,7 +7818,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8021,7 +8024,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8102,7 +8105,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8433,7 +8436,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8639,7 +8642,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9129,7 +9132,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ39">
         <v>2.62</v>
@@ -9257,7 +9260,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9463,7 +9466,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9669,7 +9672,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9875,7 +9878,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9956,7 +9959,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ43">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR43">
         <v>0.92</v>
@@ -10081,7 +10084,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10493,7 +10496,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10699,7 +10702,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11111,7 +11114,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11729,7 +11732,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11935,7 +11938,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12219,7 +12222,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ54">
         <v>1.77</v>
@@ -12965,7 +12968,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13043,10 +13046,10 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13377,7 +13380,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13583,7 +13586,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13789,7 +13792,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13995,7 +13998,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14613,7 +14616,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14819,7 +14822,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15025,7 +15028,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15103,7 +15106,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ68">
         <v>0.54</v>
@@ -15231,7 +15234,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15437,7 +15440,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15643,7 +15646,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -16055,7 +16058,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16261,7 +16264,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16673,7 +16676,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -17291,7 +17294,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17372,7 +17375,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR79">
         <v>2.38</v>
@@ -17703,7 +17706,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17784,7 +17787,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>1.48</v>
@@ -17909,7 +17912,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18193,7 +18196,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ83">
         <v>1.17</v>
@@ -18527,7 +18530,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19017,7 +19020,7 @@
         <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ87">
         <v>0.15</v>
@@ -19145,7 +19148,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19351,7 +19354,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19763,7 +19766,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19969,7 +19972,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20175,7 +20178,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20256,7 +20259,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR93">
         <v>1.85</v>
@@ -20587,7 +20590,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20999,7 +21002,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21411,7 +21414,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21617,7 +21620,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22029,7 +22032,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22313,7 +22316,7 @@
         <v>1.38</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ103">
         <v>1.14</v>
@@ -22522,7 +22525,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22647,7 +22650,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -23471,7 +23474,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23677,7 +23680,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23883,7 +23886,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24167,7 +24170,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ112">
         <v>0.67</v>
@@ -24295,7 +24298,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24707,7 +24710,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24913,7 +24916,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25200,7 +25203,7 @@
         <v>1</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR117">
         <v>1.1</v>
@@ -25531,7 +25534,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25737,7 +25740,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25943,7 +25946,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26355,7 +26358,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26767,7 +26770,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26973,7 +26976,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27385,7 +27388,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27463,7 +27466,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ128">
         <v>1.23</v>
@@ -27591,7 +27594,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28209,7 +28212,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28290,7 +28293,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28621,7 +28624,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28827,7 +28830,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29033,7 +29036,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29445,7 +29448,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29526,7 +29529,7 @@
         <v>2.15</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR138">
         <v>2.1</v>
@@ -30269,7 +30272,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30475,7 +30478,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30759,7 +30762,7 @@
         <v>1.45</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AQ144">
         <v>1.23</v>
@@ -30887,7 +30890,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31093,7 +31096,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31299,7 +31302,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31505,7 +31508,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31917,7 +31920,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -31998,7 +32001,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR150">
         <v>1.77</v>
@@ -32329,7 +32332,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32628,22 +32631,22 @@
         <v>2.57</v>
       </c>
       <c r="AU153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW153">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY153">
+        <v>11</v>
+      </c>
+      <c r="AZ153">
         <v>6</v>
-      </c>
-      <c r="AZ153">
-        <v>8</v>
       </c>
       <c r="BA153">
         <v>4</v>
@@ -32741,7 +32744,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -32855,10 +32858,10 @@
         <v>2</v>
       </c>
       <c r="BB154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC154">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD154">
         <v>1.48</v>
@@ -33040,10 +33043,10 @@
         <v>3.01</v>
       </c>
       <c r="AU155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW155">
         <v>4</v>
@@ -33052,10 +33055,10 @@
         <v>2</v>
       </c>
       <c r="AY155">
+        <v>8</v>
+      </c>
+      <c r="AZ155">
         <v>7</v>
-      </c>
-      <c r="AZ155">
-        <v>6</v>
       </c>
       <c r="BA155">
         <v>8</v>
@@ -33153,7 +33156,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33246,31 +33249,31 @@
         <v>2.57</v>
       </c>
       <c r="AU156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV156">
         <v>3</v>
       </c>
       <c r="AW156">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AX156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY156">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB156">
         <v>0</v>
       </c>
       <c r="BC156">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BD156">
         <v>2.09</v>
@@ -33310,6 +33313,212 @@
       </c>
       <c r="BP156">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7372728</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45389.52083333334</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>78</v>
+      </c>
+      <c r="H157" t="s">
+        <v>81</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>4</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>4</v>
+      </c>
+      <c r="O157" t="s">
+        <v>184</v>
+      </c>
+      <c r="P157" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q157">
+        <v>2.4</v>
+      </c>
+      <c r="R157">
+        <v>2.2</v>
+      </c>
+      <c r="S157">
+        <v>4</v>
+      </c>
+      <c r="T157">
+        <v>1.35</v>
+      </c>
+      <c r="U157">
+        <v>3.04</v>
+      </c>
+      <c r="V157">
+        <v>2.63</v>
+      </c>
+      <c r="W157">
+        <v>1.45</v>
+      </c>
+      <c r="X157">
+        <v>6.2</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>1.85</v>
+      </c>
+      <c r="AA157">
+        <v>3.2</v>
+      </c>
+      <c r="AB157">
+        <v>3.5</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>9.9</v>
+      </c>
+      <c r="AE157">
+        <v>1.23</v>
+      </c>
+      <c r="AF157">
+        <v>3.56</v>
+      </c>
+      <c r="AG157">
+        <v>1.81</v>
+      </c>
+      <c r="AH157">
+        <v>2.01</v>
+      </c>
+      <c r="AI157">
+        <v>1.69</v>
+      </c>
+      <c r="AJ157">
+        <v>2.04</v>
+      </c>
+      <c r="AK157">
+        <v>1.24</v>
+      </c>
+      <c r="AL157">
+        <v>1.26</v>
+      </c>
+      <c r="AM157">
+        <v>1.89</v>
+      </c>
+      <c r="AN157">
+        <v>2</v>
+      </c>
+      <c r="AO157">
+        <v>1</v>
+      </c>
+      <c r="AP157">
+        <v>2.08</v>
+      </c>
+      <c r="AQ157">
+        <v>0.93</v>
+      </c>
+      <c r="AR157">
+        <v>1.66</v>
+      </c>
+      <c r="AS157">
+        <v>1.75</v>
+      </c>
+      <c r="AT157">
+        <v>3.41</v>
+      </c>
+      <c r="AU157">
+        <v>2</v>
+      </c>
+      <c r="AV157">
+        <v>2</v>
+      </c>
+      <c r="AW157">
+        <v>2</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>4</v>
+      </c>
+      <c r="AZ157">
+        <v>2</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>1</v>
+      </c>
+      <c r="BC157">
+        <v>1</v>
+      </c>
+      <c r="BD157">
+        <v>1.7</v>
+      </c>
+      <c r="BE157">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF157">
+        <v>2.44</v>
+      </c>
+      <c r="BG157">
+        <v>1.15</v>
+      </c>
+      <c r="BH157">
+        <v>5.1</v>
+      </c>
+      <c r="BI157">
+        <v>1.29</v>
+      </c>
+      <c r="BJ157">
+        <v>3.4</v>
+      </c>
+      <c r="BK157">
+        <v>1.46</v>
+      </c>
+      <c r="BL157">
+        <v>2.45</v>
+      </c>
+      <c r="BM157">
+        <v>1.8</v>
+      </c>
+      <c r="BN157">
+        <v>1.9</v>
+      </c>
+      <c r="BO157">
+        <v>1.95</v>
+      </c>
+      <c r="BP157">
+        <v>1.85</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -32837,22 +32837,22 @@
         <v>2.51</v>
       </c>
       <c r="AU154">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV154">
         <v>4</v>
       </c>
       <c r="AW154">
+        <v>3</v>
+      </c>
+      <c r="AX154">
+        <v>1</v>
+      </c>
+      <c r="AY154">
+        <v>10</v>
+      </c>
+      <c r="AZ154">
         <v>5</v>
-      </c>
-      <c r="AX154">
-        <v>0</v>
-      </c>
-      <c r="AY154">
-        <v>7</v>
-      </c>
-      <c r="AZ154">
-        <v>4</v>
       </c>
       <c r="BA154">
         <v>2</v>
@@ -33046,19 +33046,19 @@
         <v>4</v>
       </c>
       <c r="AV155">
+        <v>6</v>
+      </c>
+      <c r="AW155">
         <v>5</v>
       </c>
-      <c r="AW155">
-        <v>4</v>
-      </c>
       <c r="AX155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ155">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA155">
         <v>8</v>
@@ -33252,19 +33252,19 @@
         <v>4</v>
       </c>
       <c r="AV156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW156">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX156">
         <v>4</v>
       </c>
       <c r="AY156">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA156">
         <v>8</v>
@@ -33455,31 +33455,31 @@
         <v>3.41</v>
       </c>
       <c r="AU157">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW157">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY157">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ157">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC157">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BD157">
         <v>1.7</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1173,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2334,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -4600,7 +4600,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ17">
         <v>1.14</v>
@@ -5221,7 +5221,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR20">
         <v>1.62</v>
@@ -6660,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ27">
         <v>0.15</v>
@@ -7075,7 +7075,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ29">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -8720,7 +8720,7 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -10577,7 +10577,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ46">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR46">
         <v>1.65</v>
@@ -11192,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -14076,7 +14076,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ63">
         <v>1.31</v>
@@ -14491,7 +14491,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ65">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR65">
         <v>2.21</v>
@@ -16963,7 +16963,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17372,7 +17372,7 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ79">
         <v>0.93</v>
@@ -18199,7 +18199,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -19638,7 +19638,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ90">
         <v>0.62</v>
@@ -21083,7 +21083,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ97">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR97">
         <v>1.56</v>
@@ -21286,7 +21286,7 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ98">
         <v>1.77</v>
@@ -22731,7 +22731,7 @@
         <v>1</v>
       </c>
       <c r="AQ105">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR105">
         <v>1.07</v>
@@ -23758,7 +23758,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ110">
         <v>2.62</v>
@@ -25615,7 +25615,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ119">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR119">
         <v>1.19</v>
@@ -26436,7 +26436,7 @@
         <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ123">
         <v>0.54</v>
@@ -26851,7 +26851,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ125">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -29526,7 +29526,7 @@
         <v>1.18</v>
       </c>
       <c r="AP138">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ138">
         <v>0.93</v>
@@ -30353,7 +30353,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ142">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AR142">
         <v>1.8</v>
@@ -32410,7 +32410,7 @@
         <v>2.58</v>
       </c>
       <c r="AP152">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="AQ152">
         <v>2.62</v>
@@ -33519,6 +33519,212 @@
       </c>
       <c r="BP157">
         <v>1.85</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7372737</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45394.52083333334</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" t="s">
+        <v>76</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158" t="s">
+        <v>84</v>
+      </c>
+      <c r="P158" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q158">
+        <v>2.38</v>
+      </c>
+      <c r="R158">
+        <v>2.35</v>
+      </c>
+      <c r="S158">
+        <v>4.52</v>
+      </c>
+      <c r="T158">
+        <v>1.33</v>
+      </c>
+      <c r="U158">
+        <v>3.25</v>
+      </c>
+      <c r="V158">
+        <v>2.65</v>
+      </c>
+      <c r="W158">
+        <v>1.46</v>
+      </c>
+      <c r="X158">
+        <v>6.1</v>
+      </c>
+      <c r="Y158">
+        <v>1.1</v>
+      </c>
+      <c r="Z158">
+        <v>1.8</v>
+      </c>
+      <c r="AA158">
+        <v>3.85</v>
+      </c>
+      <c r="AB158">
+        <v>3.75</v>
+      </c>
+      <c r="AC158">
+        <v>1.01</v>
+      </c>
+      <c r="AD158">
+        <v>10.25</v>
+      </c>
+      <c r="AE158">
+        <v>1.22</v>
+      </c>
+      <c r="AF158">
+        <v>3.65</v>
+      </c>
+      <c r="AG158">
+        <v>1.75</v>
+      </c>
+      <c r="AH158">
+        <v>1.95</v>
+      </c>
+      <c r="AI158">
+        <v>1.68</v>
+      </c>
+      <c r="AJ158">
+        <v>2.13</v>
+      </c>
+      <c r="AK158">
+        <v>1.24</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.9</v>
+      </c>
+      <c r="AN158">
+        <v>2.15</v>
+      </c>
+      <c r="AO158">
+        <v>1.17</v>
+      </c>
+      <c r="AP158">
+        <v>2.07</v>
+      </c>
+      <c r="AQ158">
+        <v>1.15</v>
+      </c>
+      <c r="AR158">
+        <v>1.99</v>
+      </c>
+      <c r="AS158">
+        <v>1.27</v>
+      </c>
+      <c r="AT158">
+        <v>3.26</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>2</v>
+      </c>
+      <c r="AW158">
+        <v>6</v>
+      </c>
+      <c r="AX158">
+        <v>1</v>
+      </c>
+      <c r="AY158">
+        <v>13</v>
+      </c>
+      <c r="AZ158">
+        <v>3</v>
+      </c>
+      <c r="BA158">
+        <v>11</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>1.51</v>
+      </c>
+      <c r="BE158">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF158">
+        <v>2.99</v>
+      </c>
+      <c r="BG158">
+        <v>1.26</v>
+      </c>
+      <c r="BH158">
+        <v>3.45</v>
+      </c>
+      <c r="BI158">
+        <v>1.46</v>
+      </c>
+      <c r="BJ158">
+        <v>2.52</v>
+      </c>
+      <c r="BK158">
+        <v>1.82</v>
+      </c>
+      <c r="BL158">
+        <v>1.88</v>
+      </c>
+      <c r="BM158">
+        <v>2.33</v>
+      </c>
+      <c r="BN158">
+        <v>1.53</v>
+      </c>
+      <c r="BO158">
+        <v>3.14</v>
+      </c>
+      <c r="BP158">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -33661,31 +33661,31 @@
         <v>3.26</v>
       </c>
       <c r="AU158">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV158">
         <v>2</v>
       </c>
       <c r="AW158">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AX158">
         <v>1</v>
       </c>
       <c r="AY158">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ158">
         <v>3</v>
       </c>
       <c r="BA158">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BB158">
         <v>2</v>
       </c>
       <c r="BC158">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="BD158">
         <v>1.51</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,12 @@
     <t>['1', '8', '16']</t>
   </si>
   <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['31', '45+1', '54', '85']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -778,9 +784,6 @@
     <t>['51', '66']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['63', '82']</t>
   </si>
   <si>
@@ -812,6 +815,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['27', '82']</t>
+  </si>
+  <si>
+    <t>['37', '59']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1441,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1510,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -1719,7 +1728,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1925,7 +1934,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2128,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ5">
         <v>2.62</v>
@@ -2462,7 +2471,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2668,7 +2677,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2749,7 +2758,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2952,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ9">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3080,7 +3089,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3364,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3573,7 +3582,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ12">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3776,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ13">
         <v>1.23</v>
@@ -3904,7 +3913,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4188,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ15">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR15">
         <v>2.18</v>
@@ -4316,7 +4325,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4522,7 +4531,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4728,7 +4737,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4809,7 +4818,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ18">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4934,7 +4943,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5012,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -5218,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ20">
         <v>1.15</v>
@@ -5346,7 +5355,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5424,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ21">
         <v>1.23</v>
@@ -5758,7 +5767,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5839,7 +5848,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ23">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>2.11</v>
@@ -5964,7 +5973,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6170,7 +6179,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6376,7 +6385,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6454,7 +6463,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ26">
         <v>1.14</v>
@@ -6582,7 +6591,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6663,7 +6672,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ27">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR27">
         <v>1.94</v>
@@ -6869,7 +6878,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR28">
         <v>1.17</v>
@@ -7072,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ29">
         <v>1.15</v>
@@ -7278,10 +7287,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR30">
         <v>1</v>
@@ -7406,7 +7415,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7487,7 +7496,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ31">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR31">
         <v>1.13</v>
@@ -7690,10 +7699,10 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ32">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR32">
         <v>1.62</v>
@@ -7818,7 +7827,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8024,7 +8033,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8102,7 +8111,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ34">
         <v>0.93</v>
@@ -8308,10 +8317,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR35">
         <v>2.02</v>
@@ -8436,7 +8445,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8517,7 +8526,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ36">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8642,7 +8651,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9260,7 +9269,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9466,7 +9475,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9544,7 +9553,7 @@
         <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ41">
         <v>1.14</v>
@@ -9672,7 +9681,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9750,10 +9759,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9878,7 +9887,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10084,7 +10093,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10165,7 +10174,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ44">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.23</v>
@@ -10368,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ45">
         <v>1.23</v>
@@ -10496,7 +10505,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10702,7 +10711,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11114,7 +11123,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11195,7 +11204,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR49">
         <v>2.11</v>
@@ -11398,7 +11407,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11607,7 +11616,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ51">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.18</v>
@@ -11732,7 +11741,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11810,7 +11819,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ52">
         <v>0.62</v>
@@ -11938,7 +11947,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12225,7 +12234,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ54">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12431,7 +12440,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ55">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12968,7 +12977,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13252,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ59">
         <v>1.14</v>
@@ -13380,7 +13389,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13458,10 +13467,10 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13586,7 +13595,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13667,7 +13676,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ61">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR61">
         <v>1.51</v>
@@ -13792,7 +13801,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13870,7 +13879,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13998,7 +14007,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14079,7 +14088,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ63">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>2.28</v>
@@ -14282,10 +14291,10 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR64">
         <v>1.87</v>
@@ -14488,7 +14497,7 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ65">
         <v>1.15</v>
@@ -14616,7 +14625,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14822,7 +14831,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14900,7 +14909,7 @@
         <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ67">
         <v>2</v>
@@ -15028,7 +15037,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15109,7 +15118,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ68">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>1.58</v>
@@ -15234,7 +15243,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15315,7 +15324,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR69">
         <v>1.47</v>
@@ -15440,7 +15449,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15646,7 +15655,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15724,10 +15733,10 @@
         <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ71">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR71">
         <v>1.94</v>
@@ -15930,7 +15939,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ72">
         <v>0.62</v>
@@ -16058,7 +16067,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16136,10 +16145,10 @@
         <v>0.4</v>
       </c>
       <c r="AP73">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ73">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.57</v>
@@ -16264,7 +16273,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16342,10 +16351,10 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ74">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR74">
         <v>1.03</v>
@@ -16676,7 +16685,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16754,7 +16763,7 @@
         <v>2.17</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
         <v>2.62</v>
@@ -17169,7 +17178,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ78">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17294,7 +17303,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17578,7 +17587,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ80">
         <v>1.23</v>
@@ -17706,7 +17715,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17912,7 +17921,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -17990,10 +17999,10 @@
         <v>0.33</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ82">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18402,10 +18411,10 @@
         <v>0.67</v>
       </c>
       <c r="AP84">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR84">
         <v>1.57</v>
@@ -18530,7 +18539,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18608,10 +18617,10 @@
         <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ85">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR85">
         <v>1.01</v>
@@ -19023,7 +19032,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ87">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR87">
         <v>1.82</v>
@@ -19148,7 +19157,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19354,7 +19363,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19766,7 +19775,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19844,10 +19853,10 @@
         <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ91">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -19972,7 +19981,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20050,10 +20059,10 @@
         <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ92">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1</v>
@@ -20178,7 +20187,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20256,7 +20265,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ93">
         <v>0.93</v>
@@ -20462,10 +20471,10 @@
         <v>1.57</v>
       </c>
       <c r="AP94">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ94">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.43</v>
@@ -20590,7 +20599,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20877,7 +20886,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ96">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21002,7 +21011,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21080,7 +21089,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ97">
         <v>1.15</v>
@@ -21289,7 +21298,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ98">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR98">
         <v>2.32</v>
@@ -21414,7 +21423,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21495,7 +21504,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR99">
         <v>1.14</v>
@@ -21620,7 +21629,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21698,7 +21707,7 @@
         <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ100">
         <v>2.62</v>
@@ -22032,7 +22041,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22650,7 +22659,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22728,7 +22737,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ105">
         <v>1.15</v>
@@ -22934,7 +22943,7 @@
         <v>1.75</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
         <v>1.23</v>
@@ -23140,10 +23149,10 @@
         <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ107">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR107">
         <v>1.78</v>
@@ -23349,7 +23358,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ108">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR108">
         <v>1.62</v>
@@ -23474,7 +23483,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23552,10 +23561,10 @@
         <v>1.5</v>
       </c>
       <c r="AP109">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ109">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR109">
         <v>1.71</v>
@@ -23680,7 +23689,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23886,7 +23895,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24173,7 +24182,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ112">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24298,7 +24307,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24376,10 +24385,10 @@
         <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ113">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.89</v>
@@ -24585,7 +24594,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ114">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR114">
         <v>1.25</v>
@@ -24710,7 +24719,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24788,7 +24797,7 @@
         <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ115">
         <v>0.62</v>
@@ -24916,7 +24925,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -24994,7 +25003,7 @@
         <v>1.33</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ116">
         <v>1.14</v>
@@ -25200,7 +25209,7 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ117">
         <v>0.93</v>
@@ -25534,7 +25543,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25740,7 +25749,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25818,10 +25827,10 @@
         <v>0.11</v>
       </c>
       <c r="AP120">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ120">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -25946,7 +25955,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26027,7 +26036,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ121">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR121">
         <v>1.68</v>
@@ -26230,10 +26239,10 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR122">
         <v>1.12</v>
@@ -26358,7 +26367,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26439,7 +26448,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ123">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR123">
         <v>2.14</v>
@@ -26770,7 +26779,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26976,7 +26985,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27054,7 +27063,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ126">
         <v>2.62</v>
@@ -27260,10 +27269,10 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ127">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
         <v>1.85</v>
@@ -27388,7 +27397,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27594,7 +27603,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27675,7 +27684,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ129">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR129">
         <v>1.17</v>
@@ -28084,7 +28093,7 @@
         <v>0.4</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ131">
         <v>0.62</v>
@@ -28212,7 +28221,7 @@
         <v>172</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="Q132">
         <v>3.5</v>
@@ -28496,10 +28505,10 @@
         <v>2</v>
       </c>
       <c r="AP133">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ133">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR133">
         <v>1.83</v>
@@ -28624,7 +28633,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28830,7 +28839,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28911,7 +28920,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ135">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR135">
         <v>1.43</v>
@@ -29036,7 +29045,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29320,7 +29329,7 @@
         <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ137">
         <v>1.14</v>
@@ -29448,7 +29457,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29735,7 +29744,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ139">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR139">
         <v>1.73</v>
@@ -30144,10 +30153,10 @@
         <v>0.09</v>
       </c>
       <c r="AP141">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -30272,7 +30281,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30350,7 +30359,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ142">
         <v>1.15</v>
@@ -30478,7 +30487,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30556,10 +30565,10 @@
         <v>0.45</v>
       </c>
       <c r="AP143">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ143">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AR143">
         <v>1.96</v>
@@ -30890,7 +30899,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -30968,10 +30977,10 @@
         <v>1.82</v>
       </c>
       <c r="AP145">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ145">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31096,7 +31105,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31177,7 +31186,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ146">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR146">
         <v>1.19</v>
@@ -31302,7 +31311,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31508,7 +31517,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31586,7 +31595,7 @@
         <v>1.25</v>
       </c>
       <c r="AP148">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
         <v>1.14</v>
@@ -31795,7 +31804,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ149">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AR149">
         <v>1.35</v>
@@ -31920,7 +31929,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -31998,7 +32007,7 @@
         <v>1.08</v>
       </c>
       <c r="AP150">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AQ150">
         <v>0.93</v>
@@ -32332,7 +32341,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32619,7 +32628,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ153">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -32744,7 +32753,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -32825,7 +32834,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ154">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33156,7 +33165,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33234,7 +33243,7 @@
         <v>1.92</v>
       </c>
       <c r="AP156">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ156">
         <v>2</v>
@@ -33725,6 +33734,1036 @@
       </c>
       <c r="BP158">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7372739</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45395.4375</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H159" t="s">
+        <v>78</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159" t="s">
+        <v>84</v>
+      </c>
+      <c r="P159" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q159">
+        <v>2.05</v>
+      </c>
+      <c r="R159">
+        <v>2.38</v>
+      </c>
+      <c r="S159">
+        <v>5.25</v>
+      </c>
+      <c r="T159">
+        <v>1.33</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.4</v>
+      </c>
+      <c r="W159">
+        <v>1.5</v>
+      </c>
+      <c r="X159">
+        <v>5.5</v>
+      </c>
+      <c r="Y159">
+        <v>1.11</v>
+      </c>
+      <c r="Z159">
+        <v>1.55</v>
+      </c>
+      <c r="AA159">
+        <v>4.2</v>
+      </c>
+      <c r="AB159">
+        <v>5.52</v>
+      </c>
+      <c r="AC159">
+        <v>1.02</v>
+      </c>
+      <c r="AD159">
+        <v>10</v>
+      </c>
+      <c r="AE159">
+        <v>1.25</v>
+      </c>
+      <c r="AF159">
+        <v>3.6</v>
+      </c>
+      <c r="AG159">
+        <v>1.73</v>
+      </c>
+      <c r="AH159">
+        <v>2</v>
+      </c>
+      <c r="AI159">
+        <v>1.8</v>
+      </c>
+      <c r="AJ159">
+        <v>1.91</v>
+      </c>
+      <c r="AK159">
+        <v>1.17</v>
+      </c>
+      <c r="AL159">
+        <v>1.22</v>
+      </c>
+      <c r="AM159">
+        <v>2.38</v>
+      </c>
+      <c r="AN159">
+        <v>2.46</v>
+      </c>
+      <c r="AO159">
+        <v>1.31</v>
+      </c>
+      <c r="AP159">
+        <v>2.36</v>
+      </c>
+      <c r="AQ159">
+        <v>1.29</v>
+      </c>
+      <c r="AR159">
+        <v>1.77</v>
+      </c>
+      <c r="AS159">
+        <v>1.23</v>
+      </c>
+      <c r="AT159">
+        <v>3</v>
+      </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>2</v>
+      </c>
+      <c r="AY159">
+        <v>8</v>
+      </c>
+      <c r="AZ159">
+        <v>6</v>
+      </c>
+      <c r="BA159">
+        <v>6</v>
+      </c>
+      <c r="BB159">
+        <v>2</v>
+      </c>
+      <c r="BC159">
+        <v>8</v>
+      </c>
+      <c r="BD159">
+        <v>1.39</v>
+      </c>
+      <c r="BE159">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="BF159">
+        <v>4.2</v>
+      </c>
+      <c r="BG159">
+        <v>1.24</v>
+      </c>
+      <c r="BH159">
+        <v>3.66</v>
+      </c>
+      <c r="BI159">
+        <v>1.46</v>
+      </c>
+      <c r="BJ159">
+        <v>2.6</v>
+      </c>
+      <c r="BK159">
+        <v>1.9</v>
+      </c>
+      <c r="BL159">
+        <v>1.9</v>
+      </c>
+      <c r="BM159">
+        <v>2.24</v>
+      </c>
+      <c r="BN159">
+        <v>1.61</v>
+      </c>
+      <c r="BO159">
+        <v>3</v>
+      </c>
+      <c r="BP159">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7372734</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>70</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>84</v>
+      </c>
+      <c r="P160" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q160">
+        <v>2.25</v>
+      </c>
+      <c r="R160">
+        <v>2.24</v>
+      </c>
+      <c r="S160">
+        <v>4.7</v>
+      </c>
+      <c r="T160">
+        <v>1.34</v>
+      </c>
+      <c r="U160">
+        <v>3.1</v>
+      </c>
+      <c r="V160">
+        <v>2.57</v>
+      </c>
+      <c r="W160">
+        <v>1.47</v>
+      </c>
+      <c r="X160">
+        <v>6.05</v>
+      </c>
+      <c r="Y160">
+        <v>1.09</v>
+      </c>
+      <c r="Z160">
+        <v>1.69</v>
+      </c>
+      <c r="AA160">
+        <v>3.92</v>
+      </c>
+      <c r="AB160">
+        <v>4.64</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>10.25</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>3.65</v>
+      </c>
+      <c r="AG160">
+        <v>1.75</v>
+      </c>
+      <c r="AH160">
+        <v>1.95</v>
+      </c>
+      <c r="AI160">
+        <v>1.7</v>
+      </c>
+      <c r="AJ160">
+        <v>2.03</v>
+      </c>
+      <c r="AK160">
+        <v>1.2</v>
+      </c>
+      <c r="AL160">
+        <v>1.24</v>
+      </c>
+      <c r="AM160">
+        <v>2.03</v>
+      </c>
+      <c r="AN160">
+        <v>1.38</v>
+      </c>
+      <c r="AO160">
+        <v>0.54</v>
+      </c>
+      <c r="AP160">
+        <v>1.29</v>
+      </c>
+      <c r="AQ160">
+        <v>0.71</v>
+      </c>
+      <c r="AR160">
+        <v>1.36</v>
+      </c>
+      <c r="AS160">
+        <v>1.35</v>
+      </c>
+      <c r="AT160">
+        <v>2.71</v>
+      </c>
+      <c r="AU160">
+        <v>3</v>
+      </c>
+      <c r="AV160">
+        <v>3</v>
+      </c>
+      <c r="AW160">
+        <v>6</v>
+      </c>
+      <c r="AX160">
+        <v>11</v>
+      </c>
+      <c r="AY160">
+        <v>9</v>
+      </c>
+      <c r="AZ160">
+        <v>14</v>
+      </c>
+      <c r="BA160">
+        <v>6</v>
+      </c>
+      <c r="BB160">
+        <v>6</v>
+      </c>
+      <c r="BC160">
+        <v>12</v>
+      </c>
+      <c r="BD160">
+        <v>1.52</v>
+      </c>
+      <c r="BE160">
+        <v>9</v>
+      </c>
+      <c r="BF160">
+        <v>2.97</v>
+      </c>
+      <c r="BG160">
+        <v>1.15</v>
+      </c>
+      <c r="BH160">
+        <v>4.75</v>
+      </c>
+      <c r="BI160">
+        <v>1.31</v>
+      </c>
+      <c r="BJ160">
+        <v>3.16</v>
+      </c>
+      <c r="BK160">
+        <v>1.55</v>
+      </c>
+      <c r="BL160">
+        <v>2.39</v>
+      </c>
+      <c r="BM160">
+        <v>1.91</v>
+      </c>
+      <c r="BN160">
+        <v>1.89</v>
+      </c>
+      <c r="BO160">
+        <v>2.4</v>
+      </c>
+      <c r="BP160">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7372735</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>73</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>185</v>
+      </c>
+      <c r="P161" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q161">
+        <v>2.93</v>
+      </c>
+      <c r="R161">
+        <v>2</v>
+      </c>
+      <c r="S161">
+        <v>3.78</v>
+      </c>
+      <c r="T161">
+        <v>1.47</v>
+      </c>
+      <c r="U161">
+        <v>2.57</v>
+      </c>
+      <c r="V161">
+        <v>3.2</v>
+      </c>
+      <c r="W161">
+        <v>1.32</v>
+      </c>
+      <c r="X161">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y161">
+        <v>1.04</v>
+      </c>
+      <c r="Z161">
+        <v>2.32</v>
+      </c>
+      <c r="AA161">
+        <v>3.22</v>
+      </c>
+      <c r="AB161">
+        <v>3.09</v>
+      </c>
+      <c r="AC161">
+        <v>1.04</v>
+      </c>
+      <c r="AD161">
+        <v>7.6</v>
+      </c>
+      <c r="AE161">
+        <v>1.36</v>
+      </c>
+      <c r="AF161">
+        <v>2.79</v>
+      </c>
+      <c r="AG161">
+        <v>2.2</v>
+      </c>
+      <c r="AH161">
+        <v>1.6</v>
+      </c>
+      <c r="AI161">
+        <v>1.88</v>
+      </c>
+      <c r="AJ161">
+        <v>1.82</v>
+      </c>
+      <c r="AK161">
+        <v>1.35</v>
+      </c>
+      <c r="AL161">
+        <v>1.32</v>
+      </c>
+      <c r="AM161">
+        <v>1.58</v>
+      </c>
+      <c r="AN161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
+        <v>0.67</v>
+      </c>
+      <c r="AP161">
+        <v>0.93</v>
+      </c>
+      <c r="AQ161">
+        <v>0.85</v>
+      </c>
+      <c r="AR161">
+        <v>1.18</v>
+      </c>
+      <c r="AS161">
+        <v>1.21</v>
+      </c>
+      <c r="AT161">
+        <v>2.39</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>0</v>
+      </c>
+      <c r="AW161">
+        <v>6</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>12</v>
+      </c>
+      <c r="AZ161">
+        <v>3</v>
+      </c>
+      <c r="BA161">
+        <v>3</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>6</v>
+      </c>
+      <c r="BD161">
+        <v>1.82</v>
+      </c>
+      <c r="BE161">
+        <v>7.2</v>
+      </c>
+      <c r="BF161">
+        <v>2.4</v>
+      </c>
+      <c r="BG161">
+        <v>1.32</v>
+      </c>
+      <c r="BH161">
+        <v>3.08</v>
+      </c>
+      <c r="BI161">
+        <v>1.61</v>
+      </c>
+      <c r="BJ161">
+        <v>2.28</v>
+      </c>
+      <c r="BK161">
+        <v>2</v>
+      </c>
+      <c r="BL161">
+        <v>1.8</v>
+      </c>
+      <c r="BM161">
+        <v>2.55</v>
+      </c>
+      <c r="BN161">
+        <v>1.48</v>
+      </c>
+      <c r="BO161">
+        <v>3.36</v>
+      </c>
+      <c r="BP161">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7372736</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45395.54166666666</v>
+      </c>
+      <c r="F162">
+        <v>5</v>
+      </c>
+      <c r="G162" t="s">
+        <v>77</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>2</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>4</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>186</v>
+      </c>
+      <c r="P162" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q162">
+        <v>1.8</v>
+      </c>
+      <c r="R162">
+        <v>2.47</v>
+      </c>
+      <c r="S162">
+        <v>6.9</v>
+      </c>
+      <c r="T162">
+        <v>1.31</v>
+      </c>
+      <c r="U162">
+        <v>3.28</v>
+      </c>
+      <c r="V162">
+        <v>2.46</v>
+      </c>
+      <c r="W162">
+        <v>1.51</v>
+      </c>
+      <c r="X162">
+        <v>5.55</v>
+      </c>
+      <c r="Y162">
+        <v>1.11</v>
+      </c>
+      <c r="Z162">
+        <v>1.28</v>
+      </c>
+      <c r="AA162">
+        <v>5.5</v>
+      </c>
+      <c r="AB162">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC162">
+        <v>1.02</v>
+      </c>
+      <c r="AD162">
+        <v>10</v>
+      </c>
+      <c r="AE162">
+        <v>1.18</v>
+      </c>
+      <c r="AF162">
+        <v>4.1</v>
+      </c>
+      <c r="AG162">
+        <v>1.6</v>
+      </c>
+      <c r="AH162">
+        <v>2.1</v>
+      </c>
+      <c r="AI162">
+        <v>1.94</v>
+      </c>
+      <c r="AJ162">
+        <v>1.77</v>
+      </c>
+      <c r="AK162">
+        <v>1.06</v>
+      </c>
+      <c r="AL162">
+        <v>1.16</v>
+      </c>
+      <c r="AM162">
+        <v>3.05</v>
+      </c>
+      <c r="AN162">
+        <v>1.67</v>
+      </c>
+      <c r="AO162">
+        <v>0.15</v>
+      </c>
+      <c r="AP162">
+        <v>1.77</v>
+      </c>
+      <c r="AQ162">
+        <v>0.14</v>
+      </c>
+      <c r="AR162">
+        <v>1.97</v>
+      </c>
+      <c r="AS162">
+        <v>1.17</v>
+      </c>
+      <c r="AT162">
+        <v>3.14</v>
+      </c>
+      <c r="AU162">
+        <v>9</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>6</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>15</v>
+      </c>
+      <c r="AZ162">
+        <v>5</v>
+      </c>
+      <c r="BA162">
+        <v>7</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.15</v>
+      </c>
+      <c r="BE162">
+        <v>12</v>
+      </c>
+      <c r="BF162">
+        <v>6.4</v>
+      </c>
+      <c r="BG162">
+        <v>1.23</v>
+      </c>
+      <c r="BH162">
+        <v>3.76</v>
+      </c>
+      <c r="BI162">
+        <v>1.31</v>
+      </c>
+      <c r="BJ162">
+        <v>3.14</v>
+      </c>
+      <c r="BK162">
+        <v>1.62</v>
+      </c>
+      <c r="BL162">
+        <v>2.25</v>
+      </c>
+      <c r="BM162">
+        <v>2.01</v>
+      </c>
+      <c r="BN162">
+        <v>1.78</v>
+      </c>
+      <c r="BO162">
+        <v>2.52</v>
+      </c>
+      <c r="BP162">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7372738</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45396.52083333334</v>
+      </c>
+      <c r="F163">
+        <v>5</v>
+      </c>
+      <c r="G163" t="s">
+        <v>81</v>
+      </c>
+      <c r="H163" t="s">
+        <v>75</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>84</v>
+      </c>
+      <c r="P163" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q163">
+        <v>3.82</v>
+      </c>
+      <c r="R163">
+        <v>2.14</v>
+      </c>
+      <c r="S163">
+        <v>2.66</v>
+      </c>
+      <c r="T163">
+        <v>1.38</v>
+      </c>
+      <c r="U163">
+        <v>2.9</v>
+      </c>
+      <c r="V163">
+        <v>2.74</v>
+      </c>
+      <c r="W163">
+        <v>1.42</v>
+      </c>
+      <c r="X163">
+        <v>6.61</v>
+      </c>
+      <c r="Y163">
+        <v>1.08</v>
+      </c>
+      <c r="Z163">
+        <v>2.66</v>
+      </c>
+      <c r="AA163">
+        <v>3.19</v>
+      </c>
+      <c r="AB163">
+        <v>2.56</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE163">
+        <v>1.26</v>
+      </c>
+      <c r="AF163">
+        <v>3.34</v>
+      </c>
+      <c r="AG163">
+        <v>1.89</v>
+      </c>
+      <c r="AH163">
+        <v>1.86</v>
+      </c>
+      <c r="AI163">
+        <v>1.71</v>
+      </c>
+      <c r="AJ163">
+        <v>2.02</v>
+      </c>
+      <c r="AK163">
+        <v>1.69</v>
+      </c>
+      <c r="AL163">
+        <v>1.28</v>
+      </c>
+      <c r="AM163">
+        <v>1.32</v>
+      </c>
+      <c r="AN163">
+        <v>1.75</v>
+      </c>
+      <c r="AO163">
+        <v>1.77</v>
+      </c>
+      <c r="AP163">
+        <v>1.62</v>
+      </c>
+      <c r="AQ163">
+        <v>1.86</v>
+      </c>
+      <c r="AR163">
+        <v>1.81</v>
+      </c>
+      <c r="AS163">
+        <v>1.34</v>
+      </c>
+      <c r="AT163">
+        <v>3.15</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>2</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>5</v>
+      </c>
+      <c r="AY163">
+        <v>8</v>
+      </c>
+      <c r="AZ163">
+        <v>7</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>5</v>
+      </c>
+      <c r="BD163">
+        <v>1.82</v>
+      </c>
+      <c r="BE163">
+        <v>7.3</v>
+      </c>
+      <c r="BF163">
+        <v>2.39</v>
+      </c>
+      <c r="BG163">
+        <v>1.25</v>
+      </c>
+      <c r="BH163">
+        <v>3.56</v>
+      </c>
+      <c r="BI163">
+        <v>1.4</v>
+      </c>
+      <c r="BJ163">
+        <v>2.75</v>
+      </c>
+      <c r="BK163">
+        <v>1.78</v>
+      </c>
+      <c r="BL163">
+        <v>2</v>
+      </c>
+      <c r="BM163">
+        <v>2.23</v>
+      </c>
+      <c r="BN163">
+        <v>1.62</v>
+      </c>
+      <c r="BO163">
+        <v>3</v>
+      </c>
+      <c r="BP163">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -34085,19 +34085,19 @@
         <v>3</v>
       </c>
       <c r="AV160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW160">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX160">
+        <v>12</v>
+      </c>
+      <c r="AY160">
         <v>11</v>
       </c>
-      <c r="AY160">
-        <v>9</v>
-      </c>
       <c r="AZ160">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA160">
         <v>6</v>
@@ -34288,22 +34288,22 @@
         <v>2.39</v>
       </c>
       <c r="AU161">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV161">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW161">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX161">
         <v>3</v>
       </c>
       <c r="AY161">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ161">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BA161">
         <v>3</v>
@@ -34494,22 +34494,22 @@
         <v>3.14</v>
       </c>
       <c r="AU162">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV162">
         <v>3</v>
       </c>
       <c r="AW162">
+        <v>8</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>19</v>
+      </c>
+      <c r="AZ162">
         <v>6</v>
-      </c>
-      <c r="AX162">
-        <v>2</v>
-      </c>
-      <c r="AY162">
-        <v>15</v>
-      </c>
-      <c r="AZ162">
-        <v>5</v>
       </c>
       <c r="BA162">
         <v>7</v>
@@ -34700,31 +34700,31 @@
         <v>3.15</v>
       </c>
       <c r="AU163">
+        <v>9</v>
+      </c>
+      <c r="AV163">
         <v>5</v>
       </c>
-      <c r="AV163">
-        <v>2</v>
-      </c>
       <c r="AW163">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AX163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY163">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ163">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB163">
         <v>5</v>
       </c>
       <c r="BC163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD163">
         <v>1.82</v>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -822,6 +822,9 @@
   <si>
     <t>['37', '59']</t>
   </si>
+  <si>
+    <t>['69', '90+8']</t>
+  </si>
 </sst>
 </file>
 
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2961,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9">
         <v>0.71</v>
@@ -3170,7 +3173,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ10">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5227,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ20">
         <v>1.15</v>
@@ -6054,7 +6057,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ24">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR24">
         <v>0.79</v>
@@ -7699,7 +7702,7 @@
         <v>1.67</v>
       </c>
       <c r="AP32">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ32">
         <v>1.29</v>
@@ -8938,7 +8941,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ38">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR38">
         <v>1.39</v>
@@ -10998,7 +11001,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ48">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR48">
         <v>1.66</v>
@@ -11407,7 +11410,7 @@
         <v>2.5</v>
       </c>
       <c r="AP50">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11822,7 +11825,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ52">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR52">
         <v>2.16</v>
@@ -12852,7 +12855,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR57">
         <v>1.16</v>
@@ -14291,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ64">
         <v>0.85</v>
@@ -15733,7 +15736,7 @@
         <v>2.2</v>
       </c>
       <c r="AP71">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71">
         <v>1.86</v>
@@ -15942,7 +15945,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ72">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR72">
         <v>1.43</v>
@@ -17587,7 +17590,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ80">
         <v>1.23</v>
@@ -19650,7 +19653,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ90">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR90">
         <v>2.29</v>
@@ -20265,7 +20268,7 @@
         <v>1.29</v>
       </c>
       <c r="AP93">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93">
         <v>0.93</v>
@@ -21916,7 +21919,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ101">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR101">
         <v>1.39</v>
@@ -23149,7 +23152,7 @@
         <v>0.13</v>
       </c>
       <c r="AP107">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ107">
         <v>0.14</v>
@@ -24797,10 +24800,10 @@
         <v>0.44</v>
       </c>
       <c r="AP115">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ115">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
         <v>1.81</v>
@@ -27063,7 +27066,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ126">
         <v>2.62</v>
@@ -28096,7 +28099,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ131">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR131">
         <v>1.28</v>
@@ -29950,7 +29953,7 @@
         <v>0.85</v>
       </c>
       <c r="AQ140">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR140">
         <v>1.27</v>
@@ -30565,7 +30568,7 @@
         <v>0.45</v>
       </c>
       <c r="AP143">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ143">
         <v>0.85</v>
@@ -31392,7 +31395,7 @@
         <v>0.23</v>
       </c>
       <c r="AQ147">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="AR147">
         <v>1.41</v>
@@ -34479,7 +34482,7 @@
         <v>0.15</v>
       </c>
       <c r="AP162">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ162">
         <v>0.14</v>
@@ -34764,6 +34767,212 @@
       </c>
       <c r="BP163">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7372742</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45401.52083333334</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>3</v>
+      </c>
+      <c r="O164" t="s">
+        <v>185</v>
+      </c>
+      <c r="P164" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q164">
+        <v>1.89</v>
+      </c>
+      <c r="R164">
+        <v>2.4</v>
+      </c>
+      <c r="S164">
+        <v>6.25</v>
+      </c>
+      <c r="T164">
+        <v>1.32</v>
+      </c>
+      <c r="U164">
+        <v>3.22</v>
+      </c>
+      <c r="V164">
+        <v>2.51</v>
+      </c>
+      <c r="W164">
+        <v>1.49</v>
+      </c>
+      <c r="X164">
+        <v>5.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.11</v>
+      </c>
+      <c r="Z164">
+        <v>1.4</v>
+      </c>
+      <c r="AA164">
+        <v>4.33</v>
+      </c>
+      <c r="AB164">
+        <v>6</v>
+      </c>
+      <c r="AC164">
+        <v>1.01</v>
+      </c>
+      <c r="AD164">
+        <v>11</v>
+      </c>
+      <c r="AE164">
+        <v>1.19</v>
+      </c>
+      <c r="AF164">
+        <v>3.92</v>
+      </c>
+      <c r="AG164">
+        <v>1.67</v>
+      </c>
+      <c r="AH164">
+        <v>2.1</v>
+      </c>
+      <c r="AI164">
+        <v>1.88</v>
+      </c>
+      <c r="AJ164">
+        <v>1.82</v>
+      </c>
+      <c r="AK164">
+        <v>1.08</v>
+      </c>
+      <c r="AL164">
+        <v>1.18</v>
+      </c>
+      <c r="AM164">
+        <v>2.79</v>
+      </c>
+      <c r="AN164">
+        <v>1.77</v>
+      </c>
+      <c r="AO164">
+        <v>0.62</v>
+      </c>
+      <c r="AP164">
+        <v>1.64</v>
+      </c>
+      <c r="AQ164">
+        <v>0.79</v>
+      </c>
+      <c r="AR164">
+        <v>2.01</v>
+      </c>
+      <c r="AS164">
+        <v>1.18</v>
+      </c>
+      <c r="AT164">
+        <v>3.19</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>10</v>
+      </c>
+      <c r="AX164">
+        <v>1</v>
+      </c>
+      <c r="AY164">
+        <v>17</v>
+      </c>
+      <c r="AZ164">
+        <v>4</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>5</v>
+      </c>
+      <c r="BD164">
+        <v>1.21</v>
+      </c>
+      <c r="BE164">
+        <v>11</v>
+      </c>
+      <c r="BF164">
+        <v>5.3</v>
+      </c>
+      <c r="BG164">
+        <v>1.32</v>
+      </c>
+      <c r="BH164">
+        <v>3.08</v>
+      </c>
+      <c r="BI164">
+        <v>1.58</v>
+      </c>
+      <c r="BJ164">
+        <v>2.28</v>
+      </c>
+      <c r="BK164">
+        <v>1.97</v>
+      </c>
+      <c r="BL164">
+        <v>1.78</v>
+      </c>
+      <c r="BM164">
+        <v>2.5</v>
+      </c>
+      <c r="BN164">
+        <v>1.49</v>
+      </c>
+      <c r="BO164">
+        <v>3.36</v>
+      </c>
+      <c r="BP164">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['31', '45+1', '54', '85']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -824,6 +827,12 @@
   </si>
   <si>
     <t>['69', '90+8']</t>
+  </si>
+  <si>
+    <t>['45+1', '84']</t>
+  </si>
+  <si>
+    <t>['10', '59', '80']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1934,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -2349,7 +2358,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ6">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2474,7 +2483,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2680,7 +2689,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2761,7 +2770,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ8">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3092,7 +3101,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3170,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.79</v>
@@ -3379,7 +3388,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3582,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ12">
         <v>1.86</v>
@@ -3788,10 +3797,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3916,7 +3925,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -3994,10 +4003,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR14">
         <v>0.55</v>
@@ -4200,7 +4209,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>0.14</v>
@@ -4328,7 +4337,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4534,7 +4543,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4740,7 +4749,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4946,7 +4955,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5027,7 +5036,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.27</v>
@@ -5233,7 +5242,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ20">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>1.62</v>
@@ -5358,7 +5367,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5439,7 +5448,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ21">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR21">
         <v>0.9</v>
@@ -5770,7 +5779,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5848,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -5976,7 +5985,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6054,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ24">
         <v>0.79</v>
@@ -6182,7 +6191,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6260,10 +6269,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR25">
         <v>2.22</v>
@@ -6388,7 +6397,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6466,7 +6475,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
         <v>1.14</v>
@@ -6594,7 +6603,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7087,7 +7096,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ29">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>1.35</v>
@@ -7418,7 +7427,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7830,7 +7839,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7911,7 +7920,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ33">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR33">
         <v>1.7</v>
@@ -8036,7 +8045,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8320,10 +8329,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.02</v>
@@ -8448,7 +8457,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8526,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ36">
         <v>1.86</v>
@@ -8654,7 +8663,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8735,7 +8744,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR37">
         <v>1.94</v>
@@ -9144,7 +9153,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2.62</v>
@@ -9272,7 +9281,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9350,7 +9359,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ40">
         <v>1.14</v>
@@ -9478,7 +9487,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9684,7 +9693,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9890,7 +9899,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9968,7 +9977,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ43">
         <v>0.93</v>
@@ -10096,7 +10105,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10383,7 +10392,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ45">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR45">
         <v>1.89</v>
@@ -10508,7 +10517,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10589,7 +10598,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ46">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.65</v>
@@ -10714,7 +10723,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -11126,7 +11135,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11207,7 +11216,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ49">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>2.11</v>
@@ -11413,7 +11422,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11744,7 +11753,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11822,7 +11831,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0.79</v>
@@ -11950,7 +11959,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12028,7 +12037,7 @@
         <v>1.75</v>
       </c>
       <c r="AP53">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ53">
         <v>2.62</v>
@@ -12234,7 +12243,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1.86</v>
@@ -12646,10 +12655,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ56">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR56">
         <v>1.11</v>
@@ -12980,7 +12989,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13058,7 +13067,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.93</v>
@@ -13392,7 +13401,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13598,7 +13607,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13676,7 +13685,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ61">
         <v>0.71</v>
@@ -13804,7 +13813,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13885,7 +13894,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR62">
         <v>1.08</v>
@@ -14010,7 +14019,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14297,7 +14306,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ64">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.87</v>
@@ -14500,10 +14509,10 @@
         <v>0.5</v>
       </c>
       <c r="AP65">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ65">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR65">
         <v>2.21</v>
@@ -14628,7 +14637,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14834,7 +14843,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14912,10 +14921,10 @@
         <v>2.17</v>
       </c>
       <c r="AP67">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR67">
         <v>2.14</v>
@@ -15040,7 +15049,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15118,7 +15127,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15246,7 +15255,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15324,10 +15333,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ69">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.47</v>
@@ -15452,7 +15461,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15533,7 +15542,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ70">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR70">
         <v>1.32</v>
@@ -15658,7 +15667,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -16070,7 +16079,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16276,7 +16285,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16560,7 +16569,7 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ75">
         <v>1.14</v>
@@ -16688,7 +16697,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16975,7 +16984,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ77">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.14</v>
@@ -17306,7 +17315,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17593,7 +17602,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ80">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.95</v>
@@ -17718,7 +17727,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17796,7 +17805,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -17924,7 +17933,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18208,10 +18217,10 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ83">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR83">
         <v>1.68</v>
@@ -18417,7 +18426,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ84">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.57</v>
@@ -18542,7 +18551,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19032,7 +19041,7 @@
         <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>0.14</v>
@@ -19160,7 +19169,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19241,7 +19250,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19366,7 +19375,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19444,7 +19453,7 @@
         <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ89">
         <v>2.62</v>
@@ -19778,7 +19787,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19856,7 +19865,7 @@
         <v>2.43</v>
       </c>
       <c r="AP91">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ91">
         <v>1.86</v>
@@ -19984,7 +19993,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20190,7 +20199,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20602,7 +20611,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20680,10 +20689,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ95">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR95">
         <v>1.48</v>
@@ -20889,7 +20898,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ96">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.53</v>
@@ -21014,7 +21023,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21095,7 +21104,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ97">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.56</v>
@@ -21426,7 +21435,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21504,10 +21513,10 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ99">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.14</v>
@@ -21632,7 +21641,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21710,7 +21719,7 @@
         <v>2.38</v>
       </c>
       <c r="AP100">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100">
         <v>2.62</v>
@@ -21916,7 +21925,7 @@
         <v>0.38</v>
       </c>
       <c r="AP101">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ101">
         <v>0.79</v>
@@ -22044,7 +22053,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22125,7 +22134,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ102">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR102">
         <v>1.29</v>
@@ -22328,7 +22337,7 @@
         <v>1.38</v>
       </c>
       <c r="AP103">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
         <v>1.14</v>
@@ -22662,7 +22671,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22743,7 +22752,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ105">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR105">
         <v>1.07</v>
@@ -22949,7 +22958,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR106">
         <v>1.45</v>
@@ -23486,7 +23495,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23692,7 +23701,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23898,7 +23907,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23976,10 +23985,10 @@
         <v>1.89</v>
       </c>
       <c r="AP111">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24182,10 +24191,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ112">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24310,7 +24319,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24388,7 +24397,7 @@
         <v>0.22</v>
       </c>
       <c r="AP113">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ113">
         <v>0.71</v>
@@ -24722,7 +24731,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24928,7 +24937,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25421,7 +25430,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ118">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR118">
         <v>1.38</v>
@@ -25546,7 +25555,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25624,10 +25633,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ119">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR119">
         <v>1.19</v>
@@ -25752,7 +25761,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25958,7 +25967,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26245,7 +26254,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ122">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.12</v>
@@ -26370,7 +26379,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26657,7 +26666,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR124">
         <v>1.72</v>
@@ -26782,7 +26791,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26860,10 +26869,10 @@
         <v>0.8</v>
       </c>
       <c r="AP125">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ125">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
         <v>1.43</v>
@@ -26988,7 +26997,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27272,7 +27281,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ127">
         <v>1.29</v>
@@ -27400,7 +27409,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27478,10 +27487,10 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR128">
         <v>1.72</v>
@@ -27606,7 +27615,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27684,7 +27693,7 @@
         <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ129">
         <v>0.14</v>
@@ -28636,7 +28645,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28842,7 +28851,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28920,7 +28929,7 @@
         <v>0.27</v>
       </c>
       <c r="AP135">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ135">
         <v>0.71</v>
@@ -29048,7 +29057,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29129,7 +29138,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29460,7 +29469,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29950,7 +29959,7 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ140">
         <v>0.79</v>
@@ -30284,7 +30293,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30362,10 +30371,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR142">
         <v>1.8</v>
@@ -30490,7 +30499,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30571,7 +30580,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ143">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.96</v>
@@ -30774,10 +30783,10 @@
         <v>1.45</v>
       </c>
       <c r="AP144">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ144">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -30902,7 +30911,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31108,7 +31117,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31314,7 +31323,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31392,7 +31401,7 @@
         <v>0.42</v>
       </c>
       <c r="AP147">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AQ147">
         <v>0.79</v>
@@ -31520,7 +31529,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31932,7 +31941,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32219,7 +32228,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ151">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR151">
         <v>1.72</v>
@@ -32344,7 +32353,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32756,7 +32765,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -33040,7 +33049,7 @@
         <v>1.15</v>
       </c>
       <c r="AP155">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AQ155">
         <v>1.14</v>
@@ -33168,7 +33177,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33249,7 +33258,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ156">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR156">
         <v>1.13</v>
@@ -33452,7 +33461,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
         <v>0.93</v>
@@ -33661,7 +33670,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ158">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AR158">
         <v>1.99</v>
@@ -34198,7 +34207,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34279,7 +34288,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ161">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AR161">
         <v>1.18</v>
@@ -34610,7 +34619,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34688,7 +34697,7 @@
         <v>1.77</v>
       </c>
       <c r="AP163">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ163">
         <v>1.86</v>
@@ -34816,7 +34825,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -34973,6 +34982,830 @@
       </c>
       <c r="BP164">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7372745</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45402.4375</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>81</v>
+      </c>
+      <c r="H165" t="s">
+        <v>74</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>185</v>
+      </c>
+      <c r="P165" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q165">
+        <v>3.03</v>
+      </c>
+      <c r="R165">
+        <v>2.46</v>
+      </c>
+      <c r="S165">
+        <v>3.04</v>
+      </c>
+      <c r="T165">
+        <v>1.24</v>
+      </c>
+      <c r="U165">
+        <v>3.66</v>
+      </c>
+      <c r="V165">
+        <v>2.31</v>
+      </c>
+      <c r="W165">
+        <v>1.59</v>
+      </c>
+      <c r="X165">
+        <v>4.83</v>
+      </c>
+      <c r="Y165">
+        <v>1.14</v>
+      </c>
+      <c r="Z165">
+        <v>2.16</v>
+      </c>
+      <c r="AA165">
+        <v>3.75</v>
+      </c>
+      <c r="AB165">
+        <v>2.95</v>
+      </c>
+      <c r="AC165">
+        <v>1.03</v>
+      </c>
+      <c r="AD165">
+        <v>9</v>
+      </c>
+      <c r="AE165">
+        <v>1.14</v>
+      </c>
+      <c r="AF165">
+        <v>4.7</v>
+      </c>
+      <c r="AG165">
+        <v>1.55</v>
+      </c>
+      <c r="AH165">
+        <v>2.3</v>
+      </c>
+      <c r="AI165">
+        <v>1.46</v>
+      </c>
+      <c r="AJ165">
+        <v>2.52</v>
+      </c>
+      <c r="AK165">
+        <v>1.49</v>
+      </c>
+      <c r="AL165">
+        <v>1.26</v>
+      </c>
+      <c r="AM165">
+        <v>1.51</v>
+      </c>
+      <c r="AN165">
+        <v>1.62</v>
+      </c>
+      <c r="AO165">
+        <v>1.23</v>
+      </c>
+      <c r="AP165">
+        <v>1.5</v>
+      </c>
+      <c r="AQ165">
+        <v>1.36</v>
+      </c>
+      <c r="AR165">
+        <v>1.83</v>
+      </c>
+      <c r="AS165">
+        <v>1.25</v>
+      </c>
+      <c r="AT165">
+        <v>3.08</v>
+      </c>
+      <c r="AU165">
+        <v>12</v>
+      </c>
+      <c r="AV165">
+        <v>5</v>
+      </c>
+      <c r="AW165">
+        <v>8</v>
+      </c>
+      <c r="AX165">
+        <v>2</v>
+      </c>
+      <c r="AY165">
+        <v>20</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>10</v>
+      </c>
+      <c r="BB165">
+        <v>5</v>
+      </c>
+      <c r="BC165">
+        <v>15</v>
+      </c>
+      <c r="BD165">
+        <v>1.63</v>
+      </c>
+      <c r="BE165">
+        <v>9.4</v>
+      </c>
+      <c r="BF165">
+        <v>2.59</v>
+      </c>
+      <c r="BG165">
+        <v>1.14</v>
+      </c>
+      <c r="BH165">
+        <v>4.94</v>
+      </c>
+      <c r="BI165">
+        <v>1.28</v>
+      </c>
+      <c r="BJ165">
+        <v>3.34</v>
+      </c>
+      <c r="BK165">
+        <v>1.45</v>
+      </c>
+      <c r="BL165">
+        <v>2.55</v>
+      </c>
+      <c r="BM165">
+        <v>2</v>
+      </c>
+      <c r="BN165">
+        <v>1.8</v>
+      </c>
+      <c r="BO165">
+        <v>2.27</v>
+      </c>
+      <c r="BP165">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7372744</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45402.54166666666</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>78</v>
+      </c>
+      <c r="H166" t="s">
+        <v>76</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166" t="s">
+        <v>84</v>
+      </c>
+      <c r="P166" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q166">
+        <v>2.17</v>
+      </c>
+      <c r="R166">
+        <v>2.22</v>
+      </c>
+      <c r="S166">
+        <v>6.28</v>
+      </c>
+      <c r="T166">
+        <v>1.43</v>
+      </c>
+      <c r="U166">
+        <v>2.78</v>
+      </c>
+      <c r="V166">
+        <v>3.17</v>
+      </c>
+      <c r="W166">
+        <v>1.34</v>
+      </c>
+      <c r="X166">
+        <v>7.7</v>
+      </c>
+      <c r="Y166">
+        <v>1.05</v>
+      </c>
+      <c r="Z166">
+        <v>1.45</v>
+      </c>
+      <c r="AA166">
+        <v>4.15</v>
+      </c>
+      <c r="AB166">
+        <v>7.2</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>8</v>
+      </c>
+      <c r="AE166">
+        <v>1.33</v>
+      </c>
+      <c r="AF166">
+        <v>2.93</v>
+      </c>
+      <c r="AG166">
+        <v>2</v>
+      </c>
+      <c r="AH166">
+        <v>1.7</v>
+      </c>
+      <c r="AI166">
+        <v>2.07</v>
+      </c>
+      <c r="AJ166">
+        <v>1.72</v>
+      </c>
+      <c r="AK166">
+        <v>1.14</v>
+      </c>
+      <c r="AL166">
+        <v>1.21</v>
+      </c>
+      <c r="AM166">
+        <v>1.95</v>
+      </c>
+      <c r="AN166">
+        <v>2.08</v>
+      </c>
+      <c r="AO166">
+        <v>1.15</v>
+      </c>
+      <c r="AP166">
+        <v>2</v>
+      </c>
+      <c r="AQ166">
+        <v>1.14</v>
+      </c>
+      <c r="AR166">
+        <v>1.65</v>
+      </c>
+      <c r="AS166">
+        <v>1.21</v>
+      </c>
+      <c r="AT166">
+        <v>2.86</v>
+      </c>
+      <c r="AU166">
+        <v>10</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>11</v>
+      </c>
+      <c r="AX166">
+        <v>5</v>
+      </c>
+      <c r="AY166">
+        <v>21</v>
+      </c>
+      <c r="AZ166">
+        <v>8</v>
+      </c>
+      <c r="BA166">
+        <v>10</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>13</v>
+      </c>
+      <c r="BD166">
+        <v>1.41</v>
+      </c>
+      <c r="BE166">
+        <v>9.6</v>
+      </c>
+      <c r="BF166">
+        <v>3.42</v>
+      </c>
+      <c r="BG166">
+        <v>1.21</v>
+      </c>
+      <c r="BH166">
+        <v>3.93</v>
+      </c>
+      <c r="BI166">
+        <v>1.39</v>
+      </c>
+      <c r="BJ166">
+        <v>2.77</v>
+      </c>
+      <c r="BK166">
+        <v>1.7</v>
+      </c>
+      <c r="BL166">
+        <v>2.03</v>
+      </c>
+      <c r="BM166">
+        <v>2</v>
+      </c>
+      <c r="BN166">
+        <v>1.8</v>
+      </c>
+      <c r="BO166">
+        <v>2.85</v>
+      </c>
+      <c r="BP166">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7372741</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45402.54166666666</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>80</v>
+      </c>
+      <c r="H167" t="s">
+        <v>70</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>84</v>
+      </c>
+      <c r="P167" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q167">
+        <v>4.39</v>
+      </c>
+      <c r="R167">
+        <v>2.36</v>
+      </c>
+      <c r="S167">
+        <v>2.41</v>
+      </c>
+      <c r="T167">
+        <v>1.32</v>
+      </c>
+      <c r="U167">
+        <v>3.28</v>
+      </c>
+      <c r="V167">
+        <v>2.61</v>
+      </c>
+      <c r="W167">
+        <v>1.47</v>
+      </c>
+      <c r="X167">
+        <v>5.75</v>
+      </c>
+      <c r="Y167">
+        <v>1.1</v>
+      </c>
+      <c r="Z167">
+        <v>3.46</v>
+      </c>
+      <c r="AA167">
+        <v>3.66</v>
+      </c>
+      <c r="AB167">
+        <v>1.97</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>10</v>
+      </c>
+      <c r="AE167">
+        <v>1.22</v>
+      </c>
+      <c r="AF167">
+        <v>3.8</v>
+      </c>
+      <c r="AG167">
+        <v>1.75</v>
+      </c>
+      <c r="AH167">
+        <v>1.95</v>
+      </c>
+      <c r="AI167">
+        <v>1.67</v>
+      </c>
+      <c r="AJ167">
+        <v>2.1</v>
+      </c>
+      <c r="AK167">
+        <v>1.91</v>
+      </c>
+      <c r="AL167">
+        <v>1.29</v>
+      </c>
+      <c r="AM167">
+        <v>1.25</v>
+      </c>
+      <c r="AN167">
+        <v>0.23</v>
+      </c>
+      <c r="AO167">
+        <v>2</v>
+      </c>
+      <c r="AP167">
+        <v>0.21</v>
+      </c>
+      <c r="AQ167">
+        <v>2.07</v>
+      </c>
+      <c r="AR167">
+        <v>1.41</v>
+      </c>
+      <c r="AS167">
+        <v>1.41</v>
+      </c>
+      <c r="AT167">
+        <v>2.82</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>7</v>
+      </c>
+      <c r="AX167">
+        <v>9</v>
+      </c>
+      <c r="AY167">
+        <v>11</v>
+      </c>
+      <c r="AZ167">
+        <v>15</v>
+      </c>
+      <c r="BA167">
+        <v>9</v>
+      </c>
+      <c r="BB167">
+        <v>5</v>
+      </c>
+      <c r="BC167">
+        <v>14</v>
+      </c>
+      <c r="BD167">
+        <v>2.15</v>
+      </c>
+      <c r="BE167">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF167">
+        <v>1.88</v>
+      </c>
+      <c r="BG167">
+        <v>1.15</v>
+      </c>
+      <c r="BH167">
+        <v>4.75</v>
+      </c>
+      <c r="BI167">
+        <v>1.31</v>
+      </c>
+      <c r="BJ167">
+        <v>3.16</v>
+      </c>
+      <c r="BK167">
+        <v>1.48</v>
+      </c>
+      <c r="BL167">
+        <v>2.47</v>
+      </c>
+      <c r="BM167">
+        <v>1.85</v>
+      </c>
+      <c r="BN167">
+        <v>1.85</v>
+      </c>
+      <c r="BO167">
+        <v>2.35</v>
+      </c>
+      <c r="BP167">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7372740</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45402.54166666666</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s">
+        <v>71</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>3</v>
+      </c>
+      <c r="N168">
+        <v>4</v>
+      </c>
+      <c r="O168" t="s">
+        <v>187</v>
+      </c>
+      <c r="P168" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q168">
+        <v>2.62</v>
+      </c>
+      <c r="R168">
+        <v>2.03</v>
+      </c>
+      <c r="S168">
+        <v>4.33</v>
+      </c>
+      <c r="T168">
+        <v>1.46</v>
+      </c>
+      <c r="U168">
+        <v>2.6</v>
+      </c>
+      <c r="V168">
+        <v>3.15</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>7</v>
+      </c>
+      <c r="Y168">
+        <v>1.07</v>
+      </c>
+      <c r="Z168">
+        <v>2.06</v>
+      </c>
+      <c r="AA168">
+        <v>3.32</v>
+      </c>
+      <c r="AB168">
+        <v>3.54</v>
+      </c>
+      <c r="AC168">
+        <v>1.04</v>
+      </c>
+      <c r="AD168">
+        <v>7.8</v>
+      </c>
+      <c r="AE168">
+        <v>1.35</v>
+      </c>
+      <c r="AF168">
+        <v>2.84</v>
+      </c>
+      <c r="AG168">
+        <v>2.1</v>
+      </c>
+      <c r="AH168">
+        <v>1.65</v>
+      </c>
+      <c r="AI168">
+        <v>1.9</v>
+      </c>
+      <c r="AJ168">
+        <v>1.8</v>
+      </c>
+      <c r="AK168">
+        <v>1.26</v>
+      </c>
+      <c r="AL168">
+        <v>1.3</v>
+      </c>
+      <c r="AM168">
+        <v>1.76</v>
+      </c>
+      <c r="AN168">
+        <v>0.85</v>
+      </c>
+      <c r="AO168">
+        <v>0.85</v>
+      </c>
+      <c r="AP168">
+        <v>0.79</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1.28</v>
+      </c>
+      <c r="AS168">
+        <v>1.19</v>
+      </c>
+      <c r="AT168">
+        <v>2.47</v>
+      </c>
+      <c r="AU168">
+        <v>6</v>
+      </c>
+      <c r="AV168">
+        <v>7</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>12</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>8</v>
+      </c>
+      <c r="BC168">
+        <v>13</v>
+      </c>
+      <c r="BD168">
+        <v>1.57</v>
+      </c>
+      <c r="BE168">
+        <v>9.1</v>
+      </c>
+      <c r="BF168">
+        <v>2.79</v>
+      </c>
+      <c r="BG168">
+        <v>1.24</v>
+      </c>
+      <c r="BH168">
+        <v>3.66</v>
+      </c>
+      <c r="BI168">
+        <v>1.42</v>
+      </c>
+      <c r="BJ168">
+        <v>2.65</v>
+      </c>
+      <c r="BK168">
+        <v>1.75</v>
+      </c>
+      <c r="BL168">
+        <v>1.96</v>
+      </c>
+      <c r="BM168">
+        <v>2.25</v>
+      </c>
+      <c r="BN168">
+        <v>1.57</v>
+      </c>
+      <c r="BO168">
+        <v>3</v>
+      </c>
+      <c r="BP168">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t>['10', '59', '80']</t>
+  </si>
+  <si>
+    <t>['47', '83']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1459,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2152,7 +2158,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ5">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2483,7 +2489,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2561,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ7">
         <v>1.14</v>
@@ -2689,7 +2695,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3101,7 +3107,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3925,7 +3931,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4337,7 +4343,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4418,7 +4424,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR16">
         <v>1.38</v>
@@ -4543,7 +4549,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4749,7 +4755,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4955,7 +4961,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5367,7 +5373,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5651,7 +5657,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ22">
         <v>0.93</v>
@@ -5779,7 +5785,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5985,7 +5991,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6191,7 +6197,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6397,7 +6403,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6603,7 +6609,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7427,7 +7433,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7839,7 +7845,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -7917,7 +7923,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ33">
         <v>1.36</v>
@@ -8045,7 +8051,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8457,7 +8463,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8663,7 +8669,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9156,7 +9162,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR39">
         <v>1.78</v>
@@ -9281,7 +9287,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9487,7 +9493,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9693,7 +9699,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9899,7 +9905,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10105,7 +10111,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10517,7 +10523,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10595,7 +10601,7 @@
         <v>0.33</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46">
         <v>1.14</v>
@@ -10723,7 +10729,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10804,7 +10810,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ47">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR47">
         <v>1.21</v>
@@ -11007,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ48">
         <v>0.79</v>
@@ -11135,7 +11141,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11753,7 +11759,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11959,7 +11965,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12040,7 +12046,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ53">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12989,7 +12995,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13401,7 +13407,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13607,7 +13613,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13813,7 +13819,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14019,7 +14025,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14637,7 +14643,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14715,10 +14721,10 @@
         <v>2</v>
       </c>
       <c r="AP66">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ66">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -14843,7 +14849,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15049,7 +15055,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15255,7 +15261,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15461,7 +15467,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15667,7 +15673,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -16079,7 +16085,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16285,7 +16291,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16697,7 +16703,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16778,7 +16784,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17187,7 +17193,7 @@
         <v>0.17</v>
       </c>
       <c r="AP78">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ78">
         <v>0.14</v>
@@ -17315,7 +17321,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17727,7 +17733,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17933,7 +17939,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18551,7 +18557,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19169,7 +19175,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19375,7 +19381,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19456,7 +19462,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ89">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR89">
         <v>1.1</v>
@@ -19787,7 +19793,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19993,7 +19999,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20199,7 +20205,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20611,7 +20617,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -20895,7 +20901,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21023,7 +21029,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21435,7 +21441,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21641,7 +21647,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21722,7 +21728,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR100">
         <v>2.01</v>
@@ -22053,7 +22059,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22671,7 +22677,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -23367,7 +23373,7 @@
         <v>0.25</v>
       </c>
       <c r="AP108">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23495,7 +23501,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23701,7 +23707,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23782,7 +23788,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ110">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR110">
         <v>2.27</v>
@@ -23907,7 +23913,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24319,7 +24325,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24731,7 +24737,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24937,7 +24943,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25555,7 +25561,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25761,7 +25767,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25967,7 +25973,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26045,7 +26051,7 @@
         <v>1.33</v>
       </c>
       <c r="AP121">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ121">
         <v>1.29</v>
@@ -26379,7 +26385,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26663,7 +26669,7 @@
         <v>2</v>
       </c>
       <c r="AP124">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ124">
         <v>2.07</v>
@@ -26791,7 +26797,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -26997,7 +27003,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27078,7 +27084,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ126">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR126">
         <v>1.96</v>
@@ -27409,7 +27415,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27615,7 +27621,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28645,7 +28651,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28726,7 +28732,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ134">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR134">
         <v>1.19</v>
@@ -28851,7 +28857,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29057,7 +29063,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29469,7 +29475,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29753,7 +29759,7 @@
         <v>1.45</v>
       </c>
       <c r="AP139">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ139">
         <v>1.29</v>
@@ -30293,7 +30299,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30499,7 +30505,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30911,7 +30917,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31117,7 +31123,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31323,7 +31329,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31529,7 +31535,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31941,7 +31947,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32225,7 +32231,7 @@
         <v>1.33</v>
       </c>
       <c r="AP151">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AQ151">
         <v>1.36</v>
@@ -32353,7 +32359,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32434,7 +32440,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ152">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="AR152">
         <v>2.04</v>
@@ -32765,7 +32771,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -33177,7 +33183,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -34207,7 +34213,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34619,7 +34625,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34825,7 +34831,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -35031,7 +35037,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35649,7 +35655,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35806,6 +35812,212 @@
       </c>
       <c r="BP168">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7372743</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45403.52083333334</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>79</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>188</v>
+      </c>
+      <c r="P169" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q169">
+        <v>3.5</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>3</v>
+      </c>
+      <c r="T169">
+        <v>1.46</v>
+      </c>
+      <c r="U169">
+        <v>2.55</v>
+      </c>
+      <c r="V169">
+        <v>3.04</v>
+      </c>
+      <c r="W169">
+        <v>1.35</v>
+      </c>
+      <c r="X169">
+        <v>7.7</v>
+      </c>
+      <c r="Y169">
+        <v>1.05</v>
+      </c>
+      <c r="Z169">
+        <v>2.75</v>
+      </c>
+      <c r="AA169">
+        <v>3.2</v>
+      </c>
+      <c r="AB169">
+        <v>2.3</v>
+      </c>
+      <c r="AC169">
+        <v>1.03</v>
+      </c>
+      <c r="AD169">
+        <v>8.1</v>
+      </c>
+      <c r="AE169">
+        <v>1.36</v>
+      </c>
+      <c r="AF169">
+        <v>3</v>
+      </c>
+      <c r="AG169">
+        <v>1.94</v>
+      </c>
+      <c r="AH169">
+        <v>1.63</v>
+      </c>
+      <c r="AI169">
+        <v>1.83</v>
+      </c>
+      <c r="AJ169">
+        <v>1.9</v>
+      </c>
+      <c r="AK169">
+        <v>1.47</v>
+      </c>
+      <c r="AL169">
+        <v>1.28</v>
+      </c>
+      <c r="AM169">
+        <v>1.33</v>
+      </c>
+      <c r="AN169">
+        <v>1.92</v>
+      </c>
+      <c r="AO169">
+        <v>2.62</v>
+      </c>
+      <c r="AP169">
+        <v>1.79</v>
+      </c>
+      <c r="AQ169">
+        <v>2.64</v>
+      </c>
+      <c r="AR169">
+        <v>1.68</v>
+      </c>
+      <c r="AS169">
+        <v>1.8</v>
+      </c>
+      <c r="AT169">
+        <v>3.48</v>
+      </c>
+      <c r="AU169">
+        <v>2</v>
+      </c>
+      <c r="AV169">
+        <v>7</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>9</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>5</v>
+      </c>
+      <c r="BB169">
+        <v>5</v>
+      </c>
+      <c r="BC169">
+        <v>10</v>
+      </c>
+      <c r="BD169">
+        <v>2.02</v>
+      </c>
+      <c r="BE169">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF169">
+        <v>2.05</v>
+      </c>
+      <c r="BG169">
+        <v>1.38</v>
+      </c>
+      <c r="BH169">
+        <v>2.8</v>
+      </c>
+      <c r="BI169">
+        <v>1.92</v>
+      </c>
+      <c r="BJ169">
+        <v>1.88</v>
+      </c>
+      <c r="BK169">
+        <v>2.3</v>
+      </c>
+      <c r="BL169">
+        <v>1.55</v>
+      </c>
+      <c r="BM169">
+        <v>3.14</v>
+      </c>
+      <c r="BN169">
+        <v>1.31</v>
+      </c>
+      <c r="BO169">
+        <v>4.16</v>
+      </c>
+      <c r="BP169">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['78', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '55']</t>
+  </si>
+  <si>
+    <t>['26', '37', '80']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -839,6 +848,15 @@
   </si>
   <si>
     <t>['47', '83']</t>
+  </si>
+  <si>
+    <t>['18', '23', '45+2', '54']</t>
+  </si>
+  <si>
+    <t>['22', '59']</t>
+  </si>
+  <si>
+    <t>['29', '59']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1477,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1540,7 +1558,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1743,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ3">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1949,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ4">
         <v>1.29</v>
@@ -2155,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ5">
         <v>2.64</v>
@@ -2361,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
         <v>1.14</v>
@@ -2489,7 +2507,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2570,7 +2588,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2695,7 +2713,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -2773,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>1</v>
@@ -3107,7 +3125,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3394,7 +3412,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ11">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3600,7 +3618,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ12">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3931,7 +3949,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4009,10 +4027,10 @@
         <v>1</v>
       </c>
       <c r="AP14">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ14">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR14">
         <v>0.55</v>
@@ -4218,7 +4236,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ15">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR15">
         <v>2.18</v>
@@ -4343,7 +4361,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ16">
         <v>2.64</v>
@@ -4549,7 +4567,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4627,10 +4645,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
         <v>2.42</v>
@@ -4755,7 +4773,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4833,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="AP18">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1.29</v>
@@ -4961,7 +4979,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5373,7 +5391,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5451,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ21">
         <v>1.36</v>
@@ -5660,7 +5678,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ22">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR22">
         <v>1.28</v>
@@ -5785,7 +5803,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5991,7 +6009,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6069,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ24">
         <v>0.79</v>
@@ -6197,7 +6215,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6278,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="AQ25">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR25">
         <v>2.22</v>
@@ -6403,7 +6421,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6484,7 +6502,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR26">
         <v>2.17</v>
@@ -6609,7 +6627,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -6687,10 +6705,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR27">
         <v>1.94</v>
@@ -6893,10 +6911,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ28">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR28">
         <v>1.17</v>
@@ -7305,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ30">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1</v>
@@ -7433,7 +7451,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7511,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ31">
         <v>0.71</v>
@@ -7845,7 +7863,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8051,7 +8069,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8132,7 +8150,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ34">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8463,7 +8481,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8541,10 +8559,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ36">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR36">
         <v>0.82</v>
@@ -8669,7 +8687,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -8747,10 +8765,10 @@
         <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ37">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR37">
         <v>1.94</v>
@@ -8953,7 +8971,7 @@
         <v>1.5</v>
       </c>
       <c r="AP38">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.79</v>
@@ -9287,7 +9305,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9368,7 +9386,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ40">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR40">
         <v>1.92</v>
@@ -9493,7 +9511,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9571,10 +9589,10 @@
         <v>1.75</v>
       </c>
       <c r="AP41">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR41">
         <v>1.14</v>
@@ -9699,7 +9717,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9780,7 +9798,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>1.27</v>
@@ -9905,7 +9923,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -9983,10 +10001,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ43">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR43">
         <v>0.92</v>
@@ -10111,7 +10129,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10189,7 +10207,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10523,7 +10541,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10729,7 +10747,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10807,7 +10825,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>2.64</v>
@@ -11141,7 +11159,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11219,7 +11237,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11428,7 +11446,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ50">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR50">
         <v>1.93</v>
@@ -11631,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.71</v>
@@ -11759,7 +11777,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11965,7 +11983,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12252,7 +12270,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -12455,10 +12473,10 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR55">
         <v>1.26</v>
@@ -12661,7 +12679,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ56">
         <v>1.36</v>
@@ -12867,7 +12885,7 @@
         <v>0.6</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ57">
         <v>0.79</v>
@@ -12995,7 +13013,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13076,7 +13094,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR58">
         <v>1.6</v>
@@ -13282,7 +13300,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ59">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.56</v>
@@ -13407,7 +13425,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13488,7 +13506,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13613,7 +13631,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13819,7 +13837,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -13897,10 +13915,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ62">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR62">
         <v>1.08</v>
@@ -14025,7 +14043,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14103,7 +14121,7 @@
         <v>1.6</v>
       </c>
       <c r="AP63">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14643,7 +14661,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14849,7 +14867,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -14930,7 +14948,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR67">
         <v>2.14</v>
@@ -15055,7 +15073,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15261,7 +15279,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15467,7 +15485,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15545,7 +15563,7 @@
         <v>1.4</v>
       </c>
       <c r="AP70">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
         <v>1.36</v>
@@ -15673,7 +15691,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -15754,7 +15772,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR71">
         <v>1.94</v>
@@ -16085,7 +16103,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16291,7 +16309,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16369,7 +16387,7 @@
         <v>1.33</v>
       </c>
       <c r="AP74">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ74">
         <v>1.29</v>
@@ -16575,10 +16593,10 @@
         <v>1.67</v>
       </c>
       <c r="AP75">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ75">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR75">
         <v>1.13</v>
@@ -16703,7 +16721,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16987,7 +17005,7 @@
         <v>0.4</v>
       </c>
       <c r="AP77">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ77">
         <v>1.14</v>
@@ -17196,7 +17214,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ78">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>1.51</v>
@@ -17321,7 +17339,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17399,10 +17417,10 @@
         <v>1.2</v>
       </c>
       <c r="AP79">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR79">
         <v>2.38</v>
@@ -17733,7 +17751,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17814,7 +17832,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR81">
         <v>1.48</v>
@@ -17939,7 +17957,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18557,7 +18575,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -18635,10 +18653,10 @@
         <v>2.33</v>
       </c>
       <c r="AP85">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ85">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR85">
         <v>1.01</v>
@@ -18841,10 +18859,10 @@
         <v>1.57</v>
       </c>
       <c r="AP86">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR86">
         <v>1.32</v>
@@ -19050,7 +19068,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR87">
         <v>1.82</v>
@@ -19175,7 +19193,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19253,10 +19271,10 @@
         <v>2</v>
       </c>
       <c r="AP88">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ88">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR88">
         <v>1.18</v>
@@ -19381,7 +19399,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19459,7 +19477,7 @@
         <v>2.29</v>
       </c>
       <c r="AP89">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ89">
         <v>2.64</v>
@@ -19665,7 +19683,7 @@
         <v>0.43</v>
       </c>
       <c r="AP90">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ90">
         <v>0.79</v>
@@ -19793,7 +19811,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -19874,7 +19892,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ91">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR91">
         <v>2.07</v>
@@ -19999,7 +20017,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20077,7 +20095,7 @@
         <v>0.29</v>
       </c>
       <c r="AP92">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20205,7 +20223,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20286,7 +20304,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ93">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR93">
         <v>1.85</v>
@@ -20617,7 +20635,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -21029,7 +21047,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21313,10 +21331,10 @@
         <v>2.5</v>
       </c>
       <c r="AP98">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ98">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR98">
         <v>2.32</v>
@@ -21441,7 +21459,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21519,7 +21537,7 @@
         <v>0.5</v>
       </c>
       <c r="AP99">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21647,7 +21665,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -22059,7 +22077,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22137,10 +22155,10 @@
         <v>2.13</v>
       </c>
       <c r="AP102">
+        <v>2</v>
+      </c>
+      <c r="AQ102">
         <v>1.93</v>
-      </c>
-      <c r="AQ102">
-        <v>2.07</v>
       </c>
       <c r="AR102">
         <v>1.29</v>
@@ -22346,7 +22364,7 @@
         <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR103">
         <v>1.81</v>
@@ -22549,10 +22567,10 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22677,7 +22695,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -22755,7 +22773,7 @@
         <v>0.5</v>
       </c>
       <c r="AP105">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ105">
         <v>1.14</v>
@@ -23170,7 +23188,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ107">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR107">
         <v>1.78</v>
@@ -23501,7 +23519,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23707,7 +23725,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23785,7 +23803,7 @@
         <v>2.44</v>
       </c>
       <c r="AP110">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>2.64</v>
@@ -23913,7 +23931,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23994,7 +24012,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ111">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR111">
         <v>1.39</v>
@@ -24325,7 +24343,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24609,10 +24627,10 @@
         <v>2.22</v>
       </c>
       <c r="AP114">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR114">
         <v>1.25</v>
@@ -24737,7 +24755,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24943,7 +24961,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25024,7 +25042,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR116">
         <v>1.33</v>
@@ -25227,10 +25245,10 @@
         <v>1.33</v>
       </c>
       <c r="AP117">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ117">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR117">
         <v>1.1</v>
@@ -25433,7 +25451,7 @@
         <v>1.56</v>
       </c>
       <c r="AP118">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ118">
         <v>1.36</v>
@@ -25561,7 +25579,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25639,7 +25657,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP119">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ119">
         <v>1.14</v>
@@ -25767,7 +25785,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25848,7 +25866,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ120">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR120">
         <v>1.76</v>
@@ -25973,7 +25991,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26257,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26385,7 +26403,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26463,7 +26481,7 @@
         <v>0.2</v>
       </c>
       <c r="AP123">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ123">
         <v>0.71</v>
@@ -26672,7 +26690,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ124">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR124">
         <v>1.72</v>
@@ -26797,7 +26815,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -27003,7 +27021,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27415,7 +27433,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27621,7 +27639,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -27699,10 +27717,10 @@
         <v>0.1</v>
       </c>
       <c r="AP129">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ129">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR129">
         <v>1.17</v>
@@ -27905,10 +27923,10 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ130">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28317,10 +28335,10 @@
         <v>1.3</v>
       </c>
       <c r="AP132">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR132">
         <v>1.21</v>
@@ -28526,7 +28544,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ133">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR133">
         <v>1.83</v>
@@ -28651,7 +28669,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28729,7 +28747,7 @@
         <v>2.55</v>
       </c>
       <c r="AP134">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>2.64</v>
@@ -28857,7 +28875,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29063,7 +29081,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29141,10 +29159,10 @@
         <v>1.82</v>
       </c>
       <c r="AP136">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ136">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR136">
         <v>1.28</v>
@@ -29347,10 +29365,10 @@
         <v>1.27</v>
       </c>
       <c r="AP137">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ137">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR137">
         <v>1.14</v>
@@ -29475,7 +29493,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -29553,10 +29571,10 @@
         <v>1.18</v>
       </c>
       <c r="AP138">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR138">
         <v>2.1</v>
@@ -29965,7 +29983,7 @@
         <v>0.45</v>
       </c>
       <c r="AP140">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ140">
         <v>0.79</v>
@@ -30174,7 +30192,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR141">
         <v>1.34</v>
@@ -30299,7 +30317,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30505,7 +30523,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30917,7 +30935,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -30998,7 +31016,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ145">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR145">
         <v>1.79</v>
@@ -31123,7 +31141,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31201,7 +31219,7 @@
         <v>1.33</v>
       </c>
       <c r="AP146">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ146">
         <v>1.29</v>
@@ -31329,7 +31347,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31535,7 +31553,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31616,7 +31634,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ148">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR148">
         <v>1.34</v>
@@ -31819,7 +31837,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ149">
         <v>0.71</v>
@@ -31947,7 +31965,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32028,7 +32046,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ150">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR150">
         <v>1.77</v>
@@ -32359,7 +32377,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32437,7 +32455,7 @@
         <v>2.58</v>
       </c>
       <c r="AP152">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ152">
         <v>2.64</v>
@@ -32643,10 +32661,10 @@
         <v>1.92</v>
       </c>
       <c r="AP153">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR153">
         <v>1.19</v>
@@ -32771,7 +32789,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -32849,10 +32867,10 @@
         <v>0.17</v>
       </c>
       <c r="AP154">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AQ154">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR154">
         <v>1.33</v>
@@ -33055,10 +33073,10 @@
         <v>1.15</v>
       </c>
       <c r="AP155">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ155">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR155">
         <v>1.29</v>
@@ -33183,7 +33201,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33261,10 +33279,10 @@
         <v>1.92</v>
       </c>
       <c r="AP156">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ156">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR156">
         <v>1.13</v>
@@ -33470,7 +33488,7 @@
         <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR157">
         <v>1.66</v>
@@ -33673,7 +33691,7 @@
         <v>1.17</v>
       </c>
       <c r="AP158">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ158">
         <v>1.14</v>
@@ -34213,7 +34231,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34291,7 +34309,7 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34500,7 +34518,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ162">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="AR162">
         <v>1.97</v>
@@ -34625,7 +34643,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34706,7 +34724,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ163">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AR163">
         <v>1.81</v>
@@ -34831,7 +34849,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -35037,7 +35055,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35530,7 +35548,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ167">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AR167">
         <v>1.41</v>
@@ -35655,7 +35673,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35733,7 +35751,7 @@
         <v>0.85</v>
       </c>
       <c r="AP168">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AQ168">
         <v>1</v>
@@ -35861,7 +35879,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>3.5</v>
@@ -36018,6 +36036,1036 @@
       </c>
       <c r="BP169">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7372747</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45408.52083333334</v>
+      </c>
+      <c r="F170">
+        <v>7</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>70</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>189</v>
+      </c>
+      <c r="P170" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q170">
+        <v>2.73</v>
+      </c>
+      <c r="R170">
+        <v>2.33</v>
+      </c>
+      <c r="S170">
+        <v>3.24</v>
+      </c>
+      <c r="T170">
+        <v>1.38</v>
+      </c>
+      <c r="U170">
+        <v>2.9</v>
+      </c>
+      <c r="V170">
+        <v>2.18</v>
+      </c>
+      <c r="W170">
+        <v>1.64</v>
+      </c>
+      <c r="X170">
+        <v>4.45</v>
+      </c>
+      <c r="Y170">
+        <v>1.17</v>
+      </c>
+      <c r="Z170">
+        <v>2.2</v>
+      </c>
+      <c r="AA170">
+        <v>3.2</v>
+      </c>
+      <c r="AB170">
+        <v>3</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE170">
+        <v>1.12</v>
+      </c>
+      <c r="AF170">
+        <v>5.05</v>
+      </c>
+      <c r="AG170">
+        <v>1.7</v>
+      </c>
+      <c r="AH170">
+        <v>2.05</v>
+      </c>
+      <c r="AI170">
+        <v>1.42</v>
+      </c>
+      <c r="AJ170">
+        <v>2.65</v>
+      </c>
+      <c r="AK170">
+        <v>1.42</v>
+      </c>
+      <c r="AL170">
+        <v>1.26</v>
+      </c>
+      <c r="AM170">
+        <v>1.59</v>
+      </c>
+      <c r="AN170">
+        <v>0.79</v>
+      </c>
+      <c r="AO170">
+        <v>2.07</v>
+      </c>
+      <c r="AP170">
+        <v>0.93</v>
+      </c>
+      <c r="AQ170">
+        <v>1.93</v>
+      </c>
+      <c r="AR170">
+        <v>1.31</v>
+      </c>
+      <c r="AS170">
+        <v>1.44</v>
+      </c>
+      <c r="AT170">
+        <v>2.75</v>
+      </c>
+      <c r="AU170">
+        <v>5</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>4</v>
+      </c>
+      <c r="AY170">
+        <v>10</v>
+      </c>
+      <c r="AZ170">
+        <v>6</v>
+      </c>
+      <c r="BA170">
+        <v>8</v>
+      </c>
+      <c r="BB170">
+        <v>6</v>
+      </c>
+      <c r="BC170">
+        <v>14</v>
+      </c>
+      <c r="BD170">
+        <v>1.69</v>
+      </c>
+      <c r="BE170">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF170">
+        <v>2.47</v>
+      </c>
+      <c r="BG170">
+        <v>1.16</v>
+      </c>
+      <c r="BH170">
+        <v>4.64</v>
+      </c>
+      <c r="BI170">
+        <v>1.29</v>
+      </c>
+      <c r="BJ170">
+        <v>3.29</v>
+      </c>
+      <c r="BK170">
+        <v>1.52</v>
+      </c>
+      <c r="BL170">
+        <v>2.3</v>
+      </c>
+      <c r="BM170">
+        <v>1.89</v>
+      </c>
+      <c r="BN170">
+        <v>1.81</v>
+      </c>
+      <c r="BO170">
+        <v>2.4</v>
+      </c>
+      <c r="BP170">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7372751</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45409.4375</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s">
+        <v>75</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>190</v>
+      </c>
+      <c r="P171" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q171">
+        <v>3.45</v>
+      </c>
+      <c r="R171">
+        <v>2.15</v>
+      </c>
+      <c r="S171">
+        <v>2.86</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>2.98</v>
+      </c>
+      <c r="V171">
+        <v>2.7</v>
+      </c>
+      <c r="W171">
+        <v>1.43</v>
+      </c>
+      <c r="X171">
+        <v>6.44</v>
+      </c>
+      <c r="Y171">
+        <v>1.08</v>
+      </c>
+      <c r="Z171">
+        <v>2.28</v>
+      </c>
+      <c r="AA171">
+        <v>3.12</v>
+      </c>
+      <c r="AB171">
+        <v>2.49</v>
+      </c>
+      <c r="AC171">
+        <v>1.01</v>
+      </c>
+      <c r="AD171">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE171">
+        <v>1.24</v>
+      </c>
+      <c r="AF171">
+        <v>3.48</v>
+      </c>
+      <c r="AG171">
+        <v>1.76</v>
+      </c>
+      <c r="AH171">
+        <v>1.78</v>
+      </c>
+      <c r="AI171">
+        <v>1.66</v>
+      </c>
+      <c r="AJ171">
+        <v>2.09</v>
+      </c>
+      <c r="AK171">
+        <v>1.57</v>
+      </c>
+      <c r="AL171">
+        <v>1.29</v>
+      </c>
+      <c r="AM171">
+        <v>1.39</v>
+      </c>
+      <c r="AN171">
+        <v>2.07</v>
+      </c>
+      <c r="AO171">
+        <v>1.86</v>
+      </c>
+      <c r="AP171">
+        <v>2.13</v>
+      </c>
+      <c r="AQ171">
+        <v>1.73</v>
+      </c>
+      <c r="AR171">
+        <v>2.07</v>
+      </c>
+      <c r="AS171">
+        <v>1.34</v>
+      </c>
+      <c r="AT171">
+        <v>3.41</v>
+      </c>
+      <c r="AU171">
+        <v>0</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>6</v>
+      </c>
+      <c r="AX171">
+        <v>7</v>
+      </c>
+      <c r="AY171">
+        <v>6</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>9</v>
+      </c>
+      <c r="BD171">
+        <v>1.81</v>
+      </c>
+      <c r="BE171">
+        <v>8.6</v>
+      </c>
+      <c r="BF171">
+        <v>2.29</v>
+      </c>
+      <c r="BG171">
+        <v>1.32</v>
+      </c>
+      <c r="BH171">
+        <v>3.06</v>
+      </c>
+      <c r="BI171">
+        <v>1.55</v>
+      </c>
+      <c r="BJ171">
+        <v>2.23</v>
+      </c>
+      <c r="BK171">
+        <v>2</v>
+      </c>
+      <c r="BL171">
+        <v>1.8</v>
+      </c>
+      <c r="BM171">
+        <v>2.54</v>
+      </c>
+      <c r="BN171">
+        <v>1.43</v>
+      </c>
+      <c r="BO171">
+        <v>3.38</v>
+      </c>
+      <c r="BP171">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7372746</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="F172">
+        <v>7</v>
+      </c>
+      <c r="G172" t="s">
+        <v>71</v>
+      </c>
+      <c r="H172" t="s">
+        <v>77</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>3</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>4</v>
+      </c>
+      <c r="O172" t="s">
+        <v>84</v>
+      </c>
+      <c r="P172" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q172">
+        <v>3.93</v>
+      </c>
+      <c r="R172">
+        <v>2.09</v>
+      </c>
+      <c r="S172">
+        <v>2.98</v>
+      </c>
+      <c r="T172">
+        <v>1.45</v>
+      </c>
+      <c r="U172">
+        <v>2.7</v>
+      </c>
+      <c r="V172">
+        <v>3.25</v>
+      </c>
+      <c r="W172">
+        <v>1.33</v>
+      </c>
+      <c r="X172">
+        <v>8.4</v>
+      </c>
+      <c r="Y172">
+        <v>1.04</v>
+      </c>
+      <c r="Z172">
+        <v>2.79</v>
+      </c>
+      <c r="AA172">
+        <v>2.08</v>
+      </c>
+      <c r="AB172">
+        <v>3.72</v>
+      </c>
+      <c r="AC172">
+        <v>1.04</v>
+      </c>
+      <c r="AD172">
+        <v>7.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.37</v>
+      </c>
+      <c r="AF172">
+        <v>2.75</v>
+      </c>
+      <c r="AG172">
+        <v>2.15</v>
+      </c>
+      <c r="AH172">
+        <v>1.61</v>
+      </c>
+      <c r="AI172">
+        <v>1.88</v>
+      </c>
+      <c r="AJ172">
+        <v>1.82</v>
+      </c>
+      <c r="AK172">
+        <v>1.51</v>
+      </c>
+      <c r="AL172">
+        <v>1.33</v>
+      </c>
+      <c r="AM172">
+        <v>1.4</v>
+      </c>
+      <c r="AN172">
+        <v>1.57</v>
+      </c>
+      <c r="AO172">
+        <v>1.14</v>
+      </c>
+      <c r="AP172">
+        <v>1.47</v>
+      </c>
+      <c r="AQ172">
+        <v>1.27</v>
+      </c>
+      <c r="AR172">
+        <v>1.35</v>
+      </c>
+      <c r="AS172">
+        <v>1.7</v>
+      </c>
+      <c r="AT172">
+        <v>3.05</v>
+      </c>
+      <c r="AU172">
+        <v>0</v>
+      </c>
+      <c r="AV172">
+        <v>6</v>
+      </c>
+      <c r="AW172">
+        <v>7</v>
+      </c>
+      <c r="AX172">
+        <v>8</v>
+      </c>
+      <c r="AY172">
+        <v>7</v>
+      </c>
+      <c r="AZ172">
+        <v>14</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>4</v>
+      </c>
+      <c r="BC172">
+        <v>7</v>
+      </c>
+      <c r="BD172">
+        <v>2.52</v>
+      </c>
+      <c r="BE172">
+        <v>8.6</v>
+      </c>
+      <c r="BF172">
+        <v>1.69</v>
+      </c>
+      <c r="BG172">
+        <v>1.29</v>
+      </c>
+      <c r="BH172">
+        <v>3.29</v>
+      </c>
+      <c r="BI172">
+        <v>1.58</v>
+      </c>
+      <c r="BJ172">
+        <v>2.17</v>
+      </c>
+      <c r="BK172">
+        <v>1.98</v>
+      </c>
+      <c r="BL172">
+        <v>1.82</v>
+      </c>
+      <c r="BM172">
+        <v>2.64</v>
+      </c>
+      <c r="BN172">
+        <v>1.4</v>
+      </c>
+      <c r="BO172">
+        <v>3.45</v>
+      </c>
+      <c r="BP172">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7372748</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="F173">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173" t="s">
+        <v>80</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>84</v>
+      </c>
+      <c r="P173" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q173">
+        <v>2.13</v>
+      </c>
+      <c r="R173">
+        <v>2.26</v>
+      </c>
+      <c r="S173">
+        <v>5.15</v>
+      </c>
+      <c r="T173">
+        <v>1.35</v>
+      </c>
+      <c r="U173">
+        <v>3.04</v>
+      </c>
+      <c r="V173">
+        <v>2.63</v>
+      </c>
+      <c r="W173">
+        <v>1.45</v>
+      </c>
+      <c r="X173">
+        <v>6.13</v>
+      </c>
+      <c r="Y173">
+        <v>1.09</v>
+      </c>
+      <c r="Z173">
+        <v>1.51</v>
+      </c>
+      <c r="AA173">
+        <v>2.99</v>
+      </c>
+      <c r="AB173">
+        <v>8.69</v>
+      </c>
+      <c r="AC173">
+        <v>1.01</v>
+      </c>
+      <c r="AD173">
+        <v>9.9</v>
+      </c>
+      <c r="AE173">
+        <v>1.23</v>
+      </c>
+      <c r="AF173">
+        <v>3.56</v>
+      </c>
+      <c r="AG173">
+        <v>1.75</v>
+      </c>
+      <c r="AH173">
+        <v>1.95</v>
+      </c>
+      <c r="AI173">
+        <v>1.81</v>
+      </c>
+      <c r="AJ173">
+        <v>1.89</v>
+      </c>
+      <c r="AK173">
+        <v>1.13</v>
+      </c>
+      <c r="AL173">
+        <v>1.2</v>
+      </c>
+      <c r="AM173">
+        <v>2</v>
+      </c>
+      <c r="AN173">
+        <v>0.93</v>
+      </c>
+      <c r="AO173">
+        <v>0.14</v>
+      </c>
+      <c r="AP173">
+        <v>0.87</v>
+      </c>
+      <c r="AQ173">
+        <v>0.33</v>
+      </c>
+      <c r="AR173">
+        <v>1.26</v>
+      </c>
+      <c r="AS173">
+        <v>1.14</v>
+      </c>
+      <c r="AT173">
+        <v>2.4</v>
+      </c>
+      <c r="AU173">
+        <v>3</v>
+      </c>
+      <c r="AV173">
+        <v>3</v>
+      </c>
+      <c r="AW173">
+        <v>8</v>
+      </c>
+      <c r="AX173">
+        <v>4</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>7</v>
+      </c>
+      <c r="BA173">
+        <v>3</v>
+      </c>
+      <c r="BB173">
+        <v>4</v>
+      </c>
+      <c r="BC173">
+        <v>7</v>
+      </c>
+      <c r="BD173">
+        <v>1.52</v>
+      </c>
+      <c r="BE173">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF173">
+        <v>2.95</v>
+      </c>
+      <c r="BG173">
+        <v>1.24</v>
+      </c>
+      <c r="BH173">
+        <v>3.66</v>
+      </c>
+      <c r="BI173">
+        <v>1.41</v>
+      </c>
+      <c r="BJ173">
+        <v>2.6</v>
+      </c>
+      <c r="BK173">
+        <v>1.82</v>
+      </c>
+      <c r="BL173">
+        <v>1.98</v>
+      </c>
+      <c r="BM173">
+        <v>2.17</v>
+      </c>
+      <c r="BN173">
+        <v>1.58</v>
+      </c>
+      <c r="BO173">
+        <v>3</v>
+      </c>
+      <c r="BP173">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7372750</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45409.54166666666</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174" t="s">
+        <v>76</v>
+      </c>
+      <c r="H174" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>3</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="M174">
+        <v>2</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>191</v>
+      </c>
+      <c r="P174" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q174">
+        <v>2.86</v>
+      </c>
+      <c r="R174">
+        <v>2.08</v>
+      </c>
+      <c r="S174">
+        <v>3.64</v>
+      </c>
+      <c r="T174">
+        <v>1.4</v>
+      </c>
+      <c r="U174">
+        <v>2.82</v>
+      </c>
+      <c r="V174">
+        <v>2.78</v>
+      </c>
+      <c r="W174">
+        <v>1.41</v>
+      </c>
+      <c r="X174">
+        <v>6.74</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>2.52</v>
+      </c>
+      <c r="AA174">
+        <v>2.16</v>
+      </c>
+      <c r="AB174">
+        <v>4.04</v>
+      </c>
+      <c r="AC174">
+        <v>1.02</v>
+      </c>
+      <c r="AD174">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE174">
+        <v>1.26</v>
+      </c>
+      <c r="AF174">
+        <v>3.34</v>
+      </c>
+      <c r="AG174">
+        <v>1.85</v>
+      </c>
+      <c r="AH174">
+        <v>1.85</v>
+      </c>
+      <c r="AI174">
+        <v>1.7</v>
+      </c>
+      <c r="AJ174">
+        <v>2.03</v>
+      </c>
+      <c r="AK174">
+        <v>1.36</v>
+      </c>
+      <c r="AL174">
+        <v>1.31</v>
+      </c>
+      <c r="AM174">
+        <v>1.59</v>
+      </c>
+      <c r="AN174">
+        <v>1.93</v>
+      </c>
+      <c r="AO174">
+        <v>0.93</v>
+      </c>
+      <c r="AP174">
+        <v>2</v>
+      </c>
+      <c r="AQ174">
+        <v>0.87</v>
+      </c>
+      <c r="AR174">
+        <v>1.2</v>
+      </c>
+      <c r="AS174">
+        <v>1.71</v>
+      </c>
+      <c r="AT174">
+        <v>2.91</v>
+      </c>
+      <c r="AU174">
+        <v>-1</v>
+      </c>
+      <c r="AV174">
+        <v>-1</v>
+      </c>
+      <c r="AW174">
+        <v>-1</v>
+      </c>
+      <c r="AX174">
+        <v>-1</v>
+      </c>
+      <c r="AY174">
+        <v>-1</v>
+      </c>
+      <c r="AZ174">
+        <v>-1</v>
+      </c>
+      <c r="BA174">
+        <v>6</v>
+      </c>
+      <c r="BB174">
+        <v>4</v>
+      </c>
+      <c r="BC174">
+        <v>10</v>
+      </c>
+      <c r="BD174">
+        <v>2.17</v>
+      </c>
+      <c r="BE174">
+        <v>9.1</v>
+      </c>
+      <c r="BF174">
+        <v>1.87</v>
+      </c>
+      <c r="BG174">
+        <v>1.16</v>
+      </c>
+      <c r="BH174">
+        <v>4.56</v>
+      </c>
+      <c r="BI174">
+        <v>1.32</v>
+      </c>
+      <c r="BJ174">
+        <v>3.06</v>
+      </c>
+      <c r="BK174">
+        <v>1.51</v>
+      </c>
+      <c r="BL174">
+        <v>2.37</v>
+      </c>
+      <c r="BM174">
+        <v>1.9</v>
+      </c>
+      <c r="BN174">
+        <v>1.8</v>
+      </c>
+      <c r="BO174">
+        <v>2.45</v>
+      </c>
+      <c r="BP174">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Slovakia Super Liga_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['26', '37', '80']</t>
   </si>
   <si>
+    <t>['10', '19', '27', '56', '89']</t>
+  </si>
+  <si>
     <t>['34', '41', '90+2', '90+5']</t>
   </si>
   <si>
@@ -857,6 +860,9 @@
   </si>
   <si>
     <t>['29', '59']</t>
+  </si>
+  <si>
+    <t>['78', '83', '84']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1483,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -2176,7 +2182,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ5">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2507,7 +2513,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.05</v>
@@ -2713,7 +2719,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>2.65</v>
@@ -3125,7 +3131,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>1.9</v>
@@ -3203,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ10">
         <v>0.79</v>
@@ -3949,7 +3955,7 @@
         <v>84</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.9</v>
@@ -4361,7 +4367,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>4.2</v>
@@ -4442,7 +4448,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ16">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR16">
         <v>1.38</v>
@@ -4567,7 +4573,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4773,7 +4779,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>3.6</v>
@@ -4979,7 +4985,7 @@
         <v>97</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2.67</v>
@@ -5391,7 +5397,7 @@
         <v>84</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.9</v>
@@ -5803,7 +5809,7 @@
         <v>84</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -6009,7 +6015,7 @@
         <v>84</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.1</v>
@@ -6215,7 +6221,7 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>1.9</v>
@@ -6293,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ25">
         <v>1.93</v>
@@ -6421,7 +6427,7 @@
         <v>101</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2.3</v>
@@ -6627,7 +6633,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.1</v>
@@ -7451,7 +7457,7 @@
         <v>105</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.35</v>
@@ -7863,7 +7869,7 @@
         <v>84</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.2</v>
@@ -8069,7 +8075,7 @@
         <v>107</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>1.92</v>
@@ -8481,7 +8487,7 @@
         <v>109</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>4.33</v>
@@ -8687,7 +8693,7 @@
         <v>110</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>2.6</v>
@@ -9177,10 +9183,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ39">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR39">
         <v>1.78</v>
@@ -9305,7 +9311,7 @@
         <v>113</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>3.4</v>
@@ -9511,7 +9517,7 @@
         <v>84</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9717,7 +9723,7 @@
         <v>86</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9923,7 +9929,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>3.75</v>
@@ -10129,7 +10135,7 @@
         <v>84</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>4.33</v>
@@ -10541,7 +10547,7 @@
         <v>115</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>2.3</v>
@@ -10747,7 +10753,7 @@
         <v>116</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>3.75</v>
@@ -10828,7 +10834,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR47">
         <v>1.21</v>
@@ -11159,7 +11165,7 @@
         <v>118</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>2.06</v>
@@ -11777,7 +11783,7 @@
         <v>120</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11983,7 +11989,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -12064,7 +12070,7 @@
         <v>0.21</v>
       </c>
       <c r="AQ53">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR53">
         <v>1.68</v>
@@ -12267,7 +12273,7 @@
         <v>1.67</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ54">
         <v>1.73</v>
@@ -13013,7 +13019,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.4</v>
@@ -13091,7 +13097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ58">
         <v>0.87</v>
@@ -13425,7 +13431,7 @@
         <v>126</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13631,7 +13637,7 @@
         <v>127</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>2.5</v>
@@ -13837,7 +13843,7 @@
         <v>128</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -14043,7 +14049,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>3.2</v>
@@ -14661,7 +14667,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>3.2</v>
@@ -14742,7 +14748,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ66">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -14867,7 +14873,7 @@
         <v>132</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15073,7 +15079,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>1.8</v>
@@ -15151,7 +15157,7 @@
         <v>0.5</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15279,7 +15285,7 @@
         <v>84</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15485,7 +15491,7 @@
         <v>84</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15691,7 +15697,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>3.1</v>
@@ -16103,7 +16109,7 @@
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>1.62</v>
@@ -16309,7 +16315,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16721,7 +16727,7 @@
         <v>111</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>3.75</v>
@@ -16802,7 +16808,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR76">
         <v>1.53</v>
@@ -17339,7 +17345,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.86</v>
@@ -17751,7 +17757,7 @@
         <v>84</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>4.4</v>
@@ -17957,7 +17963,7 @@
         <v>139</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>2.06</v>
@@ -18241,7 +18247,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ83">
         <v>1.14</v>
@@ -18575,7 +18581,7 @@
         <v>84</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>4.75</v>
@@ -19065,7 +19071,7 @@
         <v>0.14</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ87">
         <v>0.33</v>
@@ -19193,7 +19199,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19399,7 +19405,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -19480,7 +19486,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ89">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR89">
         <v>1.1</v>
@@ -19811,7 +19817,7 @@
         <v>114</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.38</v>
@@ -20017,7 +20023,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.56</v>
@@ -20223,7 +20229,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>2.7</v>
@@ -20635,7 +20641,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>3.75</v>
@@ -21047,7 +21053,7 @@
         <v>148</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>1.72</v>
@@ -21459,7 +21465,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21665,7 +21671,7 @@
         <v>84</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>3.4</v>
@@ -21746,7 +21752,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ100">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR100">
         <v>2.01</v>
@@ -22077,7 +22083,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -22361,7 +22367,7 @@
         <v>1.38</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -22695,7 +22701,7 @@
         <v>154</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q105">
         <v>2.95</v>
@@ -23519,7 +23525,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>2.12</v>
@@ -23725,7 +23731,7 @@
         <v>84</v>
       </c>
       <c r="P110" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>3.6</v>
@@ -23806,7 +23812,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR110">
         <v>2.27</v>
@@ -23931,7 +23937,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24215,7 +24221,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24343,7 +24349,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>1.95</v>
@@ -24755,7 +24761,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q115">
         <v>1.95</v>
@@ -24961,7 +24967,7 @@
         <v>161</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25579,7 +25585,7 @@
         <v>84</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>2.97</v>
@@ -25785,7 +25791,7 @@
         <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>1.5</v>
@@ -25991,7 +25997,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.61</v>
@@ -26403,7 +26409,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q123">
         <v>1.98</v>
@@ -26815,7 +26821,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3.4</v>
@@ -27021,7 +27027,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27102,7 +27108,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ126">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR126">
         <v>1.96</v>
@@ -27433,7 +27439,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>2.2</v>
@@ -27511,7 +27517,7 @@
         <v>1.5</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ128">
         <v>1.36</v>
@@ -27639,7 +27645,7 @@
         <v>170</v>
       </c>
       <c r="P129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q129">
         <v>2.43</v>
@@ -28669,7 +28675,7 @@
         <v>84</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q134">
         <v>5.25</v>
@@ -28750,7 +28756,7 @@
         <v>2</v>
       </c>
       <c r="AQ134">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR134">
         <v>1.19</v>
@@ -28875,7 +28881,7 @@
         <v>84</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29081,7 +29087,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>3.4</v>
@@ -29493,7 +29499,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>2.5</v>
@@ -30317,7 +30323,7 @@
         <v>84</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>2.36</v>
@@ -30523,7 +30529,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -30807,7 +30813,7 @@
         <v>1.45</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ144">
         <v>1.36</v>
@@ -30935,7 +30941,7 @@
         <v>84</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q145">
         <v>2.1</v>
@@ -31141,7 +31147,7 @@
         <v>94</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>3.5</v>
@@ -31347,7 +31353,7 @@
         <v>146</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31553,7 +31559,7 @@
         <v>180</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31965,7 +31971,7 @@
         <v>181</v>
       </c>
       <c r="P150" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q150">
         <v>1.8</v>
@@ -32377,7 +32383,7 @@
         <v>84</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q152">
         <v>5.25</v>
@@ -32458,7 +32464,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ152">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR152">
         <v>2.04</v>
@@ -32789,7 +32795,7 @@
         <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q154">
         <v>2.49</v>
@@ -33201,7 +33207,7 @@
         <v>84</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>3.86</v>
@@ -33485,7 +33491,7 @@
         <v>1</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ157">
         <v>0.87</v>
@@ -34231,7 +34237,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>2.93</v>
@@ -34643,7 +34649,7 @@
         <v>84</v>
       </c>
       <c r="P163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>3.82</v>
@@ -34849,7 +34855,7 @@
         <v>185</v>
       </c>
       <c r="P164" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q164">
         <v>1.89</v>
@@ -35055,7 +35061,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q165">
         <v>3.03</v>
@@ -35339,7 +35345,7 @@
         <v>1.15</v>
       </c>
       <c r="AP166">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ166">
         <v>1.14</v>
@@ -35673,7 +35679,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>2.62</v>
@@ -35879,7 +35885,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>3.5</v>
@@ -35960,7 +35966,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ169">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36384,22 +36390,22 @@
         <v>3.41</v>
       </c>
       <c r="AU171">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV171">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW171">
+        <v>5</v>
+      </c>
+      <c r="AX171">
         <v>6</v>
       </c>
-      <c r="AX171">
-        <v>7</v>
-      </c>
       <c r="AY171">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ171">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA171">
         <v>4</v>
@@ -36497,7 +36503,7 @@
         <v>84</v>
       </c>
       <c r="P172" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q172">
         <v>3.93</v>
@@ -36703,7 +36709,7 @@
         <v>84</v>
       </c>
       <c r="P173" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q173">
         <v>2.13</v>
@@ -36909,7 +36915,7 @@
         <v>191</v>
       </c>
       <c r="P174" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q174">
         <v>2.86</v>
@@ -37066,6 +37072,212 @@
       </c>
       <c r="BP174">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7372749</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45410.52083333334</v>
+      </c>
+      <c r="F175">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>78</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>5</v>
+      </c>
+      <c r="M175">
+        <v>3</v>
+      </c>
+      <c r="N175">
+        <v>8</v>
+      </c>
+      <c r="O175" t="s">
+        <v>192</v>
+      </c>
+      <c r="P175" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q175">
+        <v>3.38</v>
+      </c>
+      <c r="R175">
+        <v>2.13</v>
+      </c>
+      <c r="S175">
+        <v>2.94</v>
+      </c>
+      <c r="T175">
+        <v>1.38</v>
+      </c>
+      <c r="U175">
+        <v>2.9</v>
+      </c>
+      <c r="V175">
+        <v>2.78</v>
+      </c>
+      <c r="W175">
+        <v>1.41</v>
+      </c>
+      <c r="X175">
+        <v>6.61</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2.58</v>
+      </c>
+      <c r="AA175">
+        <v>2.98</v>
+      </c>
+      <c r="AB175">
+        <v>2.24</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE175">
+        <v>1.26</v>
+      </c>
+      <c r="AF175">
+        <v>3.34</v>
+      </c>
+      <c r="AG175">
+        <v>1.88</v>
+      </c>
+      <c r="AH175">
+        <v>1.88</v>
+      </c>
+      <c r="AI175">
+        <v>1.69</v>
+      </c>
+      <c r="AJ175">
+        <v>2.04</v>
+      </c>
+      <c r="AK175">
+        <v>1.54</v>
+      </c>
+      <c r="AL175">
+        <v>1.29</v>
+      </c>
+      <c r="AM175">
+        <v>1.42</v>
+      </c>
+      <c r="AN175">
+        <v>2</v>
+      </c>
+      <c r="AO175">
+        <v>2.64</v>
+      </c>
+      <c r="AP175">
+        <v>2.07</v>
+      </c>
+      <c r="AQ175">
+        <v>2.47</v>
+      </c>
+      <c r="AR175">
+        <v>1.72</v>
+      </c>
+      <c r="AS175">
+        <v>1.79</v>
+      </c>
+      <c r="AT175">
+        <v>3.51</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>7</v>
+      </c>
+      <c r="AW175">
+        <v>6</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>14</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>5</v>
+      </c>
+      <c r="BB175">
+        <v>4</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>2.12</v>
+      </c>
+      <c r="BE175">
+        <v>8.6</v>
+      </c>
+      <c r="BF175">
+        <v>1.93</v>
+      </c>
+      <c r="BG175">
+        <v>1.26</v>
+      </c>
+      <c r="BH175">
+        <v>3.47</v>
+      </c>
+      <c r="BI175">
+        <v>1.45</v>
+      </c>
+      <c r="BJ175">
+        <v>2.48</v>
+      </c>
+      <c r="BK175">
+        <v>1.92</v>
+      </c>
+      <c r="BL175">
+        <v>1.88</v>
+      </c>
+      <c r="BM175">
+        <v>2.3</v>
+      </c>
+      <c r="BN175">
+        <v>1.52</v>
+      </c>
+      <c r="BO175">
+        <v>3</v>
+      </c>
+      <c r="BP175">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>
